--- a/assets/canadianMentalHealthResources.xlsx
+++ b/assets/canadianMentalHealthResources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yehonathanshakarghi/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DF03A0B-22C3-BE40-9391-F54C329F29E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56700FBF-545B-0E44-B281-9595886F0D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="740" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -208,15 +208,6 @@
     <t>Call or text 9-8-8</t>
   </si>
   <si>
-    <t>Call 1-855-242-3310 or online chat</t>
-  </si>
-  <si>
-    <t>Call 1-866-925-4419</t>
-  </si>
-  <si>
-    <t>Call 1-800-668-6868, text CONNECT to 686868, or online chat</t>
-  </si>
-  <si>
     <t>Visit in person or contact via website</t>
   </si>
   <si>
@@ -235,12 +226,6 @@
     <t>MH Line: 1-877-303-2642, Addiction HL: 1-866-332-2322, 211 Alberta</t>
   </si>
   <si>
-    <t>Call or text 9-8-8, plus HealthLine 811</t>
-  </si>
-  <si>
-    <t>Call 1-866-355-5550</t>
-  </si>
-  <si>
     <t>https://www.canada.ca/en/public-health/services/mental-health-services/mental-health-get-help.html</t>
   </si>
   <si>
@@ -289,9 +274,6 @@
     <t>Canada’s largest mental health teaching hospital; inpatient and outpatient services, emergency care</t>
   </si>
   <si>
-    <t>Call 416-535-8501</t>
-  </si>
-  <si>
     <t>https://www.camh.ca</t>
   </si>
   <si>
@@ -307,9 +289,6 @@
     <t>Mental health outpatient programs, crisis support, psychiatry</t>
   </si>
   <si>
-    <t>Call 613-544-3310</t>
-  </si>
-  <si>
     <t>https://kingstonhsc.ca</t>
   </si>
   <si>
@@ -325,9 +304,6 @@
     <t>Youth wellness centre providing mental health, primary care, substance use services</t>
   </si>
   <si>
-    <t>Call 604-647-1234</t>
-  </si>
-  <si>
     <t>https://foundrybc.ca</t>
   </si>
   <si>
@@ -340,9 +316,6 @@
     <t>Specialized pediatric mental health inpatient and outpatient services</t>
   </si>
   <si>
-    <t>Call 604-875-2345</t>
-  </si>
-  <si>
     <t>https://www.bcchildrens.ca</t>
   </si>
   <si>
@@ -358,9 +331,6 @@
     <t>Adult mental health inpatient/outpatient services, emergency psychiatry</t>
   </si>
   <si>
-    <t>Call 403-944-1110</t>
-  </si>
-  <si>
     <t>https://www.albertahealthservices.ca</t>
   </si>
   <si>
@@ -376,9 +346,6 @@
     <t>Acute psychiatric inpatient and outpatient care, crisis services</t>
   </si>
   <si>
-    <t>Call 780-735-4111</t>
-  </si>
-  <si>
     <t>Quebec</t>
   </si>
   <si>
@@ -394,9 +361,6 @@
     <t>Large psychiatric hospital offering inpatient, outpatient, and crisis services</t>
   </si>
   <si>
-    <t>Call 514-251-4000</t>
-  </si>
-  <si>
     <t>https://ciusss-estmtl.gouv.qc.ca</t>
   </si>
   <si>
@@ -415,10 +379,46 @@
     <t>Inpatient/outpatient psychiatry, crisis support, specialized clinics</t>
   </si>
   <si>
-    <t>Call 902-473-2700</t>
-  </si>
-  <si>
     <t>https://www.nshealth.ca</t>
+  </si>
+  <si>
+    <t>Call: 1-800-668-6868, text CONNECT to 686868, or online chat</t>
+  </si>
+  <si>
+    <t>Call: 1-866-925-4419</t>
+  </si>
+  <si>
+    <t>Call: 1-855-242-3310 or online chat</t>
+  </si>
+  <si>
+    <t>Call or text: 9-8-8, plus HealthLine 811</t>
+  </si>
+  <si>
+    <t>Call: 1-866-355-5550</t>
+  </si>
+  <si>
+    <t>Call: 416-535-8501</t>
+  </si>
+  <si>
+    <t>Call: 613-544-3310</t>
+  </si>
+  <si>
+    <t>Call: 604-647-1234</t>
+  </si>
+  <si>
+    <t>Call: 604-875-2345</t>
+  </si>
+  <si>
+    <t>Call: 403-944-1110</t>
+  </si>
+  <si>
+    <t>Call: 780-735-4111</t>
+  </si>
+  <si>
+    <t>Call: 514-251-4000</t>
+  </si>
+  <si>
+    <t>Call: 902-473-2700</t>
   </si>
 </sst>
 </file>
@@ -801,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="81" zoomScaleNormal="290" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="134" zoomScaleNormal="290" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -865,10 +865,10 @@
         <v>61</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -891,13 +891,13 @@
         <v>50</v>
       </c>
       <c r="G3" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -920,13 +920,13 @@
         <v>51</v>
       </c>
       <c r="G4" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -949,13 +949,13 @@
         <v>52</v>
       </c>
       <c r="G5" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -978,10 +978,10 @@
         <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I6">
         <v>43.653199999999998</v>
@@ -990,7 +990,7 @@
         <v>-79.383200000000002</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -1013,13 +1013,13 @@
         <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -1042,13 +1042,13 @@
         <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -1071,13 +1071,13 @@
         <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -1100,13 +1100,13 @@
         <v>57</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" t="s">
         <v>79</v>
-      </c>
-      <c r="K10" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -1129,13 +1129,13 @@
         <v>58</v>
       </c>
       <c r="G11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -1158,13 +1158,13 @@
         <v>59</v>
       </c>
       <c r="G12" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K12" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1187,13 +1187,13 @@
         <v>60</v>
       </c>
       <c r="G13" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1204,22 +1204,22 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F14" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I14">
         <v>43.647599999999997</v>
@@ -1228,7 +1228,7 @@
         <v>-79.410700000000006</v>
       </c>
       <c r="K14" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1236,25 +1236,25 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G15" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="I15">
         <v>44.225499999999997</v>
@@ -1263,7 +1263,7 @@
         <v>-76.507000000000005</v>
       </c>
       <c r="K15" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1271,25 +1271,25 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D16" t="s">
         <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F16" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G16" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="I16">
         <v>49.282699999999998</v>
@@ -1298,7 +1298,7 @@
         <v>-123.108</v>
       </c>
       <c r="K16" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -1306,25 +1306,25 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" t="s">
         <v>97</v>
       </c>
-      <c r="C17" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E17" t="s">
-        <v>104</v>
-      </c>
-      <c r="F17" t="s">
-        <v>105</v>
-      </c>
       <c r="G17" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="I17">
         <v>49.243000000000002</v>
@@ -1333,7 +1333,7 @@
         <v>-123.124</v>
       </c>
       <c r="K17" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -1341,25 +1341,25 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E18" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F18" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="G18" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="I18">
         <v>51.066499999999998</v>
@@ -1368,7 +1368,7 @@
         <v>-114.13679999999999</v>
       </c>
       <c r="K18" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -1376,25 +1376,25 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D19" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E19" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F19" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G19" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="I19">
         <v>53.557200000000002</v>
@@ -1403,33 +1403,33 @@
         <v>-113.5055</v>
       </c>
       <c r="K19" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C20" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D20" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E20" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F20" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="G20" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="I20">
         <v>45.576900000000002</v>
@@ -1438,33 +1438,33 @@
         <v>-73.520499999999998</v>
       </c>
       <c r="K20" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C21" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E21" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="F21" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="G21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="I21">
         <v>44.647300000000001</v>
@@ -1473,7 +1473,7 @@
         <v>-63.592599999999997</v>
       </c>
       <c r="K21" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/assets/canadianMentalHealthResources.xlsx
+++ b/assets/canadianMentalHealthResources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29301"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://queensuca-my.sharepoint.com/personal/23nrd2_queensu_ca/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yehonathanshakarghi/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B34CB202-B226-4FAC-AE33-70C6110A59CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B3063D9-2555-6141-9A3A-411F1F2E5C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16980" xr2:uid="{60D886F8-FFE1-F14E-A3CB-AFDAAB1FA1C7}"/>
+    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16960" xr2:uid="{60D886F8-FFE1-F14E-A3CB-AFDAAB1FA1C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="590">
   <si>
     <t>Province</t>
   </si>
@@ -1845,12 +1845,84 @@
   <si>
     <t>1-800-668-6868 or text “CONNECT” to 686868</t>
   </si>
+  <si>
+    <t>Kingston</t>
+  </si>
+  <si>
+    <t>552 Princess St, Kingston, ON K7L 1C7</t>
+  </si>
+  <si>
+    <t>AMHS-KFLA Walk-In Crisis Clinic</t>
+  </si>
+  <si>
+    <t>Immediate access to a Crisis Worker for urgent mental health support; no appointment needed.</t>
+  </si>
+  <si>
+    <t>613-544-4229 / 1-866-616-6005</t>
+  </si>
+  <si>
+    <t>https://amhs-kfla.ca/programs-services/crisis/</t>
+  </si>
+  <si>
+    <t>60 Queen St, Kingston, ON K7K 1A4</t>
+  </si>
+  <si>
+    <t>Peer Support Centre</t>
+  </si>
+  <si>
+    <t>Kingston Peer Support Centre – Peers of the Round Table</t>
+  </si>
+  <si>
+    <t>Consumer-run centre for adults (16+) with mental health/addiction challenges; peer support, community reconnection, social &amp; educational programs.</t>
+  </si>
+  <si>
+    <t>613-549-4964</t>
+  </si>
+  <si>
+    <t>https://www.psseo.ca</t>
+  </si>
+  <si>
+    <t>Vaughan</t>
+  </si>
+  <si>
+    <t>3200 Major Mackenzie Dr W, Vaughan, ON L6A 4Z3</t>
+  </si>
+  <si>
+    <t>Crisis Intervention Services – Cortellucci Vaughan Hospital</t>
+  </si>
+  <si>
+    <t>24/7 mental health crisis assessments in the Emergency Department.</t>
+  </si>
+  <si>
+    <t>905-417-2000</t>
+  </si>
+  <si>
+    <t>https://www.mackenziehealth.ca/about-us/cortellucci-vaughan-hospital</t>
+  </si>
+  <si>
+    <t>8271 Keele St Unit 2, Vaughan, ON L4K 1Z1</t>
+  </si>
+  <si>
+    <t>Community Support</t>
+  </si>
+  <si>
+    <t>Canadian Mental Health Association – Vaughan Office</t>
+  </si>
+  <si>
+    <t>CMHA branch offering psychotherapy, youth/adult programs, case management.</t>
+  </si>
+  <si>
+    <t>1-866-345-0183 ext 3321</t>
+  </si>
+  <si>
+    <t>https://cmha-yr.on.ca/locations/vaughan/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1935,7 +2007,6 @@
       <sz val="12"/>
       <color rgb="FF242424"/>
       <name val="Aptos Narrow"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2316,23 +2387,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8E0B34-D33C-AB4E-A291-CAA443D46446}">
-  <dimension ref="A1:K123"/>
+  <dimension ref="A1:K127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="D115" workbookViewId="0">
+      <selection activeCell="H128" sqref="H128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
     <col min="3" max="3" width="32.5" customWidth="1"/>
-    <col min="4" max="4" width="87.75" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
-    <col min="6" max="6" width="113.125" customWidth="1"/>
+    <col min="4" max="4" width="87.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="113.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2367,7 +2438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -2392,7 +2463,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2417,7 +2488,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -2442,7 +2513,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2467,7 +2538,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -2492,7 +2563,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -2524,7 +2595,7 @@
         <v>-114.366</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -2546,7 +2617,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -2571,7 +2642,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
@@ -2596,7 +2667,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>52</v>
       </c>
@@ -2621,7 +2692,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>52</v>
       </c>
@@ -2646,7 +2717,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>52</v>
       </c>
@@ -2671,7 +2742,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>52</v>
       </c>
@@ -2696,7 +2767,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>52</v>
       </c>
@@ -2726,7 +2797,7 @@
         <v>-105.05027</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>52</v>
       </c>
@@ -2756,7 +2827,7 @@
         <v>-68.600729999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>52</v>
       </c>
@@ -2786,7 +2857,7 @@
         <v>-92.086699999999993</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>52</v>
       </c>
@@ -2816,7 +2887,7 @@
         <v>-68.515969999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>52</v>
       </c>
@@ -2848,7 +2919,7 @@
         <v>-68.508660000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>52</v>
       </c>
@@ -2871,7 +2942,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>52</v>
       </c>
@@ -2903,7 +2974,7 @@
         <v>-105.524</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>108</v>
       </c>
@@ -2928,7 +2999,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>108</v>
       </c>
@@ -2955,7 +3026,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="30.75">
+    <row r="24" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>108</v>
       </c>
@@ -2987,7 +3058,7 @@
         <v>-106.66547</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>108</v>
       </c>
@@ -3012,7 +3083,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>108</v>
       </c>
@@ -3037,7 +3108,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>108</v>
       </c>
@@ -3062,7 +3133,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>141</v>
       </c>
@@ -3087,7 +3158,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>141</v>
       </c>
@@ -3112,7 +3183,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>141</v>
       </c>
@@ -3137,7 +3208,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>141</v>
       </c>
@@ -3169,7 +3240,7 @@
         <v>-135.05208999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>141</v>
       </c>
@@ -3199,7 +3270,7 @@
         <v>-135.05596</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>141</v>
       </c>
@@ -3231,7 +3302,7 @@
         <v>-135.05911</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>141</v>
       </c>
@@ -3263,7 +3334,7 @@
         <v>-139.43394000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>141</v>
       </c>
@@ -3295,7 +3366,7 @@
         <v>-138.32791</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>141</v>
       </c>
@@ -3327,7 +3398,7 @@
         <v>-128.70595</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>194</v>
       </c>
@@ -3352,7 +3423,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>194</v>
       </c>
@@ -3377,7 +3448,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>194</v>
       </c>
@@ -3402,7 +3473,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>194</v>
       </c>
@@ -3427,7 +3498,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>194</v>
       </c>
@@ -3459,7 +3530,7 @@
         <v>-97.161490000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>194</v>
       </c>
@@ -3482,7 +3553,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>194</v>
       </c>
@@ -3514,7 +3585,7 @@
         <v>-96.884169999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>194</v>
       </c>
@@ -3546,7 +3617,7 @@
         <v>-97.152869999999993</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>194</v>
       </c>
@@ -3569,7 +3640,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>236</v>
       </c>
@@ -3592,7 +3663,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>236</v>
       </c>
@@ -3617,7 +3688,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="18">
+    <row r="48" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>236</v>
       </c>
@@ -3642,7 +3713,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="18">
+    <row r="49" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>236</v>
       </c>
@@ -3667,7 +3738,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="18">
+    <row r="50" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>236</v>
       </c>
@@ -3692,7 +3763,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="18">
+    <row r="51" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>236</v>
       </c>
@@ -3719,7 +3790,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="18">
+    <row r="52" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>236</v>
       </c>
@@ -3746,7 +3817,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="18">
+    <row r="53" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>236</v>
       </c>
@@ -3773,7 +3844,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="18">
+    <row r="54" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>236</v>
       </c>
@@ -3798,7 +3869,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="18">
+    <row r="55" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>236</v>
       </c>
@@ -3823,7 +3894,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="18">
+    <row r="56" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>277</v>
       </c>
@@ -3848,7 +3919,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="18">
+    <row r="57" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>277</v>
       </c>
@@ -3878,7 +3949,7 @@
         <v>-97.158799999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="18">
+    <row r="58" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>287</v>
       </c>
@@ -3903,7 +3974,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="18">
+    <row r="59" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>287</v>
       </c>
@@ -3928,7 +3999,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="18">
+    <row r="60" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>287</v>
       </c>
@@ -3953,7 +4024,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="18">
+    <row r="61" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>287</v>
       </c>
@@ -3978,7 +4049,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="18">
+    <row r="62" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>287</v>
       </c>
@@ -4003,7 +4074,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="18">
+    <row r="63" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>287</v>
       </c>
@@ -4035,7 +4106,7 @@
         <v>-97.161100000000005</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="18">
+    <row r="64" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>287</v>
       </c>
@@ -4060,7 +4131,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="18">
+    <row r="65" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>287</v>
       </c>
@@ -4085,7 +4156,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="18">
+    <row r="66" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>287</v>
       </c>
@@ -4112,7 +4183,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="18">
+    <row r="67" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>287</v>
       </c>
@@ -4139,7 +4210,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="18">
+    <row r="68" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>333</v>
       </c>
@@ -4164,7 +4235,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="18">
+    <row r="69" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>333</v>
       </c>
@@ -4191,7 +4262,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="18">
+    <row r="70" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>333</v>
       </c>
@@ -4223,7 +4294,7 @@
         <v>-79.363579999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="18">
+    <row r="71" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>333</v>
       </c>
@@ -4248,7 +4319,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="18">
+    <row r="72" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>333</v>
       </c>
@@ -4273,7 +4344,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="18">
+    <row r="73" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>333</v>
       </c>
@@ -4298,7 +4369,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="18">
+    <row r="74" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>333</v>
       </c>
@@ -4323,7 +4394,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="18">
+    <row r="75" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>333</v>
       </c>
@@ -4348,7 +4419,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="18">
+    <row r="76" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>333</v>
       </c>
@@ -4373,7 +4444,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="18">
+    <row r="77" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>333</v>
       </c>
@@ -4398,7 +4469,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="18">
+    <row r="78" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>377</v>
       </c>
@@ -4423,7 +4494,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="18">
+    <row r="79" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>377</v>
       </c>
@@ -4448,7 +4519,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="18">
+    <row r="80" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>377</v>
       </c>
@@ -4471,7 +4542,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="18">
+    <row r="81" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>377</v>
       </c>
@@ -4503,7 +4574,7 @@
         <v>-73.584199999999996</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="18">
+    <row r="82" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>377</v>
       </c>
@@ -4533,7 +4604,7 @@
         <v>-73.528620000000004</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="18">
+    <row r="83" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>377</v>
       </c>
@@ -4563,7 +4634,7 @@
         <v>-73.638499999999993</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="18">
+    <row r="84" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>377</v>
       </c>
@@ -4595,7 +4666,7 @@
         <v>-73.653369999999995</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="18">
+    <row r="85" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>377</v>
       </c>
@@ -4620,7 +4691,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="18">
+    <row r="86" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>420</v>
       </c>
@@ -4645,7 +4716,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="18">
+    <row r="87" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>420</v>
       </c>
@@ -4670,7 +4741,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="18">
+    <row r="88" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>420</v>
       </c>
@@ -4695,7 +4766,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="18">
+    <row r="89" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>420</v>
       </c>
@@ -4718,7 +4789,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="18">
+    <row r="90" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>420</v>
       </c>
@@ -4741,7 +4812,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="18">
+    <row r="91" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>420</v>
       </c>
@@ -4771,7 +4842,7 @@
         <v>-66.326549999999997</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="18">
+    <row r="92" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>420</v>
       </c>
@@ -4794,7 +4865,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="18">
+    <row r="93" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>420</v>
       </c>
@@ -4826,7 +4897,7 @@
         <v>-66.126549999999995</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="18">
+    <row r="94" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>420</v>
       </c>
@@ -4851,7 +4922,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="18">
+    <row r="95" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>420</v>
       </c>
@@ -4876,7 +4947,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="18">
+    <row r="96" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>460</v>
       </c>
@@ -4901,7 +4972,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="18">
+    <row r="97" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>460</v>
       </c>
@@ -4926,7 +4997,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="18">
+    <row r="98" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>460</v>
       </c>
@@ -4951,7 +5022,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="18">
+    <row r="99" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>460</v>
       </c>
@@ -4976,7 +5047,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="18">
+    <row r="100" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>460</v>
       </c>
@@ -5001,7 +5072,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="18">
+    <row r="101" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>460</v>
       </c>
@@ -5026,7 +5097,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="18">
+    <row r="102" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>460</v>
       </c>
@@ -5051,7 +5122,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="18">
+    <row r="103" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>460</v>
       </c>
@@ -5076,7 +5147,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="18">
+    <row r="104" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>460</v>
       </c>
@@ -5101,7 +5172,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="18">
+    <row r="105" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>460</v>
       </c>
@@ -5133,7 +5204,7 @@
         <v>-63.510300000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="18">
+    <row r="106" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>497</v>
       </c>
@@ -5158,7 +5229,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="18">
+    <row r="107" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>497</v>
       </c>
@@ -5181,7 +5252,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="18">
+    <row r="108" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>497</v>
       </c>
@@ -5211,7 +5282,7 @@
         <v>-63.135429999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="18">
+    <row r="109" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>497</v>
       </c>
@@ -5236,7 +5307,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="18">
+    <row r="110" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>497</v>
       </c>
@@ -5261,7 +5332,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="18">
+    <row r="111" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>497</v>
       </c>
@@ -5286,7 +5357,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="18">
+    <row r="112" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>497</v>
       </c>
@@ -5311,7 +5382,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="18">
+    <row r="113" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>497</v>
       </c>
@@ -5336,7 +5407,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="18">
+    <row r="114" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>497</v>
       </c>
@@ -5359,7 +5430,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="18">
+    <row r="115" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>497</v>
       </c>
@@ -5391,7 +5462,7 @@
         <v>-62.599679999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="18">
+    <row r="116" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>532</v>
       </c>
@@ -5416,7 +5487,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="18">
+    <row r="117" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>532</v>
       </c>
@@ -5441,7 +5512,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="18">
+    <row r="118" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>532</v>
       </c>
@@ -5467,7 +5538,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="18">
+    <row r="119" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>532</v>
       </c>
@@ -5497,7 +5568,7 @@
         <v>-52.748820000000002</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="18">
+    <row r="120" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>532</v>
       </c>
@@ -5522,7 +5593,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="18">
+    <row r="121" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>532</v>
       </c>
@@ -5547,7 +5618,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="18">
+    <row r="122" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>532</v>
       </c>
@@ -5572,7 +5643,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="30.75">
+    <row r="123" spans="1:11" ht="35" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>532</v>
       </c>
@@ -5595,6 +5666,134 @@
       </c>
       <c r="K123" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>333</v>
+      </c>
+      <c r="B124" t="s">
+        <v>566</v>
+      </c>
+      <c r="C124" t="s">
+        <v>567</v>
+      </c>
+      <c r="D124" t="s">
+        <v>547</v>
+      </c>
+      <c r="E124" t="s">
+        <v>568</v>
+      </c>
+      <c r="F124" t="s">
+        <v>569</v>
+      </c>
+      <c r="G124" t="s">
+        <v>570</v>
+      </c>
+      <c r="H124" s="13" t="s">
+        <v>571</v>
+      </c>
+      <c r="I124">
+        <v>44.231200000000001</v>
+      </c>
+      <c r="J124">
+        <v>-76.485900000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>333</v>
+      </c>
+      <c r="B125" t="s">
+        <v>566</v>
+      </c>
+      <c r="C125" t="s">
+        <v>572</v>
+      </c>
+      <c r="D125" t="s">
+        <v>573</v>
+      </c>
+      <c r="E125" t="s">
+        <v>574</v>
+      </c>
+      <c r="F125" t="s">
+        <v>575</v>
+      </c>
+      <c r="G125" t="s">
+        <v>576</v>
+      </c>
+      <c r="H125" t="s">
+        <v>577</v>
+      </c>
+      <c r="I125">
+        <v>44.229900000000001</v>
+      </c>
+      <c r="J125">
+        <v>-76.4786</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>333</v>
+      </c>
+      <c r="B126" t="s">
+        <v>578</v>
+      </c>
+      <c r="C126" t="s">
+        <v>579</v>
+      </c>
+      <c r="D126" t="s">
+        <v>547</v>
+      </c>
+      <c r="E126" t="s">
+        <v>580</v>
+      </c>
+      <c r="F126" t="s">
+        <v>581</v>
+      </c>
+      <c r="G126" t="s">
+        <v>582</v>
+      </c>
+      <c r="H126" t="s">
+        <v>583</v>
+      </c>
+      <c r="I126">
+        <v>43.850499999999997</v>
+      </c>
+      <c r="J126">
+        <v>-79.555899999999994</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>333</v>
+      </c>
+      <c r="B127" t="s">
+        <v>578</v>
+      </c>
+      <c r="C127" t="s">
+        <v>584</v>
+      </c>
+      <c r="D127" t="s">
+        <v>585</v>
+      </c>
+      <c r="E127" t="s">
+        <v>586</v>
+      </c>
+      <c r="F127" t="s">
+        <v>587</v>
+      </c>
+      <c r="G127" t="s">
+        <v>588</v>
+      </c>
+      <c r="H127" s="13" t="s">
+        <v>589</v>
+      </c>
+      <c r="I127">
+        <v>43.820799999999998</v>
+      </c>
+      <c r="J127">
+        <v>-79.5321</v>
       </c>
     </row>
   </sheetData>
@@ -5677,6 +5876,8 @@
     <hyperlink ref="H121" r:id="rId76" xr:uid="{16BE2CA2-53E7-4277-8D20-4381F5F57EF9}"/>
     <hyperlink ref="H122" r:id="rId77" xr:uid="{AE86639D-D374-4793-9C2B-20096C40C962}"/>
     <hyperlink ref="G8" r:id="rId78" xr:uid="{E742C719-BE50-4F2B-A446-09FE206F59FD}"/>
+    <hyperlink ref="H124" r:id="rId79" display="https://amhs-kfla.ca/programs-services/crisis/?utm_source=chatgpt.com" xr:uid="{81155757-EFA5-1C42-B417-4EDCA183840C}"/>
+    <hyperlink ref="H127" r:id="rId80" display="https://cmha-yr.on.ca/locations/vaughan/?utm_source=chatgpt.com" xr:uid="{3C125688-7164-BE47-AB08-1FA902CEB572}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/canadianMentalHealthResources.xlsx
+++ b/assets/canadianMentalHealthResources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29303"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yehonathanshakarghi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://queensuca-my.sharepoint.com/personal/23nrd2_queensu_ca/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B3063D9-2555-6141-9A3A-411F1F2E5C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E6D9FAD-4256-4DCB-8B88-DFFF9B6E6E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16960" xr2:uid="{60D886F8-FFE1-F14E-A3CB-AFDAAB1FA1C7}"/>
+    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16980" xr2:uid="{60D886F8-FFE1-F14E-A3CB-AFDAAB1FA1C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="489">
   <si>
     <t>Province</t>
   </si>
@@ -74,13 +74,13 @@
     <t>Northwest Terriories</t>
   </si>
   <si>
-    <t>Crisis Line</t>
+    <t>Crisis &amp; Distress Support</t>
   </si>
   <si>
     <t>NWT Help Line</t>
   </si>
   <si>
-    <t>24/7 provincial crisis line offering support for mental health emergencies and general concerns</t>
+    <t>24/7 provincial Crisis &amp; Distress Support offering support for mental health emergencies and general concerns</t>
   </si>
   <si>
     <t>1‑800‑661‑0844</t>
@@ -95,13 +95,13 @@
     <t>Call or Text 9-8-8</t>
   </si>
   <si>
-    <t>National Canadian Suicide Crisis Helpline, available 24/7 for anyone in crisis</t>
-  </si>
-  <si>
-    <t>https://suicideprevention.ca/location/northwest-territories-help-line/</t>
-  </si>
-  <si>
-    <t>Youth-Focused Text Support</t>
+    <t>National Canadian Crisis &amp; Distress Support Crisis Helpline, available 24/7 for anyone in crisis</t>
+  </si>
+  <si>
+    <t>https://Crisis &amp; Distress Supportprevention.ca/location/northwest-territories-help-line/</t>
+  </si>
+  <si>
+    <t>Youth &amp; Student Services</t>
   </si>
   <si>
     <t>Crisis Text Line / Kids Help Phone</t>
@@ -116,7 +116,7 @@
     <t>https://www.ece.gov.nt.ca/en/cyc-services</t>
   </si>
   <si>
-    <t>Indigenous Support Line</t>
+    <t>Indigenous Support</t>
   </si>
   <si>
     <t>Hope for Wellness Help Line</t>
@@ -131,9 +131,6 @@
     <t>https://www.hopeforwellness.ca</t>
   </si>
   <si>
-    <t>Provincial Wellness Line</t>
-  </si>
-  <si>
     <t>811 (NWT Mental Health &amp; Wellness Support): Press 1</t>
   </si>
   <si>
@@ -164,9 +161,6 @@
     <t>https://www.hss.gov.nt.ca/en/services/community-counselling-program-ccp#:~:text=The%20NWT%20Community%20Counselling%20Program,services%20that%20could%20help%20you.</t>
   </si>
   <si>
-    <t>Government Department Contact</t>
-  </si>
-  <si>
     <t>Mental Wellness &amp; Addictions Recovery (GNWT)</t>
   </si>
   <si>
@@ -179,7 +173,7 @@
     <t>https://www.hss.gov.nt.ca/en/services/mental-wellness-and-addictions-recovery</t>
   </si>
   <si>
-    <t>Hospitals</t>
+    <t>Hospitals &amp; Health Centres</t>
   </si>
   <si>
     <t>Stanton Territorial Hospital (Psychiatry department)</t>
@@ -209,42 +203,30 @@
     <t>https://nunavuthelpline.ca</t>
   </si>
   <si>
-    <t>Suicide Crisis</t>
-  </si>
-  <si>
-    <t>National Suicide Crisis Helpline</t>
+    <t>National Crisis &amp; Distress Support Crisis Helpline</t>
   </si>
   <si>
     <t>Available 24/7 across Canada for mental health emergencies/crisis support</t>
   </si>
   <si>
-    <t>https://suicideprevention.ca/location/nunavut-kamatsiaqtut-help-line/</t>
-  </si>
-  <si>
-    <t>Indigenous Support</t>
+    <t>https://Crisis &amp; Distress Supportprevention.ca/location/nunavut-kamatsiaqtut-help-line/</t>
   </si>
   <si>
     <t>Available 24/7 to First Nations, Inuit, and Métis individuals; support in English, French, and Inuktitut upon request</t>
   </si>
   <si>
-    <t>Provincial Hotline</t>
-  </si>
-  <si>
-    <t>RCY (Rep for Children and Youth) Mental Health Crisis Line</t>
+    <t>RCY (Rep for Children and Youth) Mental Health Crisis &amp; Distress Support</t>
   </si>
   <si>
     <t>Support for youth and general population in crisis situations</t>
   </si>
   <si>
-    <t>-888-893-8333; Suicide &amp; Crisis Hotline – 1-800-448-3000; Text – 1-855-449-8118</t>
+    <t>-888-893-8333; Crisis &amp; Distress Support &amp; Crisis Hotline – 1-800-448-3000; Text – 1-855-449-8118</t>
   </si>
   <si>
     <t>https://www.rcynu.ca</t>
   </si>
   <si>
-    <t>Cultural &amp; Local Counselling</t>
-  </si>
-  <si>
     <t>Healing by Talking Program</t>
   </si>
   <si>
@@ -263,9 +245,6 @@
     <t>13A Omingmak St., Cambridge Bay, NU X0B 0A1</t>
   </si>
   <si>
-    <t>Community Wellness</t>
-  </si>
-  <si>
     <t>Cambridge Bay Wellness Centre</t>
   </si>
   <si>
@@ -314,9 +293,6 @@
     <t>Niaqunngusiariaq, Iqaluit, NU X0A 2H0</t>
   </si>
   <si>
-    <t>Hospital Psychiatric Services</t>
-  </si>
-  <si>
     <t>Qikiqtani General Hospital, Iqaluit (only territorial hospital)</t>
   </si>
   <si>
@@ -329,13 +305,10 @@
     <t>https://www.gov.nu.ca/en/health/qikiqtani-general-hospital</t>
   </si>
   <si>
-    <t>Strategy &amp; Planning</t>
-  </si>
-  <si>
-    <t>Inuusivut Annirnaqtut 2024–2029 (Suicide Prevention Action Plan)</t>
-  </si>
-  <si>
-    <t>Territory-wide strategic plan developed by the Government of Nunavut, NTI, RCMP, Embrace Life Council, and others to reduce suicide rates and improve mental wellnes</t>
+    <t>Inuusivut Annirnaqtut 2024–2029 (Crisis &amp; Distress Support Prevention Action Plan)</t>
+  </si>
+  <si>
+    <t>Territory-wide strategic plan developed by the Government of Nunavut, NTI, RCMP, Embrace Life Council, and others to reduce Crisis &amp; Distress Support rates and improve mental wellnes</t>
   </si>
   <si>
     <t>https://www.assembly.nu.ca/sites/default/files/2024-10/2024-10-30-HEA-TD-Inuusivut%20Anniraqtut%20Action%20Plan%202024-2029.pdf</t>
@@ -365,9 +338,6 @@
     <t>Saskatchewan</t>
   </si>
   <si>
-    <t>Gambling Helpline</t>
-  </si>
-  <si>
     <t>SK Gambling Helpline</t>
   </si>
   <si>
@@ -383,9 +353,6 @@
     <t xml:space="preserve">Regina </t>
   </si>
   <si>
-    <t>Online Therapy</t>
-  </si>
-  <si>
     <t xml:space="preserve">Online Therapy Unit at the University of Regina </t>
   </si>
   <si>
@@ -404,9 +371,6 @@
     <t>313 Ontario Ave, Saskatoon, SK S7K 1S3</t>
   </si>
   <si>
-    <t>Crisis Intervention</t>
-  </si>
-  <si>
     <t>Saskatoon Crisis Intervention Service</t>
   </si>
   <si>
@@ -419,9 +383,6 @@
     <t>https://www.google.com/url?sa=t&amp;source=web&amp;rct=j&amp;opi=89978449&amp;url=https://www.saskatooncrisis.ca/%23:~:text%3DSaskatoon%2520Crisis%2520Intervention%2520Service%253A%2520Call,6200%2520to%2520get%2520help%2520now&amp;ved=2ahUKEwjcjN2xzrqPAxUFKFkFHcF2DM0QFnoECBkQAw&amp;usg=AOvVaw1WqgQNg2b9jHpm03G7XUkl</t>
   </si>
   <si>
-    <t xml:space="preserve">Health line </t>
-  </si>
-  <si>
     <t>Health Line 811</t>
   </si>
   <si>
@@ -434,9 +395,6 @@
     <t>https://www.saskatchewan.ca/residents/health/accessing-health-care-services/healthline</t>
   </si>
   <si>
-    <t xml:space="preserve">Counseling </t>
-  </si>
-  <si>
     <t xml:space="preserve">Counseling Connect Saskatchewan </t>
   </si>
   <si>
@@ -464,19 +422,16 @@
     <t>Yukon Territory</t>
   </si>
   <si>
-    <t>9-8-8 Suicide Crisis Helpline</t>
-  </si>
-  <si>
-    <t>24/7 phone &amp; text for anyone thinking about suicide or worried about someone.</t>
+    <t>9-8-8 Crisis &amp; Distress Support Crisis Helpline</t>
+  </si>
+  <si>
+    <t>24/7 phone &amp; text for anyone thinking about Crisis &amp; Distress Support or worried about someone.</t>
   </si>
   <si>
     <t>Call or text 988</t>
   </si>
   <si>
-    <t>https://yukon.ca/en/health-and-wellness/mental-wellness/learn-about-9-8-8-suicide-crisis-helpline</t>
-  </si>
-  <si>
-    <t>Support Line</t>
+    <t>https://yukon.ca/en/health-and-wellness/mental-wellness/learn-about-9-8-8-Crisis &amp; Distress Support-crisis-helpline</t>
   </si>
   <si>
     <t>CMHA Yukon – Reach Out Support Line</t>
@@ -491,9 +446,6 @@
     <t>https://yukon.cmha.ca/mental-health/find-help-now/reach-out-support-line/</t>
   </si>
   <si>
-    <t>Youth Support</t>
-  </si>
-  <si>
     <t>Kids Help Phone (ages ~5–29)</t>
   </si>
   <si>
@@ -512,7 +464,7 @@
     <t>101 Main St, Whitehorse, YT Y1A 6K8</t>
   </si>
   <si>
-    <t>Women's transition home</t>
+    <t>Shelters &amp; Transition Homes</t>
   </si>
   <si>
     <t>Kaushee’s Place</t>
@@ -530,9 +482,6 @@
     <t>3159 3rd Ave, Whitehorse, YT Y1A 1G1</t>
   </si>
   <si>
-    <t>Emergency Youth Shelter</t>
-  </si>
-  <si>
     <t>Skookum Jim Friendship Center</t>
   </si>
   <si>
@@ -545,9 +494,6 @@
     <t>5131 5 Ave, Whitehorse, YT Y1A 1L7</t>
   </si>
   <si>
-    <t>Emergency Shelter</t>
-  </si>
-  <si>
     <t>Connective</t>
   </si>
   <si>
@@ -566,9 +512,6 @@
     <t>Klondike Hwy, YT-2, Dawson City, YT Y0B 0A3</t>
   </si>
   <si>
-    <t>Health Centre</t>
-  </si>
-  <si>
     <t>Dawnson City Hub</t>
   </si>
   <si>
@@ -584,9 +527,6 @@
     <t>377V+3JV Watson Lake, Yukon</t>
   </si>
   <si>
-    <t>Women's shelter</t>
-  </si>
-  <si>
     <t>Dawson Women’s Shelter</t>
   </si>
   <si>
@@ -605,13 +545,10 @@
     <t>Watson Lake, YT Y0A 1C0</t>
   </si>
   <si>
-    <t>Transition home</t>
-  </si>
-  <si>
     <t>Help and Hope for Families</t>
   </si>
   <si>
-    <t>24/7 community-based shelter &amp; crisis line for women &amp; children.</t>
+    <t>24/7 community-based shelter &amp; Crisis &amp; Distress Support for women &amp; children.</t>
   </si>
   <si>
     <t>867-536-7233</t>
@@ -653,10 +590,7 @@
     <t>https://klinic.mb.ca/crisis-support/</t>
   </si>
   <si>
-    <t>Regional Crisis Support</t>
-  </si>
-  <si>
-    <t>Manitoba Suicide Prevention &amp; Support Line</t>
+    <t>Manitoba Crisis &amp; Distress Support Prevention &amp; Support Line</t>
   </si>
   <si>
     <t>Crisis support for northern and regional Manitoba communities</t>
@@ -674,9 +608,6 @@
     <t>817 Bannatyne Ave, Winnipeg, MB R3E 0W2</t>
   </si>
   <si>
-    <t>Walk-In Crisis Centre</t>
-  </si>
-  <si>
     <t>Crisis Response Centre (CRC)</t>
   </si>
   <si>
@@ -686,9 +617,6 @@
     <t>(204) 940-1781</t>
   </si>
   <si>
-    <t>Community Services</t>
-  </si>
-  <si>
     <t>Community Mental Health Services</t>
   </si>
   <si>
@@ -704,9 +632,6 @@
     <t>Selkirk Mental Health Centre, 825 Manitoba Ave, Selkirk, MB R1A 2B5</t>
   </si>
   <si>
-    <t>Hospital</t>
-  </si>
-  <si>
     <t>Selkirk Mental Health Centre</t>
   </si>
   <si>
@@ -734,9 +659,6 @@
     <t>https://vgh.mb.ca</t>
   </si>
   <si>
-    <t>Provincial Oversight</t>
-  </si>
-  <si>
     <t>Manitoba Mental Health, Wellness &amp; Recovery</t>
   </si>
   <si>
@@ -749,9 +671,6 @@
     <t xml:space="preserve">Alberta </t>
   </si>
   <si>
-    <t xml:space="preserve">Mental Health Help Line </t>
-  </si>
-  <si>
     <t xml:space="preserve">Alberta Health Services Helpline </t>
   </si>
   <si>
@@ -761,9 +680,6 @@
     <t>1-822-303-2642</t>
   </si>
   <si>
-    <t>Helpline</t>
-  </si>
-  <si>
     <t xml:space="preserve">211 Alberta </t>
   </si>
   <si>
@@ -794,7 +710,10 @@
     <t>https://www.albertahealthservices.ca/811/811.aspx</t>
   </si>
   <si>
-    <t>Specialized support for Indigenous individuals seeking mental health and addiction resources</t>
+    <t>Indigenous Support Support Line</t>
+  </si>
+  <si>
+    <t>Specialized support for Indigenous Support individuals seeking mental health and addiction resources</t>
   </si>
   <si>
     <t>844-944-4744</t>
@@ -818,9 +737,6 @@
     <t>https://mentalhealthfoundation.ca/resources/?utm_source=chatgpt.com</t>
   </si>
   <si>
-    <t>Distress Line</t>
-  </si>
-  <si>
     <t>Distress Line – Edmonton &amp; Area</t>
   </si>
   <si>
@@ -857,9 +773,6 @@
     <t>https://kidshelpphone.ca</t>
   </si>
   <si>
-    <t>Indigenous Crisis Support</t>
-  </si>
-  <si>
     <t>Culturally-informed support for First Nations, Inuit, and Métis</t>
   </si>
   <si>
@@ -872,21 +785,7 @@
     <t>Alberta</t>
   </si>
   <si>
-    <t>Peer &amp; Community Supports</t>
-  </si>
-  <si>
-    <r>
-      <t>CMHA Alberta + Centre for Suicide Prevention</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> Resources</t>
-    </r>
+    <t>CMHA Alberta + Centre for Crisis &amp; Distress Support Prevention Resources</t>
   </si>
   <si>
     <t>Community mental health programs: recovery colleges, caregiver support, rural networks, workplace training</t>
@@ -901,9 +800,6 @@
     <t>381 Sherbrook St, Winnipeg, MB R3B 2W7</t>
   </si>
   <si>
-    <t>Specialized Outreach</t>
-  </si>
-  <si>
     <t>Police Crisis Response Team (PACT)</t>
   </si>
   <si>
@@ -913,22 +809,19 @@
     <t>British Columbia</t>
   </si>
   <si>
-    <t>Suicide Crisis Line</t>
-  </si>
-  <si>
     <t>9-8-8 (call or text)</t>
   </si>
   <si>
-    <t>National Suicide Crisis Helpline: free, 24/7 emotional and crisis support in English and French. </t>
+    <t>National Crisis &amp; Distress Support Crisis Helpline: free, 24/7 emotional and crisis support in English and French. </t>
   </si>
   <si>
     <t>https://www.heretohelp.bc.ca/get-help?utm_source=chatgpt.com</t>
   </si>
   <si>
-    <t>1-800-SUICIDE</t>
-  </si>
-  <si>
-    <t>BC’s Suicide Prevention and Intervention Line—confidential 24/7 crisis support.</t>
+    <t>1-800-Crisis &amp; Distress Support</t>
+  </si>
+  <si>
+    <t>BC’s Crisis &amp; Distress Support Prevention and Intervention Line—confidential 24/7 crisis support.</t>
   </si>
   <si>
     <t>1-800-784-2433</t>
@@ -937,9 +830,6 @@
     <t>https://helpstartshere.gov.bc.ca/resource/310-mental-health-support?utm_source=chatgpt.com</t>
   </si>
   <si>
-    <t>Mental Health Support Line</t>
-  </si>
-  <si>
     <t>310-6789</t>
   </si>
   <si>
@@ -949,45 +839,19 @@
     <t>https://www.bcmhsus.ca/about-us/getting-help?utm_source=chatgpt.com</t>
   </si>
   <si>
-    <t>General Services Line</t>
-  </si>
-  <si>
     <t>Free, confidential, multilingual referral service to community, social, and mental health supports, 24/7. </t>
   </si>
   <si>
     <t>https://www.healthlinkbc.ca/mental-health-and-substance-use/mental-health/mental-health-supports-and-resources?utm_source=chatgpt.com</t>
   </si>
   <si>
-    <t>Indigenous Support Lines</t>
-  </si>
-  <si>
     <t>KUU-US Crisis Response</t>
   </si>
   <si>
     <t>Culturally safe mental health/substance use support for First Nations and Métis people.</t>
   </si>
   <si>
-    <r>
-      <t>1-800-588-8717 / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Métis Crisis Line</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> – 1-833-638-4722</t>
-    </r>
+    <t>1-800-588-8717 / Métis Crisis &amp; Distress Support – 1-833-638-4722</t>
   </si>
   <si>
     <t>Vancouver</t>
@@ -996,13 +860,10 @@
     <t>350 W Georgia St 8th Floor, Vancouver, BC V6B 6B1</t>
   </si>
   <si>
-    <t>Residential School Survivors</t>
-  </si>
-  <si>
     <t>Lamathut (IRSSS)</t>
   </si>
   <si>
-    <t>Crisis line and support for Indian Residential School survivors and families. </t>
+    <t>Crisis &amp; Distress Support and support for Indian Residential School survivors and families. </t>
   </si>
   <si>
     <t>1-800-721-0066</t>
@@ -1011,9 +872,6 @@
     <t>https://helpstartshere.gov.bc.ca/blog/supports-residential-school-survivors</t>
   </si>
   <si>
-    <t>Telehealth Information</t>
-  </si>
-  <si>
     <t>HealthLink BC – 8-1-1</t>
   </si>
   <si>
@@ -1023,9 +881,6 @@
     <t>https://www.healthlinkbc.ca</t>
   </si>
   <si>
-    <t>Men's Mental Health</t>
-  </si>
-  <si>
     <t>HeadsUpGuys</t>
   </si>
   <si>
@@ -1038,10 +893,7 @@
     <t>Fraser</t>
   </si>
   <si>
-    <t>Regional Crisis Line</t>
-  </si>
-  <si>
-    <t>Fraser Health Crisis Line</t>
+    <t>Fraser Health Crisis &amp; Distress Support</t>
   </si>
   <si>
     <t>Emotional support, crisis intervention, and information for all ages in Fraser Health region.</t>
@@ -1056,7 +908,7 @@
     <t>Interior </t>
   </si>
   <si>
-    <t>Interior Crisis Line</t>
+    <t>Interior Crisis &amp; Distress Support</t>
   </si>
   <si>
     <t>Confidential, 24/7 emotional support, crisis intervention, referral for Interior region residents. </t>
@@ -1074,7 +926,7 @@
     <t>9-8-8 (Call or Text)</t>
   </si>
   <si>
-    <t>National suicide and crisis helpline—available 24/7, bilingual support.</t>
+    <t>National Crisis &amp; Distress Support and crisis helpline—available 24/7, bilingual support.</t>
   </si>
   <si>
     <t>https://www.camh.ca/en/health-info/crisis-resources?utm_source=chatgpt.com</t>
@@ -1083,9 +935,6 @@
     <t>Toronto</t>
   </si>
   <si>
-    <t>General Mental Health Line</t>
-  </si>
-  <si>
     <t>Distress Centres Ontario / CMHA Crisis</t>
   </si>
   <si>
@@ -1101,9 +950,6 @@
     <t>70 Berkeley St, Toronto, ON M5A 2W6</t>
   </si>
   <si>
-    <t>Local Distress Line</t>
-  </si>
-  <si>
     <t>Toronto Distress Centre</t>
   </si>
   <si>
@@ -1116,9 +962,6 @@
     <t>https://www.toronto.ca/home/311-toronto-at-your-service/find-service-information/article/?kb=kA06g000001cwEcCAI&amp;utm_source=chatgpt.com</t>
   </si>
   <si>
-    <t>Community Navigation</t>
-  </si>
-  <si>
     <t>211 Ontario</t>
   </si>
   <si>
@@ -1128,9 +971,6 @@
     <t>https:///www.211ontario.ca</t>
   </si>
   <si>
-    <t>Post-Secondary Student Support</t>
-  </si>
-  <si>
     <t>Good2Talk</t>
   </si>
   <si>
@@ -1152,7 +992,7 @@
     <t>https:///www.hopeforwellness.ca</t>
   </si>
   <si>
-    <t>National Indian Residential School Crisis Line</t>
+    <t>National Indian Residential School Crisis &amp; Distress Support</t>
   </si>
   <si>
     <t>Crisis support specifically for survivors and those affected.</t>
@@ -1164,21 +1004,15 @@
     <t>https://ontario.cmha.ca/provincial-mental-health-supports/?utm_source=chatgpt.com</t>
   </si>
   <si>
-    <t>Indigenous Women Support</t>
-  </si>
-  <si>
     <t>Talk4Healing</t>
   </si>
   <si>
-    <t>Dedicated emotional support line for Indigenous women. </t>
+    <t>Dedicated emotional support line for Indigenous Support women. </t>
   </si>
   <si>
     <t>1-855-554-4325</t>
   </si>
   <si>
-    <t>Virtual Counselling Program</t>
-  </si>
-  <si>
     <t>BounceBack® (CMHA Ontario)</t>
   </si>
   <si>
@@ -1206,27 +1040,7 @@
     <t>1-866-APPELLE </t>
   </si>
   <si>
-    <r>
-      <t>24/7 province-wide suicide prevention helpline with text support; connects via </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>suicide.ca</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> chat too.</t>
-    </r>
+    <t>24/7 province-wide Crisis &amp; Distress Support prevention helpline with text support; connects via Crisis &amp; Distress Support.ca chat too.</t>
   </si>
   <si>
     <r>
@@ -1252,10 +1066,7 @@
     </r>
   </si>
   <si>
-    <t>https://suicide.ca/en/lets-talk-about-suicide/demystifying-suicide/suicide-prevention-online-help-available-in-quebec?utm_source=chatgpt.com</t>
-  </si>
-  <si>
-    <t>Redirected National Helpline</t>
+    <t>https://Crisis &amp; Distress Support.ca/en/lets-talk-about-Crisis &amp; Distress Support/demystifying-Crisis &amp; Distress Support/Crisis &amp; Distress Support-prevention-online-help-available-in-quebec?utm_source=chatgpt.com</t>
   </si>
   <si>
     <t>Quebec Services</t>
@@ -1267,10 +1078,7 @@
     <t>9-8-8 </t>
   </si>
   <si>
-    <t>https://suicide.ca/en/lets-talk-about-suicide/news-and-suicide/canada-implements-988-as-new-federal-suicide-prevention-phone-line?utm_source=chatgpt.com</t>
-  </si>
-  <si>
-    <t>Mental Health Information</t>
+    <t>https://Crisis &amp; Distress Support.ca/en/lets-talk-about-Crisis &amp; Distress Support/news-and-Crisis &amp; Distress Support/canada-implements-988-as-new-federal-Crisis &amp; Distress Support-prevention-phone-line?utm_source=chatgpt.com</t>
   </si>
   <si>
     <t>Québec Government Mental Health Resources</t>
@@ -1288,9 +1096,6 @@
     <t>6875 Blvd. LaSalle, Verdun, Quebec H4H 1R3</t>
   </si>
   <si>
-    <t>Psychiatric Hospital</t>
-  </si>
-  <si>
     <t>Douglas Mental Health University Institute</t>
   </si>
   <si>
@@ -1306,9 +1111,6 @@
     <t>7401 Rue Hochelaga, Montréal, QC H1N 3M5</t>
   </si>
   <si>
-    <t>Specialist Mental Health</t>
-  </si>
-  <si>
     <t>Formerly Hôpital Louis-H. Lafontaine; provides psychiatric care and inpatient services for severe mental health cases.</t>
   </si>
   <si>
@@ -1319,9 +1121,6 @@
   </si>
   <si>
     <t>5800 Decarie Blvd, Montreal, Quebec H3X 2J6</t>
-  </si>
-  <si>
-    <t>Family Support</t>
   </si>
   <si>
     <r>
@@ -1356,9 +1155,6 @@
     <t>2430 Boulevard Henri-Bourassa E, Montreal, Quebec H2B 1T7</t>
   </si>
   <si>
-    <t>Crisis Intervention (West Isl.)</t>
-  </si>
-  <si>
     <t>Association Iris</t>
   </si>
   <si>
@@ -1371,10 +1167,7 @@
     <t>https://amiquebec.org/crisis/?utm_source=chatgpt.com</t>
   </si>
   <si>
-    <t>Youth &amp; Children Support</t>
-  </si>
-  <si>
-    <t>Suicide.ca (chat/text)</t>
+    <t>Crisis &amp; Distress Support.ca (chat/text)</t>
   </si>
   <si>
     <t>Confidential online chat or text-based support specifically for those in Quebec dealing with suicidal thoughts or grief.</t>
@@ -1383,15 +1176,12 @@
     <t>1-866-277-3553 or text 535353</t>
   </si>
   <si>
-    <t>https://www.suicide.ca</t>
+    <t>https://www.Crisis &amp; Distress Support.ca</t>
   </si>
   <si>
     <t>New Brunswick</t>
   </si>
   <si>
-    <t>Addiction &amp; Mental Health Helpline</t>
-  </si>
-  <si>
     <t>1-866-355-5550</t>
   </si>
   <si>
@@ -1401,18 +1191,12 @@
     <t>https://www.gnb.ca/en/topic/health-wellness/mental-health.html?utm_source=chatgpt.com</t>
   </si>
   <si>
-    <t>Provincial Suicide Crisis Line</t>
-  </si>
-  <si>
-    <t>National Canadian Suicide Crisis Line, accessible 24/7 from NB.</t>
+    <t>National Canadian Crisis &amp; Distress Support Crisis &amp; Distress Support, accessible 24/7 from NB.</t>
   </si>
   <si>
     <t>https://cmhanb.ca/getting-help/?utm_source=chatgpt.com</t>
   </si>
   <si>
-    <t>Emergency Services</t>
-  </si>
-  <si>
     <t>911 or go to nearest ER</t>
   </si>
   <si>
@@ -1422,9 +1206,6 @@
     <t>https://twloha.com/local-resources/canada/new-brunswick/?utm_source=chatgpt.com</t>
   </si>
   <si>
-    <t>Online Resource Directory (Adults)</t>
-  </si>
-  <si>
     <t>Bridge the Gapp: Adult</t>
   </si>
   <si>
@@ -1434,9 +1215,6 @@
     <t>nb.bridgethegapp.ca/adult</t>
   </si>
   <si>
-    <t>Online Resource Directory (Youth)</t>
-  </si>
-  <si>
     <t>Bridge the Gapp: Youth</t>
   </si>
   <si>
@@ -1452,9 +1230,6 @@
     <t>557 St Marys St, Fredericton, NB E3A 8H4</t>
   </si>
   <si>
-    <t>Community Services Directory</t>
-  </si>
-  <si>
     <t>CMHA New Brunswick</t>
   </si>
   <si>
@@ -1462,9 +1237,6 @@
   </si>
   <si>
     <t>cmhanb.ca</t>
-  </si>
-  <si>
-    <t>Mobile Crisis Intervention</t>
   </si>
   <si>
     <r>
@@ -1508,9 +1280,6 @@
     <t>24/7 culturally-informed crisis support for First Nations, Inuit, and Métis individuals.</t>
   </si>
   <si>
-    <t>Youth National Support</t>
-  </si>
-  <si>
     <t>Free, 24/7 anonymous support for youth by phone, text, or chat.</t>
   </si>
   <si>
@@ -1520,7 +1289,7 @@
     <t>Nova Scotia</t>
   </si>
   <si>
-    <t>Provincial Mental Health &amp; Addictions Crisis Line</t>
+    <t>Provincial Mental Health &amp; Addictions Crisis &amp; Distress Support</t>
   </si>
   <si>
     <t>24/7 support for those experiencing suicidal/self-harm thoughts or distress.</t>
@@ -1532,15 +1301,12 @@
     <t>https://mha.nshealth.ca/en/services/provincial-mental-health-and-addictions-crisis-line?utm_source=chatgpt.com</t>
   </si>
   <si>
-    <t>National 24/7 Suicide Crisis Helpline available in Nova Scotia.</t>
+    <t>National 24/7 Crisis &amp; Distress Support Crisis Helpline available in Nova Scotia.</t>
   </si>
   <si>
     <t>https://novascotia.ca/mental-health-and-wellbeing/?utm_source=chatgpt.com</t>
   </si>
   <si>
-    <t>Emergency Response</t>
-  </si>
-  <si>
     <t>911 or nearest hospital E.R.</t>
   </si>
   <si>
@@ -1550,27 +1316,18 @@
     <t>https://waittimes.novascotia.ca/procedure/mental-health-addictions-adult-services?utm_source=chatgpt.com</t>
   </si>
   <si>
-    <t>Navigation &amp; Community Help</t>
-  </si>
-  <si>
     <t>2-1-1 Nova Scotia</t>
   </si>
   <si>
     <t>Free, confidential community and social services navigation helpline</t>
   </si>
   <si>
-    <t>Non-Emergency Health Info</t>
-  </si>
-  <si>
     <t>8-1-1 (HealthLinkNS)</t>
   </si>
   <si>
     <t>For general non-crisis mental health and addiction navigation.</t>
   </si>
   <si>
-    <t>Student &amp; Youth Support</t>
-  </si>
-  <si>
     <t>Good2Talk Nova Scotia</t>
   </si>
   <si>
@@ -1586,9 +1343,6 @@
     <t>1-800-668-6868 / Text CONNECT to 686868</t>
   </si>
   <si>
-    <t>Peer Support</t>
-  </si>
-  <si>
     <t>Peer Support Phone Service</t>
   </si>
   <si>
@@ -1598,9 +1352,6 @@
     <t>1-800-307-1686</t>
   </si>
   <si>
-    <t>Online Counselling Access</t>
-  </si>
-  <si>
     <t>Access Wellness</t>
   </si>
   <si>
@@ -1631,9 +1382,6 @@
     <t>Prince Edward Island</t>
   </si>
   <si>
-    <t>Mental Health &amp; Addictions Phone Line</t>
-  </si>
-  <si>
     <t>1-833-553-6983</t>
   </si>
   <si>
@@ -1643,9 +1391,6 @@
     <t>https://www.princeedwardisland.ca/en/information/health-pei/mental-health-support-and-services?utm_source=chatgpt.com</t>
   </si>
   <si>
-    <t>Mobile Mental Health Response</t>
-  </si>
-  <si>
     <t>In-person crisis assessment, treatment, and connection to ongoing care</t>
   </si>
   <si>
@@ -1655,18 +1400,12 @@
     <t>1 Terry Fox Dr, Charlottetown, PE C1A 7N8</t>
   </si>
   <si>
-    <t>Open Access Counselling</t>
-  </si>
-  <si>
     <t>Walk-in sessions—no appointment needed</t>
   </si>
   <si>
     <t>Speak in person with mental health/addictions counsellors on a drop-in basis</t>
   </si>
   <si>
-    <t>Patient Navigator</t>
-  </si>
-  <si>
     <t>MHApatientnavigator@ihis.org</t>
   </si>
   <si>
@@ -1676,9 +1415,6 @@
     <t>902-218-3289</t>
   </si>
   <si>
-    <t>General Emotional Support Hotline</t>
-  </si>
-  <si>
     <t>The Island Helpline</t>
   </si>
   <si>
@@ -1691,13 +1427,13 @@
     <t>https://canemerg-urgencecan.com/the-island-helpline/?utm_source=chatgpt.com</t>
   </si>
   <si>
-    <t>Access to national suicide and crisis support—available in PEI</t>
+    <t>Access to national Crisis &amp; Distress Support and crisis support—available in PEI</t>
   </si>
   <si>
     <t>https://pei.cmha.ca/find-help/crisis-support/?utm_source=chatgpt.com</t>
   </si>
   <si>
-    <t>24/7 culturally-informed crisis and emotional support for Indigenous peoples</t>
+    <t>24/7 culturally-informed crisis and emotional support for Indigenous Support peoples</t>
   </si>
   <si>
     <t>https://pe.211.ca/help-lines?utm_source=chatgpt.com</t>
@@ -1736,9 +1472,6 @@
     <t>Newfoundland and Labrador</t>
   </si>
   <si>
-    <t>Mental Health Crisis Line</t>
-  </si>
-  <si>
     <t>Dial 811 (HealthLine)</t>
   </si>
   <si>
@@ -1751,16 +1484,13 @@
     <t>1-888-737-4668</t>
   </si>
   <si>
-    <t>Toll-free 24-hour provincial Mental Health Crisis Line manned by trained crisis interveners.</t>
+    <t>Toll-free 24-hour provincial Mental Health Crisis &amp; Distress Support manned by trained crisis interveners.</t>
   </si>
   <si>
     <t>https://www.thrivecyn.ca/directory-of-services/health/mental-health-emergency-services-eastern-health/?utm_source=chatgpt.com</t>
   </si>
   <si>
     <t>St. John's</t>
-  </si>
-  <si>
-    <t>Mobile Crisis Response Team</t>
   </si>
   <si>
     <r>
@@ -1789,9 +1519,6 @@
     <t>306 Waterford Bridge Rd, St. John's, NL A1E 4J8</t>
   </si>
   <si>
-    <t>Walk-in Crisis Service</t>
-  </si>
-  <si>
     <t>Waterford Hospital (Psychiatric Assessment Unit); Health Sciences Centre ER</t>
   </si>
   <si>
@@ -1801,9 +1528,6 @@
     <t>https://nlhealthservices.ca</t>
   </si>
   <si>
-    <t>Text-Based Crisis Support</t>
-  </si>
-  <si>
     <t>Text “Talk” to 686868</t>
   </si>
   <si>
@@ -1813,9 +1537,6 @@
     <t>https://mha.easternhealth.ca/in-an-emergency/?utm_source=chatgpt.com</t>
   </si>
   <si>
-    <t>Peer &amp; Warm Line Support</t>
-  </si>
-  <si>
     <t>Lifewise Warm Line</t>
   </si>
   <si>
@@ -1828,9 +1549,6 @@
     <t>https://workplacenl.ca/employers/health-and-safety/psychological-health-and-safety/mental-health-resources/?utm_source=chatgpt.com</t>
   </si>
   <si>
-    <t>Support for First Responders</t>
-  </si>
-  <si>
     <t>First Responders Warm Line</t>
   </si>
   <si>
@@ -1844,85 +1562,13 @@
   </si>
   <si>
     <t>1-800-668-6868 or text “CONNECT” to 686868</t>
-  </si>
-  <si>
-    <t>Kingston</t>
-  </si>
-  <si>
-    <t>552 Princess St, Kingston, ON K7L 1C7</t>
-  </si>
-  <si>
-    <t>AMHS-KFLA Walk-In Crisis Clinic</t>
-  </si>
-  <si>
-    <t>Immediate access to a Crisis Worker for urgent mental health support; no appointment needed.</t>
-  </si>
-  <si>
-    <t>613-544-4229 / 1-866-616-6005</t>
-  </si>
-  <si>
-    <t>https://amhs-kfla.ca/programs-services/crisis/</t>
-  </si>
-  <si>
-    <t>60 Queen St, Kingston, ON K7K 1A4</t>
-  </si>
-  <si>
-    <t>Peer Support Centre</t>
-  </si>
-  <si>
-    <t>Kingston Peer Support Centre – Peers of the Round Table</t>
-  </si>
-  <si>
-    <t>Consumer-run centre for adults (16+) with mental health/addiction challenges; peer support, community reconnection, social &amp; educational programs.</t>
-  </si>
-  <si>
-    <t>613-549-4964</t>
-  </si>
-  <si>
-    <t>https://www.psseo.ca</t>
-  </si>
-  <si>
-    <t>Vaughan</t>
-  </si>
-  <si>
-    <t>3200 Major Mackenzie Dr W, Vaughan, ON L6A 4Z3</t>
-  </si>
-  <si>
-    <t>Crisis Intervention Services – Cortellucci Vaughan Hospital</t>
-  </si>
-  <si>
-    <t>24/7 mental health crisis assessments in the Emergency Department.</t>
-  </si>
-  <si>
-    <t>905-417-2000</t>
-  </si>
-  <si>
-    <t>https://www.mackenziehealth.ca/about-us/cortellucci-vaughan-hospital</t>
-  </si>
-  <si>
-    <t>8271 Keele St Unit 2, Vaughan, ON L4K 1Z1</t>
-  </si>
-  <si>
-    <t>Community Support</t>
-  </si>
-  <si>
-    <t>Canadian Mental Health Association – Vaughan Office</t>
-  </si>
-  <si>
-    <t>CMHA branch offering psychotherapy, youth/adult programs, case management.</t>
-  </si>
-  <si>
-    <t>1-866-345-0183 ext 3321</t>
-  </si>
-  <si>
-    <t>https://cmha-yr.on.ca/locations/vaughan/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2007,6 +1653,20 @@
       <sz val="12"/>
       <color rgb="FF242424"/>
       <name val="Aptos Narrow"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2030,7 +1690,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -2052,6 +1712,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2387,23 +2049,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8E0B34-D33C-AB4E-A291-CAA443D46446}">
-  <dimension ref="A1:K127"/>
+  <dimension ref="A1:K123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D115" workbookViewId="0">
-      <selection activeCell="H128" sqref="H128"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
     <col min="3" max="3" width="32.5" customWidth="1"/>
-    <col min="4" max="4" width="87.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" customWidth="1"/>
-    <col min="6" max="6" width="113.1640625" customWidth="1"/>
+    <col min="4" max="4" width="87.75" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="113.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2438,7 +2100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -2463,7 +2125,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2488,13 +2150,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="15" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -2513,7 +2175,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2538,55 +2200,55 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="1"/>
       <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="K6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="I7">
         <v>62.456200000000003</v>
@@ -2595,56 +2257,56 @@
         <v>-114.366</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="G8" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="H8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="G9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="H9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="K9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="1"/>
@@ -2652,60 +2314,60 @@
         <v>12</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="H10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="K10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="1"/>
       <c r="D11" s="5" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="5" t="s">
-        <v>61</v>
+      <c r="D12" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>29</v>
@@ -2717,77 +2379,77 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="1"/>
       <c r="D13" s="5" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="D15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15">
@@ -2797,27 +2459,27 @@
         <v>-105.05027</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16">
@@ -2827,27 +2489,27 @@
         <v>-68.600729999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17">
@@ -2857,27 +2519,27 @@
         <v>-92.086699999999993</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>75</v>
+        <v>80</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18">
@@ -2887,30 +2549,30 @@
         <v>-68.515969999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>92</v>
+        <v>84</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="I19">
         <v>63.750259999999997</v>
@@ -2919,53 +2581,53 @@
         <v>-68.508660000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="5" t="s">
-        <v>97</v>
+      <c r="D20" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="K20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="I21">
         <v>50.418900000000001</v>
@@ -2974,82 +2636,82 @@
         <v>-105.524</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="30.75">
+      <c r="A24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="D24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="F24" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="G24" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="K22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="H24" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="K23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="I24">
         <v>52.13317</v>
@@ -3058,180 +2720,180 @@
         <v>-106.66547</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="1" t="s">
-        <v>127</v>
+      <c r="D25" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="K25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="1" t="s">
-        <v>132</v>
+      <c r="D26" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="K26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="K27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11">
       <c r="A28" s="5" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="K28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="1" t="s">
-        <v>146</v>
+      <c r="D29" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="K29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="1" t="s">
-        <v>151</v>
+      <c r="D30" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="K30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>158</v>
+      <c r="D31" s="15" t="s">
+        <v>142</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="I31">
         <v>60.73265</v>
@@ -3240,28 +2902,28 @@
         <v>-135.05208999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>164</v>
+        <v>147</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>142</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="I32">
         <v>60.723120000000002</v>
@@ -3270,30 +2932,30 @@
         <v>-135.05596</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>169</v>
+        <v>151</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>142</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="I33">
         <v>60.720550000000003</v>
@@ -3302,30 +2964,30 @@
         <v>-135.05911</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="I34">
         <v>64.065740000000005</v>
@@ -3334,30 +2996,30 @@
         <v>-139.43394000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>182</v>
+        <v>162</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>142</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="I35">
         <v>63.707610000000003</v>
@@ -3366,30 +3028,30 @@
         <v>-138.32791</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>189</v>
+        <v>45</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="I36">
         <v>60.062730000000002</v>
@@ -3398,9 +3060,9 @@
         <v>-128.70595</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11">
       <c r="A37" s="5" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="1"/>
@@ -3408,120 +3070,120 @@
         <v>12</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="K37" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11">
       <c r="A38" s="5" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="1"/>
       <c r="D38" s="5" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="G38" s="1">
         <v>211</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="K38" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11">
       <c r="A39" s="5" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="1"/>
       <c r="D39" s="5" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="G39" s="8">
         <v>988</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="K39" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11">
       <c r="A40" s="5" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="1"/>
       <c r="D40" s="5" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="K40" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11">
       <c r="A41" s="5" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>212</v>
+        <v>189</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="I41">
         <v>49.905639999999998</v>
@@ -3530,53 +3192,53 @@
         <v>-97.161490000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11">
       <c r="A42" s="5" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="5" t="s">
-        <v>216</v>
+      <c r="D42" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="2" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="K42" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11">
       <c r="A43" s="5" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>222</v>
+        <v>45</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="I43">
         <v>50.150300000000001</v>
@@ -3585,30 +3247,30 @@
         <v>-96.884169999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11">
       <c r="A44" s="5" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>222</v>
+        <v>45</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="I44">
         <v>49.806919999999998</v>
@@ -3617,329 +3279,329 @@
         <v>-97.152869999999993</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11">
       <c r="A45" s="5" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="1"/>
       <c r="D45" s="5" t="s">
-        <v>232</v>
+        <v>12</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="2" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="K45" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="1" t="s">
-        <v>237</v>
+      <c r="D46" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="H46" s="1"/>
       <c r="K46" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="1" t="s">
-        <v>241</v>
+      <c r="D47" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="K47" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="18">
       <c r="A48" s="1" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="1" t="s">
-        <v>241</v>
+      <c r="D48" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="K48" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="18">
       <c r="A49" s="1" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="1" t="s">
-        <v>241</v>
+      <c r="D49" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="G49" s="9">
         <v>811</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="K49" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="18">
       <c r="A50" s="1" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="16" t="s">
         <v>26</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>26</v>
+        <v>224</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="K50" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="18">
       <c r="A51" s="1" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="K51" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="18">
       <c r="A52" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B52" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="K52" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="18">
       <c r="A53" s="1" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="C53" s="1"/>
-      <c r="D53" s="9" t="s">
-        <v>260</v>
+      <c r="D53" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="K53" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="18">
       <c r="A54" s="1" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="9" t="s">
-        <v>151</v>
+      <c r="D54" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="K54" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="18">
       <c r="A55" s="1" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="9" t="s">
-        <v>273</v>
+      <c r="D55" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="K55" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="18">
       <c r="A56" s="9" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="9" t="s">
-        <v>278</v>
+      <c r="D56" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="K56" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="18">
       <c r="A57" s="9" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="B57" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="F57" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>286</v>
-      </c>
       <c r="G57" s="9" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57">
@@ -3949,155 +3611,155 @@
         <v>-97.158799999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="18">
       <c r="A58" s="1" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="9" t="s">
-        <v>288</v>
+      <c r="D58" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="K58" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="18">
       <c r="A59" s="1" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="K59" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="18">
       <c r="A60" s="1" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="9" t="s">
-        <v>296</v>
+      <c r="D60" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="K60" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="18">
       <c r="A61" s="1" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="9" t="s">
-        <v>300</v>
+      <c r="D61" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E61" s="1">
         <v>211</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="G61" s="1">
         <v>211</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="K61" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="18">
       <c r="A62" s="1" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="9" t="s">
-        <v>303</v>
+      <c r="D62" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="K62" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="18">
       <c r="A63" s="1" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>309</v>
+        <v>273</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="I63">
         <v>49.905729999999998</v>
@@ -4106,186 +3768,186 @@
         <v>-97.161100000000005</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="18">
       <c r="A64" s="1" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="9" t="s">
-        <v>314</v>
+      <c r="D64" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>315</v>
+        <v>278</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>316</v>
+        <v>279</v>
       </c>
       <c r="G64" s="1">
         <v>811</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="K64" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="18">
       <c r="A65" s="1" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="C65" s="1"/>
-      <c r="D65" s="9" t="s">
-        <v>318</v>
+      <c r="D65" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="2" t="s">
-        <v>321</v>
+        <v>283</v>
       </c>
       <c r="K65" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="18">
       <c r="A66" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="G66" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="C66" s="1"/>
-      <c r="D66" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>326</v>
-      </c>
       <c r="H66" s="2" t="s">
-        <v>327</v>
+        <v>288</v>
       </c>
       <c r="K66" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="18">
       <c r="A67" s="1" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>328</v>
+        <v>289</v>
       </c>
       <c r="C67" s="1"/>
-      <c r="D67" s="9" t="s">
-        <v>323</v>
+      <c r="D67" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>329</v>
+        <v>290</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>331</v>
+        <v>292</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>332</v>
+        <v>293</v>
       </c>
       <c r="K67" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="18">
       <c r="A68" s="1" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="9" t="s">
-        <v>288</v>
+      <c r="D68" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>334</v>
+        <v>295</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="G68" s="1">
         <v>988</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>336</v>
+        <v>297</v>
       </c>
       <c r="K68" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="18">
       <c r="A69" s="1" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
       <c r="C69" s="1"/>
-      <c r="D69" s="9" t="s">
-        <v>338</v>
+      <c r="D69" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>339</v>
+        <v>299</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>341</v>
+        <v>301</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="K69" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="18">
       <c r="A70" s="1" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>344</v>
+        <v>303</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>347</v>
+        <v>306</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>348</v>
+        <v>307</v>
       </c>
       <c r="I70">
         <v>43.653129999999997</v>
@@ -4294,278 +3956,280 @@
         <v>-79.363579999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="18">
       <c r="A71" s="1" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
-      <c r="D71" s="9" t="s">
-        <v>349</v>
+      <c r="D71" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>350</v>
+        <v>308</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>351</v>
+        <v>309</v>
       </c>
       <c r="G71" s="1">
         <v>211</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>352</v>
+        <v>310</v>
       </c>
       <c r="K71" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="18">
       <c r="A72" s="1" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="9" t="s">
-        <v>353</v>
+      <c r="D72" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>354</v>
+        <v>311</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>355</v>
+        <v>312</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>356</v>
+        <v>313</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
       <c r="K72" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="18">
       <c r="A73" s="1" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
-      <c r="D73" s="9" t="s">
-        <v>303</v>
+      <c r="D73" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>27</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>358</v>
+        <v>315</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>359</v>
+        <v>316</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>360</v>
+        <v>317</v>
       </c>
       <c r="K73" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="18">
       <c r="A74" s="1" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
-      <c r="D74" s="9" t="s">
-        <v>309</v>
+      <c r="D74" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>361</v>
+        <v>318</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>363</v>
+        <v>320</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>364</v>
+        <v>321</v>
       </c>
       <c r="K74" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="18">
       <c r="A75" s="1" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
-      <c r="D75" s="9" t="s">
-        <v>365</v>
+      <c r="D75" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>366</v>
+        <v>322</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>367</v>
+        <v>323</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>368</v>
+        <v>324</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>364</v>
+        <v>321</v>
       </c>
       <c r="K75" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="18">
       <c r="A76" s="1" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
-      <c r="D76" s="9" t="s">
-        <v>369</v>
+      <c r="D76" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>370</v>
+        <v>325</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>371</v>
+        <v>326</v>
       </c>
       <c r="G76" s="1">
         <v>988</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>372</v>
+        <v>327</v>
       </c>
       <c r="K76" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="18">
       <c r="A77" s="1" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
       <c r="C77" s="1"/>
-      <c r="D77" s="9"/>
+      <c r="D77" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="E77" s="9" t="s">
-        <v>373</v>
+        <v>328</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>374</v>
+        <v>329</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>375</v>
+        <v>330</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>376</v>
+        <v>331</v>
       </c>
       <c r="K77" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="18">
       <c r="A78" s="1" t="s">
-        <v>377</v>
+        <v>332</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
-      <c r="D78" s="9" t="s">
-        <v>288</v>
+      <c r="D78" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>379</v>
+        <v>334</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>380</v>
+        <v>335</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>381</v>
+        <v>336</v>
       </c>
       <c r="K78" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="18">
       <c r="A79" s="1" t="s">
-        <v>377</v>
+        <v>332</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="9" t="s">
-        <v>382</v>
+      <c r="D79" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>383</v>
+        <v>337</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>384</v>
+        <v>338</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>385</v>
+        <v>339</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>386</v>
+        <v>340</v>
       </c>
       <c r="K79" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="18">
       <c r="A80" s="1" t="s">
-        <v>377</v>
+        <v>332</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="9" t="s">
-        <v>387</v>
+      <c r="D80" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>388</v>
+        <v>341</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>389</v>
+        <v>342</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="2" t="s">
-        <v>390</v>
+        <v>343</v>
       </c>
       <c r="K80" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="18">
       <c r="A81" s="1" t="s">
-        <v>377</v>
+        <v>332</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>391</v>
+        <v>344</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>393</v>
+        <v>345</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>394</v>
+        <v>346</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>395</v>
+        <v>347</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>396</v>
+        <v>348</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>397</v>
+        <v>349</v>
       </c>
       <c r="I81">
         <v>45.442189999999997</v>
@@ -4574,28 +4238,28 @@
         <v>-73.584199999999996</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="18">
       <c r="A82" s="1" t="s">
-        <v>377</v>
+        <v>332</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>391</v>
+        <v>344</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>399</v>
+        <v>350</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="2" t="s">
-        <v>401</v>
+        <v>352</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>402</v>
+        <v>353</v>
       </c>
       <c r="I82">
         <v>45.58878</v>
@@ -4604,28 +4268,28 @@
         <v>-73.528620000000004</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="18">
       <c r="A83" s="1" t="s">
-        <v>377</v>
+        <v>332</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>404</v>
+        <v>354</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>405</v>
+        <v>355</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>406</v>
+        <v>356</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>407</v>
+        <v>357</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>408</v>
+        <v>358</v>
       </c>
       <c r="I83">
         <v>45.488190000000003</v>
@@ -4634,30 +4298,30 @@
         <v>-73.638499999999993</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="18">
       <c r="A84" s="1" t="s">
-        <v>377</v>
+        <v>332</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>391</v>
+        <v>344</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>410</v>
+        <v>359</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>411</v>
+        <v>360</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>412</v>
+        <v>361</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>413</v>
+        <v>362</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>414</v>
+        <v>363</v>
       </c>
       <c r="I84">
         <v>45.577219999999997</v>
@@ -4666,174 +4330,174 @@
         <v>-73.653369999999995</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="18">
       <c r="A85" s="1" t="s">
-        <v>377</v>
+        <v>332</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
-      <c r="D85" s="9" t="s">
-        <v>415</v>
+      <c r="D85" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>416</v>
+        <v>364</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>417</v>
+        <v>365</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>418</v>
+        <v>366</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>419</v>
+        <v>367</v>
       </c>
       <c r="K85" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" ht="18">
       <c r="A86" s="1" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
-      <c r="D86" s="9" t="s">
-        <v>421</v>
+      <c r="D86" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>422</v>
+        <v>369</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>423</v>
+        <v>370</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>422</v>
+        <v>369</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>424</v>
+        <v>371</v>
       </c>
       <c r="K86" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="18">
       <c r="A87" s="1" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
-      <c r="D87" s="9" t="s">
-        <v>425</v>
+      <c r="D87" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>426</v>
+        <v>372</v>
       </c>
       <c r="G87" s="1">
         <v>988</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>427</v>
+        <v>373</v>
       </c>
       <c r="K87" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="18">
       <c r="A88" s="1" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
-      <c r="D88" s="9" t="s">
-        <v>428</v>
+      <c r="D88" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>429</v>
+        <v>374</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>430</v>
+        <v>375</v>
       </c>
       <c r="G88" s="1">
         <v>911</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>431</v>
+        <v>376</v>
       </c>
       <c r="K88" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="18">
       <c r="A89" s="1" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
-      <c r="D89" s="9" t="s">
-        <v>432</v>
+      <c r="D89" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>433</v>
+        <v>377</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>434</v>
+        <v>378</v>
       </c>
       <c r="G89" s="9"/>
       <c r="H89" s="9" t="s">
-        <v>435</v>
+        <v>379</v>
       </c>
       <c r="K89" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="18">
       <c r="A90" s="1" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
-      <c r="D90" s="9" t="s">
-        <v>436</v>
+      <c r="D90" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>437</v>
+        <v>380</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>438</v>
+        <v>381</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="9" t="s">
-        <v>439</v>
+        <v>382</v>
       </c>
       <c r="K90" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="18">
       <c r="A91" s="1" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>440</v>
+        <v>383</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>442</v>
+        <v>384</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>443</v>
+        <v>385</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>444</v>
+        <v>386</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="9" t="s">
-        <v>445</v>
+        <v>387</v>
       </c>
       <c r="I91">
         <v>46.194569999999999</v>
@@ -4842,53 +4506,53 @@
         <v>-66.326549999999997</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="18">
       <c r="A92" s="1" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
-      <c r="D92" s="9" t="s">
-        <v>446</v>
+      <c r="D92" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>447</v>
+        <v>388</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>448</v>
+        <v>389</v>
       </c>
       <c r="G92" s="1"/>
       <c r="H92" s="2" t="s">
-        <v>449</v>
+        <v>390</v>
       </c>
       <c r="K92" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="18">
       <c r="A93" s="1" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>450</v>
+        <v>391</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="D93" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E93" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="E93" s="9" t="s">
-        <v>452</v>
-      </c>
       <c r="F93" s="9" t="s">
-        <v>453</v>
+        <v>394</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>454</v>
+        <v>395</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="I93">
         <v>45.25441</v>
@@ -4897,305 +4561,305 @@
         <v>-66.126549999999995</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="18">
       <c r="A94" s="1" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
-      <c r="D94" s="9" t="s">
-        <v>303</v>
+      <c r="D94" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="E94" s="9" t="s">
         <v>27</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>456</v>
+        <v>397</v>
       </c>
       <c r="G94" s="9" t="s">
         <v>29</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>360</v>
+        <v>317</v>
       </c>
       <c r="K94" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="18">
       <c r="A95" s="1" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
-      <c r="D95" s="9" t="s">
-        <v>457</v>
+      <c r="D95" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>458</v>
+        <v>398</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>459</v>
+        <v>399</v>
       </c>
       <c r="K95" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" ht="18">
       <c r="A96" s="1" t="s">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
-      <c r="D96" s="9" t="s">
+      <c r="D96" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>461</v>
+        <v>401</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>462</v>
+        <v>402</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>463</v>
+        <v>403</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>464</v>
+        <v>404</v>
       </c>
       <c r="K96" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="18">
       <c r="A97" s="1" t="s">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
-      <c r="D97" s="9" t="s">
-        <v>57</v>
+      <c r="D97" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>465</v>
+        <v>405</v>
       </c>
       <c r="G97" s="1">
         <v>988</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>466</v>
+        <v>406</v>
       </c>
       <c r="K97" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="18">
       <c r="A98" s="1" t="s">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
-      <c r="D98" s="9" t="s">
-        <v>467</v>
+      <c r="D98" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>468</v>
+        <v>407</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>469</v>
+        <v>408</v>
       </c>
       <c r="G98" s="1">
         <v>911</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>470</v>
+        <v>409</v>
       </c>
       <c r="K98" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="18">
       <c r="A99" s="1" t="s">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
-      <c r="D99" s="9" t="s">
-        <v>471</v>
+      <c r="D99" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>472</v>
+        <v>410</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>473</v>
+        <v>411</v>
       </c>
       <c r="G99" s="1">
         <v>211</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>466</v>
+        <v>406</v>
       </c>
       <c r="K99" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="18">
       <c r="A100" s="1" t="s">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
-      <c r="D100" s="9" t="s">
-        <v>474</v>
+      <c r="D100" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>475</v>
+        <v>412</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>476</v>
+        <v>413</v>
       </c>
       <c r="G100" s="1">
         <v>811</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>466</v>
+        <v>406</v>
       </c>
       <c r="K100" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="18">
       <c r="A101" s="1" t="s">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
-      <c r="D101" s="9" t="s">
-        <v>477</v>
+      <c r="D101" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>478</v>
+        <v>414</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>479</v>
+        <v>415</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>480</v>
+        <v>416</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>466</v>
+        <v>406</v>
       </c>
       <c r="K101" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" ht="18">
       <c r="A102" s="1" t="s">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
-      <c r="D102" s="9" t="s">
-        <v>151</v>
+      <c r="D102" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>481</v>
+        <v>417</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>482</v>
+        <v>418</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>459</v>
+        <v>399</v>
       </c>
       <c r="K102" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="18">
       <c r="A103" s="1" t="s">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
-      <c r="D103" s="9" t="s">
-        <v>483</v>
+      <c r="D103" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>484</v>
+        <v>419</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>485</v>
+        <v>420</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>486</v>
+        <v>421</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>466</v>
+        <v>406</v>
       </c>
       <c r="K103" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" ht="18">
       <c r="A104" s="1" t="s">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
-      <c r="D104" s="9" t="s">
-        <v>487</v>
+      <c r="D104" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>488</v>
+        <v>422</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>489</v>
+        <v>423</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>490</v>
+        <v>424</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>466</v>
+        <v>406</v>
       </c>
       <c r="K104" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="18">
       <c r="A105" s="1" t="s">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>491</v>
+        <v>425</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>393</v>
+        <v>426</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>493</v>
+        <v>427</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>494</v>
+        <v>428</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>495</v>
+        <v>429</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>496</v>
+        <v>430</v>
       </c>
       <c r="I105">
         <v>44.662269999999999</v>
@@ -5204,76 +4868,76 @@
         <v>-63.510300000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="18">
       <c r="A106" s="1" t="s">
-        <v>497</v>
+        <v>431</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
-      <c r="D106" s="9" t="s">
-        <v>498</v>
+      <c r="D106" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>499</v>
+        <v>432</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>500</v>
+        <v>433</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>499</v>
+        <v>432</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>501</v>
+        <v>434</v>
       </c>
       <c r="K106" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="18">
       <c r="A107" s="1" t="s">
-        <v>497</v>
+        <v>431</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
-      <c r="D107" s="9" t="s">
-        <v>502</v>
+      <c r="D107" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>499</v>
+        <v>432</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>503</v>
+        <v>435</v>
       </c>
       <c r="G107" s="1"/>
       <c r="H107" s="2" t="s">
-        <v>501</v>
+        <v>434</v>
       </c>
       <c r="K107" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="18">
       <c r="A108" s="1" t="s">
-        <v>497</v>
+        <v>431</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>504</v>
+        <v>436</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>506</v>
+        <v>437</v>
+      </c>
+      <c r="D108" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>507</v>
+        <v>438</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>508</v>
+        <v>439</v>
       </c>
       <c r="G108" s="1"/>
       <c r="H108" s="2" t="s">
-        <v>501</v>
+        <v>434</v>
       </c>
       <c r="I108">
         <v>46.231630000000003</v>
@@ -5282,178 +4946,178 @@
         <v>-63.135429999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="18">
       <c r="A109" s="1" t="s">
-        <v>497</v>
+        <v>431</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
-      <c r="D109" s="9" t="s">
-        <v>509</v>
+      <c r="D109" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>510</v>
+        <v>440</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>511</v>
+        <v>441</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>512</v>
+        <v>442</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>501</v>
+        <v>434</v>
       </c>
       <c r="K109" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" ht="18">
       <c r="A110" s="1" t="s">
-        <v>497</v>
+        <v>431</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
-      <c r="D110" s="9" t="s">
-        <v>513</v>
+      <c r="D110" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>514</v>
+        <v>443</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>515</v>
+        <v>444</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>516</v>
+        <v>445</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>517</v>
+        <v>446</v>
       </c>
       <c r="K110" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="18">
       <c r="A111" s="1" t="s">
-        <v>497</v>
+        <v>431</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
-      <c r="D111" s="9" t="s">
-        <v>288</v>
+      <c r="D111" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E111" s="10">
         <v>39699</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>518</v>
+        <v>447</v>
       </c>
       <c r="G111" s="1">
         <v>988</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>519</v>
+        <v>448</v>
       </c>
       <c r="K111" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="18">
       <c r="A112" s="1" t="s">
-        <v>497</v>
+        <v>431</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
-      <c r="D112" s="9" t="s">
-        <v>61</v>
+      <c r="D112" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="E112" s="9" t="s">
         <v>27</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>520</v>
+        <v>449</v>
       </c>
       <c r="G112" s="9" t="s">
         <v>29</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>521</v>
+        <v>450</v>
       </c>
       <c r="K112" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="18">
       <c r="A113" s="1" t="s">
-        <v>497</v>
+        <v>431</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
-      <c r="D113" s="9" t="s">
-        <v>151</v>
+      <c r="D113" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>522</v>
+        <v>451</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="H113" s="9" t="s">
-        <v>523</v>
+        <v>452</v>
       </c>
       <c r="K113" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" ht="18">
       <c r="A114" s="1" t="s">
-        <v>497</v>
+        <v>431</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
-      <c r="D114" s="9" t="s">
-        <v>217</v>
+      <c r="D114" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>524</v>
+        <v>453</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>525</v>
+        <v>454</v>
       </c>
       <c r="G114" s="1"/>
       <c r="H114" s="2" t="s">
-        <v>526</v>
+        <v>455</v>
       </c>
       <c r="K114" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="18">
       <c r="A115" s="1" t="s">
-        <v>497</v>
+        <v>431</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>504</v>
+        <v>436</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="D115" s="9" t="s">
-        <v>393</v>
+        <v>456</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>528</v>
+        <v>457</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>529</v>
+        <v>458</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>530</v>
+        <v>459</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>531</v>
+        <v>460</v>
       </c>
       <c r="I115">
         <v>46.45167</v>
@@ -5462,104 +5126,104 @@
         <v>-62.599679999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" ht="18">
       <c r="A116" s="1" t="s">
-        <v>532</v>
+        <v>461</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
-      <c r="D116" s="9" t="s">
-        <v>533</v>
+      <c r="D116" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>534</v>
+        <v>462</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>535</v>
+        <v>463</v>
       </c>
       <c r="G116" s="1">
         <v>811</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>536</v>
+        <v>464</v>
       </c>
       <c r="K116" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" ht="18">
       <c r="A117" s="1" t="s">
-        <v>532</v>
+        <v>461</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
-      <c r="D117" s="9" t="s">
-        <v>533</v>
+      <c r="D117" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>537</v>
+        <v>465</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>538</v>
+        <v>466</v>
       </c>
       <c r="G117" s="9" t="s">
-        <v>537</v>
+        <v>465</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>539</v>
+        <v>467</v>
       </c>
       <c r="K117" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" ht="18">
       <c r="A118" s="1" t="s">
-        <v>532</v>
+        <v>461</v>
       </c>
       <c r="B118" t="s">
-        <v>540</v>
-      </c>
-      <c r="D118" s="9" t="s">
-        <v>541</v>
+        <v>468</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>542</v>
+        <v>469</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>543</v>
+        <v>470</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>544</v>
+        <v>471</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>545</v>
+        <v>472</v>
       </c>
       <c r="K118" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" ht="18">
       <c r="A119" s="1" t="s">
-        <v>532</v>
+        <v>461</v>
       </c>
       <c r="B119" t="s">
-        <v>540</v>
+        <v>468</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="D119" s="9" t="s">
-        <v>547</v>
+        <v>473</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>548</v>
+        <v>474</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>549</v>
+        <v>475</v>
       </c>
       <c r="G119" s="1"/>
       <c r="H119" s="2" t="s">
-        <v>550</v>
+        <v>476</v>
       </c>
       <c r="I119">
         <v>47.529060000000001</v>
@@ -5568,232 +5232,104 @@
         <v>-52.748820000000002</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="18">
       <c r="A120" s="1" t="s">
-        <v>532</v>
+        <v>461</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
-      <c r="D120" s="9" t="s">
-        <v>551</v>
+      <c r="D120" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>552</v>
+        <v>477</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>553</v>
+        <v>478</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>552</v>
+        <v>477</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>554</v>
+        <v>479</v>
       </c>
       <c r="K120" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="18">
       <c r="A121" s="1" t="s">
-        <v>532</v>
+        <v>461</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
-      <c r="D121" s="9" t="s">
-        <v>555</v>
+      <c r="D121" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>556</v>
+        <v>480</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>557</v>
+        <v>481</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>558</v>
+        <v>482</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>559</v>
+        <v>483</v>
       </c>
       <c r="K121" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" ht="18">
       <c r="A122" s="1" t="s">
-        <v>532</v>
+        <v>461</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
-      <c r="D122" s="9" t="s">
-        <v>560</v>
+      <c r="D122" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>561</v>
+        <v>484</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>562</v>
+        <v>485</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>563</v>
+        <v>486</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>559</v>
+        <v>483</v>
       </c>
       <c r="K122" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="35" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" ht="30.75">
       <c r="A123" s="1" t="s">
-        <v>532</v>
+        <v>461</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
-      <c r="D123" s="9" t="s">
-        <v>151</v>
+      <c r="D123" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>564</v>
+        <v>487</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>565</v>
+        <v>488</v>
       </c>
       <c r="H123" s="11" t="s">
-        <v>523</v>
+        <v>452</v>
       </c>
       <c r="K123" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>333</v>
-      </c>
-      <c r="B124" t="s">
-        <v>566</v>
-      </c>
-      <c r="C124" t="s">
-        <v>567</v>
-      </c>
-      <c r="D124" t="s">
-        <v>547</v>
-      </c>
-      <c r="E124" t="s">
-        <v>568</v>
-      </c>
-      <c r="F124" t="s">
-        <v>569</v>
-      </c>
-      <c r="G124" t="s">
-        <v>570</v>
-      </c>
-      <c r="H124" s="13" t="s">
-        <v>571</v>
-      </c>
-      <c r="I124">
-        <v>44.231200000000001</v>
-      </c>
-      <c r="J124">
-        <v>-76.485900000000001</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>333</v>
-      </c>
-      <c r="B125" t="s">
-        <v>566</v>
-      </c>
-      <c r="C125" t="s">
-        <v>572</v>
-      </c>
-      <c r="D125" t="s">
-        <v>573</v>
-      </c>
-      <c r="E125" t="s">
-        <v>574</v>
-      </c>
-      <c r="F125" t="s">
-        <v>575</v>
-      </c>
-      <c r="G125" t="s">
-        <v>576</v>
-      </c>
-      <c r="H125" t="s">
-        <v>577</v>
-      </c>
-      <c r="I125">
-        <v>44.229900000000001</v>
-      </c>
-      <c r="J125">
-        <v>-76.4786</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>333</v>
-      </c>
-      <c r="B126" t="s">
-        <v>578</v>
-      </c>
-      <c r="C126" t="s">
-        <v>579</v>
-      </c>
-      <c r="D126" t="s">
-        <v>547</v>
-      </c>
-      <c r="E126" t="s">
-        <v>580</v>
-      </c>
-      <c r="F126" t="s">
-        <v>581</v>
-      </c>
-      <c r="G126" t="s">
-        <v>582</v>
-      </c>
-      <c r="H126" t="s">
-        <v>583</v>
-      </c>
-      <c r="I126">
-        <v>43.850499999999997</v>
-      </c>
-      <c r="J126">
-        <v>-79.555899999999994</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>333</v>
-      </c>
-      <c r="B127" t="s">
-        <v>578</v>
-      </c>
-      <c r="C127" t="s">
-        <v>584</v>
-      </c>
-      <c r="D127" t="s">
-        <v>585</v>
-      </c>
-      <c r="E127" t="s">
-        <v>586</v>
-      </c>
-      <c r="F127" t="s">
-        <v>587</v>
-      </c>
-      <c r="G127" t="s">
-        <v>588</v>
-      </c>
-      <c r="H127" s="13" t="s">
-        <v>589</v>
-      </c>
-      <c r="I127">
-        <v>43.820799999999998</v>
-      </c>
-      <c r="J127">
-        <v>-79.5321</v>
       </c>
     </row>
   </sheetData>
@@ -5876,8 +5412,6 @@
     <hyperlink ref="H121" r:id="rId76" xr:uid="{16BE2CA2-53E7-4277-8D20-4381F5F57EF9}"/>
     <hyperlink ref="H122" r:id="rId77" xr:uid="{AE86639D-D374-4793-9C2B-20096C40C962}"/>
     <hyperlink ref="G8" r:id="rId78" xr:uid="{E742C719-BE50-4F2B-A446-09FE206F59FD}"/>
-    <hyperlink ref="H124" r:id="rId79" display="https://amhs-kfla.ca/programs-services/crisis/?utm_source=chatgpt.com" xr:uid="{81155757-EFA5-1C42-B417-4EDCA183840C}"/>
-    <hyperlink ref="H127" r:id="rId80" display="https://cmha-yr.on.ca/locations/vaughan/?utm_source=chatgpt.com" xr:uid="{3C125688-7164-BE47-AB08-1FA902CEB572}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/canadianMentalHealthResources.xlsx
+++ b/assets/canadianMentalHealthResources.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29303"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://queensuca-my.sharepoint.com/personal/23nrd2_queensu_ca/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E6D9FAD-4256-4DCB-8B88-DFFF9B6E6E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CEFDB21-0B4B-4144-B833-9360189A904F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16980" xr2:uid="{60D886F8-FFE1-F14E-A3CB-AFDAAB1FA1C7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="655">
   <si>
     <t>Province</t>
   </si>
@@ -806,6 +806,132 @@
     <t>Joint police and therapist team supporting crisis response and mental health outreach</t>
   </si>
   <si>
+    <t>1403 29 Street NW, Calgary, AB T2N 2T9</t>
+  </si>
+  <si>
+    <t>Foothills Medical Centre</t>
+  </si>
+  <si>
+    <t>One of Canada’s largest hospitals; advanced referral centre covering Southern Alberta &amp; beyond.</t>
+  </si>
+  <si>
+    <t>403-944-1110</t>
+  </si>
+  <si>
+    <t>http://www.ahs.ca/fmc</t>
+  </si>
+  <si>
+    <t>28 Oki Drive NW, Calgary, AB T3B 6A8</t>
+  </si>
+  <si>
+    <t>Alberta Children’s Hospital</t>
+  </si>
+  <si>
+    <t>Specialized hospital focused on pediatric care, serving children up to age 18, with EMER &amp; specialty clinics.</t>
+  </si>
+  <si>
+    <t>403-955-7211</t>
+  </si>
+  <si>
+    <t>http://www.ahs.ca/ach</t>
+  </si>
+  <si>
+    <t>Lethbridge</t>
+  </si>
+  <si>
+    <t>Chinook Regional Hospital</t>
+  </si>
+  <si>
+    <t>Major hospital in Southern Alberta; various acute, ICU, surgical and specialty services.</t>
+  </si>
+  <si>
+    <t>403-388-6111</t>
+  </si>
+  <si>
+    <t>https://www.albertahealthservices.ca/findhealth/facility.aspx?id=3312</t>
+  </si>
+  <si>
+    <t>16940 87 Ave NW, Edmonton, AB T5R 4H5</t>
+  </si>
+  <si>
+    <t>Misericordia Community Hospital</t>
+  </si>
+  <si>
+    <t>Full-service acute care facility, serving northwest Edmonton</t>
+  </si>
+  <si>
+    <t>780-735-2000</t>
+  </si>
+  <si>
+    <t>https://www.covenanthealth.ca/locations/misericordia-community-hospital</t>
+  </si>
+  <si>
+    <t>Banff</t>
+  </si>
+  <si>
+    <t>305 Lynx St, PO Box 1050, Banff, AB</t>
+  </si>
+  <si>
+    <t>Banff Mineral Springs Hospital</t>
+  </si>
+  <si>
+    <t>Small regional hospital in the Rockies; acute care + emergency services and continuing care.</t>
+  </si>
+  <si>
+    <t>403-762-2222</t>
+  </si>
+  <si>
+    <t>https://www.covenanthealth.ca/locations/banff-mineral-springs-hospital</t>
+  </si>
+  <si>
+    <t>Bonnyville</t>
+  </si>
+  <si>
+    <t>5001 Lakeshore Drive, Bonnyville, AB</t>
+  </si>
+  <si>
+    <t>Bonnyville Health Centre</t>
+  </si>
+  <si>
+    <t>Provides acute care, emergency, and other hospital services to the region.</t>
+  </si>
+  <si>
+    <t>780-826-3311</t>
+  </si>
+  <si>
+    <t>https://www.covenanthealth.ca/locations/bonnyville-health-centre</t>
+  </si>
+  <si>
+    <t>10240 Kingsway NW, Edmonton, AB T5H 3V9</t>
+  </si>
+  <si>
+    <t>Royal Alexandra Hospital</t>
+  </si>
+  <si>
+    <t>Large hospital serving Edmonton/Northern Alberta; wide variety of medical, surgical, women’s, children’s services.</t>
+  </si>
+  <si>
+    <t>780-735-4111</t>
+  </si>
+  <si>
+    <t>https://www.albertahealthservices.ca/findhealth/facility.aspx?id=6598</t>
+  </si>
+  <si>
+    <t>St. Albert</t>
+  </si>
+  <si>
+    <t>Sturgeon Community Hospital</t>
+  </si>
+  <si>
+    <t>Serves St. Albert region; variety of general hospital services including emergency.</t>
+  </si>
+  <si>
+    <t>780-418-8200</t>
+  </si>
+  <si>
+    <t>https://www.albertahealthservices.ca/findhealth/facility.aspx?id=1000932</t>
+  </si>
+  <si>
     <t>British Columbia</t>
   </si>
   <si>
@@ -920,6 +1046,156 @@
     <t>https://www.interiorcrisisline.com/?utm_source=chatgpt.com</t>
   </si>
   <si>
+    <t>1081 Burrard Street, Vancouver, BC V6Z 1Y6</t>
+  </si>
+  <si>
+    <t>St. Paul’s Hospital</t>
+  </si>
+  <si>
+    <t>Acute-care, teaching &amp; research hospital; heart &amp; lung, mental health, emergency, spectrum of specialty programs.</t>
+  </si>
+  <si>
+    <t>604-682-2344</t>
+  </si>
+  <si>
+    <t>https://www.providencehealthcare.org/en/locations/st-pauls-hospital</t>
+  </si>
+  <si>
+    <t>899 West 12th Avenue, Vancouver, BC V5Z 1M9</t>
+  </si>
+  <si>
+    <t>Vancouver General Hospital (VGH)</t>
+  </si>
+  <si>
+    <t>Provides full range of emergency, trauma, specialized and regional programs; teaching.</t>
+  </si>
+  <si>
+    <t>(604)-875-4111</t>
+  </si>
+  <si>
+    <t>https://www.vch.ca/en/location/vancouver-general-hospital</t>
+  </si>
+  <si>
+    <t>Prince George</t>
+  </si>
+  <si>
+    <t>1475 Edmonton Street, Prince George, BC V2M 1S2</t>
+  </si>
+  <si>
+    <t>University Hospital of Northern British Columbia (UHNBC)</t>
+  </si>
+  <si>
+    <t>Largest acute care facility in Northern BC; hub for specialized services, teaching &amp; referrals.</t>
+  </si>
+  <si>
+    <t>250-565-2000</t>
+  </si>
+  <si>
+    <t>https://www.northernhealth.ca/find-a-facility/hospitals/university-hospital-northern-british-columbia-uhnbc</t>
+  </si>
+  <si>
+    <t>New Westminster</t>
+  </si>
+  <si>
+    <t>330 East Columbia Street, New Westminster, BC V3L 3W7</t>
+  </si>
+  <si>
+    <t>Royal Columbian Hospital</t>
+  </si>
+  <si>
+    <t>Major regional critical care site for Fraser Health; trauma, cardiac, neurosurgery, etc.</t>
+  </si>
+  <si>
+    <t>604-520-4253</t>
+  </si>
+  <si>
+    <t>https://www.fraserhealth.ca/Service-Directory/Locations/New-Westminster/royal-columbian-hospital#.XSdr3flKhGM</t>
+  </si>
+  <si>
+    <t>Surrey</t>
+  </si>
+  <si>
+    <t>13750 96 Avenue, Surrey, BC</t>
+  </si>
+  <si>
+    <t>Surrey Memorial Hospital</t>
+  </si>
+  <si>
+    <t>One of the largest hospitals in BC by patient volume; major emergency services; pediatrics, maternity, cancer care.</t>
+  </si>
+  <si>
+    <t>604-581-2211</t>
+  </si>
+  <si>
+    <t>https://www.fraserhealth.ca/Service-Directory/Locations/Surrey/surrey-memorial-hospital</t>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>1 Hospital Way, Victoria, BC V8Z 6R5</t>
+  </si>
+  <si>
+    <t>Victoria General Hospital</t>
+  </si>
+  <si>
+    <t>A major hospital on Vancouver Island; wide range of services; serves southern Island communities.</t>
+  </si>
+  <si>
+    <t>250-727-4212</t>
+  </si>
+  <si>
+    <t>https://www.islandhealth.ca/our-locations/hospitals-health-centre-locations/victoria-general-hospital-vgh</t>
+  </si>
+  <si>
+    <t>Kelowna</t>
+  </si>
+  <si>
+    <t>2268 Pandosy Street, Kelowna, BC V1Y 1T2</t>
+  </si>
+  <si>
+    <t>Kelowna General Hospital</t>
+  </si>
+  <si>
+    <t>Regional referral hospital in Interior Health; offers cardiac surgery / angioplasty among specialized services.</t>
+  </si>
+  <si>
+    <t>250 862-4000</t>
+  </si>
+  <si>
+    <t>https://www.interiorhealth.ca/locations/kelowna-general-hospital</t>
+  </si>
+  <si>
+    <t>2211 Wesbrook Mall, Vancouver, BC V6T 2B5</t>
+  </si>
+  <si>
+    <t>UBC Hospital</t>
+  </si>
+  <si>
+    <t>Part of UBC / Vancouver Coastal Health; teaching, research, various specialties.</t>
+  </si>
+  <si>
+    <t>604-822-7121</t>
+  </si>
+  <si>
+    <t>https://www.vch.ca/en/location/ubc-hospital</t>
+  </si>
+  <si>
+    <t>3080 Prince Edward Street, Vancouver, BC V5T 3N4</t>
+  </si>
+  <si>
+    <t>Mount Saint Joseph Hospital</t>
+  </si>
+  <si>
+    <t>Acute care plus diagnostic, outpatient; also includes a long-term care component.</t>
+  </si>
+  <si>
+    <t>604-874-1141</t>
+  </si>
+  <si>
+    <t>http://www.providencehealthcare.org/hospitals-residences/mount-saint-joseph-hospital</t>
+  </si>
+  <si>
     <t>Ontario</t>
   </si>
   <si>
@@ -1032,6 +1308,228 @@
   </si>
   <si>
     <t>https://www.toronto.ca/community-people/public-safety-alerts/community-safety-wellbeing-programs/toronto-community-crisis-service/</t>
+  </si>
+  <si>
+    <t>200 Elizabeth St, Toronto, ON M5G 2C4</t>
+  </si>
+  <si>
+    <t>Toronto General Hospital (UHN)</t>
+  </si>
+  <si>
+    <t>One of Canada’s leading research and teaching hospitals, part of UHN</t>
+  </si>
+  <si>
+    <t>416-340-3111</t>
+  </si>
+  <si>
+    <t>https://www.uhn.ca/OurHospitals/TGH</t>
+  </si>
+  <si>
+    <t>600 University Ave, Toronto, ON M5G 1X5</t>
+  </si>
+  <si>
+    <t>Princess Margaret Cancer Centre</t>
+  </si>
+  <si>
+    <t>World-renowned cancer research and treatment centre, part of UHN</t>
+  </si>
+  <si>
+    <t>416-946-2000</t>
+  </si>
+  <si>
+    <t>https://www.uhn.ca/</t>
+  </si>
+  <si>
+    <t>76 Grenville St, Toronto, ON M5S 1B2</t>
+  </si>
+  <si>
+    <t>Women’s College Hospital</t>
+  </si>
+  <si>
+    <t>Specializes in women’s health, ambulatory care, and health system solutions</t>
+  </si>
+  <si>
+    <t>416-323-6400</t>
+  </si>
+  <si>
+    <t>http://www.womenscollegehospital.ca/</t>
+  </si>
+  <si>
+    <t>Ottawa</t>
+  </si>
+  <si>
+    <t>501 Smyth Rd, Ottawa, ON K1H 8L6</t>
+  </si>
+  <si>
+    <t>The Ottawa Hospital – General Campus</t>
+  </si>
+  <si>
+    <t>Large academic health sciences centre affiliated with University of Ottawa</t>
+  </si>
+  <si>
+    <t>613-722-7000</t>
+  </si>
+  <si>
+    <t>https://www.ottawahospital.on.ca/</t>
+  </si>
+  <si>
+    <t>43 Bruyère St, Ottawa, ON K1N 5C8</t>
+  </si>
+  <si>
+    <t>Bruyère Continuing Care</t>
+  </si>
+  <si>
+    <t>Specializes in rehabilitation, palliative, and complex continuing care</t>
+  </si>
+  <si>
+    <t>613-562-6262</t>
+  </si>
+  <si>
+    <t>http://www.bruyere.org/</t>
+  </si>
+  <si>
+    <t>Kingston</t>
+  </si>
+  <si>
+    <t>76 Stuart St, Kingston, ON K7L 2V7</t>
+  </si>
+  <si>
+    <t>Kingston General Hospital (KHSC)</t>
+  </si>
+  <si>
+    <t>Major teaching hospital affiliated with Queen’s University</t>
+  </si>
+  <si>
+    <t>613-549-6666</t>
+  </si>
+  <si>
+    <t>https://kingstonhsc.ca/</t>
+  </si>
+  <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t>237 Barton St E, Hamilton, ON L8L 2X2</t>
+  </si>
+  <si>
+    <t>Hamilton General Hospital (HHS)</t>
+  </si>
+  <si>
+    <t>Acute care teaching hospital with focus on cardiac and vascular care</t>
+  </si>
+  <si>
+    <t>905-521-2100</t>
+  </si>
+  <si>
+    <t>https://www.hamiltonhealthsciences.ca/about-us/our-organization/our-locations/hamilton-general-hospital/</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>800 Commissioners Rd E, London, ON N6A 5W9</t>
+  </si>
+  <si>
+    <t>London Health Sciences Centre – Victoria Hospital</t>
+  </si>
+  <si>
+    <t>Major regional referral hospital with specialized programs in cancer, cardiac, trauma</t>
+  </si>
+  <si>
+    <t>519-685-8500</t>
+  </si>
+  <si>
+    <t>http://www.lhsc.on.ca/</t>
+  </si>
+  <si>
+    <t>Mississauga</t>
+  </si>
+  <si>
+    <t>100 Queensway W, Mississauga, ON L5B 1B8</t>
+  </si>
+  <si>
+    <t>Trillium Health Partners – Credit Valley Hospital</t>
+  </si>
+  <si>
+    <t>Provides comprehensive acute care, maternity, and specialty services</t>
+  </si>
+  <si>
+    <t>905-813-2200</t>
+  </si>
+  <si>
+    <t>http://trilliumhealthpartners.ca/</t>
+  </si>
+  <si>
+    <t>Sudbury</t>
+  </si>
+  <si>
+    <t>41 Ramsey Lake Rd, Sudbury, ON P3E 5J1</t>
+  </si>
+  <si>
+    <t>Health Sciences North</t>
+  </si>
+  <si>
+    <t>Northern Ontario’s largest hospital, regional centre for specialized care</t>
+  </si>
+  <si>
+    <t>705-523-7100</t>
+  </si>
+  <si>
+    <t>https://hsnsudbury.ca/en</t>
+  </si>
+  <si>
+    <t>Barrie</t>
+  </si>
+  <si>
+    <t>201 Georgian Drive, Barrie, ON</t>
+  </si>
+  <si>
+    <t>Royal Victoria Regional Health Centre</t>
+  </si>
+  <si>
+    <t>Acute care, surgical, women/children, mental health etc</t>
+  </si>
+  <si>
+    <t>705-728-9802</t>
+  </si>
+  <si>
+    <t>https://www.rvh.on.ca/</t>
+  </si>
+  <si>
+    <t>Atikokan</t>
+  </si>
+  <si>
+    <t>120 Dorothy St, Atikokan, ON P0T 1C0</t>
+  </si>
+  <si>
+    <t>Atikokan General Hospital</t>
+  </si>
+  <si>
+    <t>41-bed facility; emergency, acute, diagnostic services &amp; long-term care</t>
+  </si>
+  <si>
+    <t>(807)-597-4215</t>
+  </si>
+  <si>
+    <t>http://aghospital.on.ca/</t>
+  </si>
+  <si>
+    <t>Timmins</t>
+  </si>
+  <si>
+    <t>700 Ross Ave E, Timmins, ON P4N 0A2</t>
+  </si>
+  <si>
+    <t>Timmins and District Hospital (TADH)</t>
+  </si>
+  <si>
+    <t>Acute care, specialty services; teaching/referral hospital for NE Ontario</t>
+  </si>
+  <si>
+    <t>(705)-267-2131</t>
+  </si>
+  <si>
+    <t>http://www.tadh.com/</t>
   </si>
   <si>
     <t>Quebec</t>
@@ -1568,7 +2066,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1668,6 +2166,12 @@
       <name val="Aptos Narrow"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF000000"/>
+      <name val="-Webkit-Standard"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1690,7 +2194,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1714,6 +2218,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2049,10 +2554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8E0B34-D33C-AB4E-A291-CAA443D46446}">
-  <dimension ref="A1:K123"/>
+  <dimension ref="A1:K153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="F45" workbookViewId="0">
+      <selection activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3612,234 +4117,277 @@
       </c>
     </row>
     <row r="58" spans="1:11" ht="18">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C58" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" s="9" t="s">
+      <c r="D58" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E58" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="F58" s="9" t="s">
+      <c r="F58" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="G58" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="H58" s="2" t="s">
+      <c r="G58" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="K58" t="s">
-        <v>17</v>
+      <c r="H58" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="I58">
+        <v>51.065429999999999</v>
+      </c>
+      <c r="J58">
+        <v>-114.13191</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="18">
-      <c r="A59" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="F59" s="9" t="s">
+      <c r="A59" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="G59" s="9" t="s">
+      <c r="D59" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E59" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="F59" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="K59" t="s">
-        <v>17</v>
+      <c r="G59" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="I59">
+        <v>51.07497</v>
+      </c>
+      <c r="J59">
+        <v>-114.14693</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="18">
-      <c r="A60" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B60" s="1"/>
+      <c r="A60" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>266</v>
+      </c>
       <c r="C60" s="1"/>
-      <c r="D60" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>265</v>
+      <c r="D60" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="F60" s="17" t="s">
+        <v>268</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="K60" t="s">
-        <v>17</v>
+        <v>269</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="I60">
+        <v>49.685189999999999</v>
+      </c>
+      <c r="J60">
+        <v>-112.81532</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="18">
-      <c r="A61" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" s="1">
-        <v>211</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="G61" s="1">
-        <v>211</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="K61" t="s">
-        <v>17</v>
+      <c r="A61" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="F61" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="G61" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="I61">
+        <v>53.521450000000002</v>
+      </c>
+      <c r="J61">
+        <v>-113.61049</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="18">
-      <c r="A62" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>270</v>
+      <c r="A62" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="F62" s="17" t="s">
+        <v>279</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="K62" t="s">
-        <v>17</v>
+        <v>280</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="I62">
+        <v>51.179200000000002</v>
+      </c>
+      <c r="J62">
+        <v>-115.57494</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="18">
-      <c r="A63" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D63" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>277</v>
+      <c r="A63" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="F63" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="G63" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>287</v>
       </c>
       <c r="I63">
-        <v>49.905729999999998</v>
+        <v>54.263869999999997</v>
       </c>
       <c r="J63">
-        <v>-97.161100000000005</v>
+        <v>-110.73894</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="18">
-      <c r="A64" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="G64" s="1">
-        <v>811</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="K64" t="s">
-        <v>17</v>
+      <c r="A64" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F64" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="I64">
+        <v>53.557450000000003</v>
+      </c>
+      <c r="J64">
+        <v>-113.49663</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="18">
-      <c r="A65" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>272</v>
+      <c r="A65" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>293</v>
       </c>
       <c r="C65" s="1"/>
-      <c r="D65" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="G65" s="1"/>
-      <c r="H65" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="K65" t="s">
-        <v>17</v>
+      <c r="D65" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="F65" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="H65" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="I65">
+        <v>53.655340000000002</v>
+      </c>
+      <c r="J65">
+        <v>-113.62475000000001</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="18">
       <c r="A66" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>284</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="K66" t="s">
         <v>17</v>
@@ -3847,26 +4395,24 @@
     </row>
     <row r="67" spans="1:11" ht="18">
       <c r="A67" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>289</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E67" s="5" t="s">
-        <v>290</v>
+      <c r="E67" s="9" t="s">
+        <v>302</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="K67" t="s">
         <v>17</v>
@@ -3874,24 +4420,24 @@
     </row>
     <row r="68" spans="1:11" ht="18">
       <c r="A68" s="1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="9" t="s">
-        <v>295</v>
+      <c r="E68" s="1" t="s">
+        <v>306</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="G68" s="1">
-        <v>988</v>
+        <v>307</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>306</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="K68" t="s">
         <v>17</v>
@@ -3899,26 +4445,24 @@
     </row>
     <row r="69" spans="1:11" ht="18">
       <c r="A69" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B69" s="1" t="s">
         <v>298</v>
       </c>
+      <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="9" t="s">
-        <v>299</v>
+      <c r="E69" s="1">
+        <v>211</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="G69" s="9" t="s">
-        <v>301</v>
+        <v>309</v>
+      </c>
+      <c r="G69" s="1">
+        <v>211</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="K69" t="s">
         <v>17</v>
@@ -3926,81 +4470,81 @@
     </row>
     <row r="70" spans="1:11" ht="18">
       <c r="A70" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B70" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>12</v>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="I70">
-        <v>43.653129999999997</v>
-      </c>
-      <c r="J70">
-        <v>-79.363579999999999</v>
+        <v>308</v>
+      </c>
+      <c r="K70" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="18">
       <c r="A71" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>308</v>
+        <v>298</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>316</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="G71" s="1">
-        <v>211</v>
+        <v>317</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>318</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="K71" t="s">
-        <v>17</v>
+        <v>319</v>
+      </c>
+      <c r="I71">
+        <v>49.905729999999998</v>
+      </c>
+      <c r="J71">
+        <v>-97.161100000000005</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="18">
       <c r="A72" s="1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="15" t="s">
-        <v>21</v>
+      <c r="D72" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="G72" s="9" t="s">
-        <v>313</v>
+        <v>321</v>
+      </c>
+      <c r="G72" s="1">
+        <v>811</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="K72" t="s">
         <v>17</v>
@@ -4008,24 +4552,24 @@
     </row>
     <row r="73" spans="1:11" ht="18">
       <c r="A73" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B73" s="1"/>
+        <v>298</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>314</v>
+      </c>
       <c r="C73" s="1"/>
-      <c r="D73" s="16" t="s">
-        <v>26</v>
+      <c r="D73" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>27</v>
+        <v>323</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="G73" s="9" t="s">
-        <v>316</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="G73" s="1"/>
       <c r="H73" s="2" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="K73" t="s">
         <v>17</v>
@@ -4033,24 +4577,26 @@
     </row>
     <row r="74" spans="1:11" ht="18">
       <c r="A74" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B74" s="1"/>
+        <v>298</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>326</v>
+      </c>
       <c r="C74" s="1"/>
-      <c r="D74" s="16" t="s">
-        <v>26</v>
+      <c r="D74" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="K74" t="s">
         <v>17</v>
@@ -4058,298 +4604,339 @@
     </row>
     <row r="75" spans="1:11" ht="18">
       <c r="A75" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B75" s="1"/>
+        <v>298</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>331</v>
+      </c>
       <c r="C75" s="1"/>
-      <c r="D75" s="16" t="s">
-        <v>26</v>
+      <c r="D75" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="K75" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="18">
+    <row r="76" spans="1:11" ht="17.25">
       <c r="A76" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="F76" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="G76" s="1">
-        <v>988</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="K76" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="18">
+        <v>298</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="F76" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="G76" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="H76" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="I76">
+        <v>49.280900000000003</v>
+      </c>
+      <c r="J76">
+        <v>-123.1268</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="17.25">
       <c r="A77" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B77" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C77" s="1"/>
-      <c r="D77" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="F77" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="G77" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="K77" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="18">
+      <c r="B77" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="F77" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="G77" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="H77" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="I77">
+        <v>49.261580000000002</v>
+      </c>
+      <c r="J77">
+        <v>-123.12119</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="17.25">
       <c r="A78" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="F78" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="K78" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="18">
+        <v>298</v>
+      </c>
+      <c r="B78" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="F78" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="G78" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="H78" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="I78">
+        <v>53.911830000000002</v>
+      </c>
+      <c r="J78">
+        <v>-122.76318000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="17.25">
       <c r="A79" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="G79" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="K79" t="s">
-        <v>17</v>
+        <v>298</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="F79" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="G79" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="H79" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="I79">
+        <v>49.226939999999999</v>
+      </c>
+      <c r="J79">
+        <v>-122.88947</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="18">
       <c r="A80" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="F80" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="G80" s="1"/>
-      <c r="H80" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="K80" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="18">
+        <v>298</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="F80" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="H80" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="I80">
+        <v>49.175849999999997</v>
+      </c>
+      <c r="J80">
+        <v>-122.84255</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="17.25">
       <c r="A81" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>345</v>
+        <v>298</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>365</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E81" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="F81" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>349</v>
+      <c r="E81" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="F81" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="G81" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="H81" s="13" t="s">
+        <v>369</v>
       </c>
       <c r="I81">
-        <v>45.442189999999997</v>
+        <v>48.466949999999997</v>
       </c>
       <c r="J81">
-        <v>-73.584199999999996</v>
+        <v>-123.43142</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="18">
       <c r="A82" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>350</v>
+        <v>298</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>371</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E82" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="F82" s="1"/>
-      <c r="G82" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>353</v>
+      <c r="E82" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="F82" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="H82" s="13" t="s">
+        <v>375</v>
       </c>
       <c r="I82">
-        <v>45.58878</v>
+        <v>49.873669999999997</v>
       </c>
       <c r="J82">
-        <v>-73.528620000000004</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="18">
+        <v>-119.49166</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="17.25">
       <c r="A83" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D83" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="F83" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="G83" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>358</v>
+        <v>298</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="F83" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="G83" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="H83" s="13" t="s">
+        <v>380</v>
       </c>
       <c r="I83">
-        <v>45.488190000000003</v>
+        <v>49.264209999999999</v>
       </c>
       <c r="J83">
-        <v>-73.638499999999993</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="18">
+        <v>-123.2456</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="17.25">
       <c r="A84" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="D84" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="F84" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="G84" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>363</v>
+        <v>298</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="F84" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="G84" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="H84" s="13" t="s">
+        <v>385</v>
       </c>
       <c r="I84">
-        <v>45.577219999999997</v>
+        <v>49.257930000000002</v>
       </c>
       <c r="J84">
-        <v>-73.653369999999995</v>
+        <v>-123.09453000000001</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="18">
       <c r="A85" s="1" t="s">
-        <v>332</v>
+        <v>386</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
-      <c r="D85" s="15" t="s">
-        <v>21</v>
+      <c r="D85" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="G85" s="9" t="s">
-        <v>366</v>
+        <v>388</v>
+      </c>
+      <c r="G85" s="1">
+        <v>988</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="K85" t="s">
         <v>17</v>
@@ -4357,24 +4944,26 @@
     </row>
     <row r="86" spans="1:11" ht="18">
       <c r="A86" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B86" s="1"/>
+        <v>386</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>390</v>
+      </c>
       <c r="C86" s="1"/>
       <c r="D86" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>370</v>
+        <v>392</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="K86" t="s">
         <v>17</v>
@@ -4382,49 +4971,56 @@
     </row>
     <row r="87" spans="1:11" ht="18">
       <c r="A87" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
+        <v>386</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>395</v>
+      </c>
       <c r="D87" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>257</v>
+        <v>396</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="G87" s="1">
-        <v>988</v>
+        <v>397</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>398</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="K87" t="s">
-        <v>17</v>
+        <v>399</v>
+      </c>
+      <c r="I87">
+        <v>43.653129999999997</v>
+      </c>
+      <c r="J87">
+        <v>-79.363579999999999</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="18">
       <c r="A88" s="1" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
-      <c r="D88" s="5" t="s">
-        <v>12</v>
+      <c r="D88" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>375</v>
+        <v>401</v>
       </c>
       <c r="G88" s="1">
-        <v>911</v>
+        <v>211</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>376</v>
+        <v>402</v>
       </c>
       <c r="K88" t="s">
         <v>17</v>
@@ -4432,22 +5028,24 @@
     </row>
     <row r="89" spans="1:11" ht="18">
       <c r="A89" s="1" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
-      <c r="D89" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>377</v>
+      <c r="D89" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>403</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="G89" s="9"/>
-      <c r="H89" s="9" t="s">
-        <v>379</v>
+        <v>404</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>406</v>
       </c>
       <c r="K89" t="s">
         <v>17</v>
@@ -4455,22 +5053,24 @@
     </row>
     <row r="90" spans="1:11" ht="18">
       <c r="A90" s="1" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
-      <c r="D90" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>380</v>
+      <c r="D90" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="G90" s="1"/>
-      <c r="H90" s="9" t="s">
-        <v>382</v>
+        <v>407</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>409</v>
       </c>
       <c r="K90" t="s">
         <v>17</v>
@@ -4478,52 +5078,49 @@
     </row>
     <row r="91" spans="1:11" ht="18">
       <c r="A91" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="D91" s="15" t="s">
-        <v>36</v>
+        <v>386</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="G91" s="1"/>
-      <c r="H91" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="I91">
-        <v>46.194569999999999</v>
-      </c>
-      <c r="J91">
-        <v>-66.326549999999997</v>
+        <v>411</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="K91" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="18">
       <c r="A92" s="1" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
-      <c r="D92" s="5" t="s">
-        <v>12</v>
+      <c r="D92" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>388</v>
+        <v>414</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="G92" s="1"/>
+        <v>415</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>416</v>
+      </c>
       <c r="H92" s="2" t="s">
-        <v>390</v>
+        <v>413</v>
       </c>
       <c r="K92" t="s">
         <v>17</v>
@@ -4531,441 +5128,517 @@
     </row>
     <row r="93" spans="1:11" ht="18">
       <c r="A93" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>45</v>
+        <v>386</v>
+      </c>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>395</v>
+        <v>418</v>
+      </c>
+      <c r="G93" s="1">
+        <v>988</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="I93">
-        <v>45.25441</v>
-      </c>
-      <c r="J93">
-        <v>-66.126549999999995</v>
+        <v>419</v>
+      </c>
+      <c r="K93" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="18">
       <c r="A94" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B94" s="1"/>
+        <v>386</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>390</v>
+      </c>
       <c r="C94" s="1"/>
-      <c r="D94" s="16" t="s">
-        <v>26</v>
+      <c r="D94" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>27</v>
+        <v>420</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>29</v>
+        <v>422</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>317</v>
+        <v>423</v>
       </c>
       <c r="K94" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="18">
+    <row r="95" spans="1:11" ht="17.25">
       <c r="A95" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="F95" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="G95" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="K95" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="18">
+        <v>386</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C95" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E95" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="F95" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="G95" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="H95" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="I95">
+        <v>43.659140000000001</v>
+      </c>
+      <c r="J95">
+        <v>-79.385729999999995</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="17.25">
       <c r="A96" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E96" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="F96" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="G96" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="K96" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" ht="18">
+        <v>386</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C96" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E96" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="F96" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="G96" s="17" t="s">
+        <v>432</v>
+      </c>
+      <c r="H96" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="I96">
+        <v>43.658790000000003</v>
+      </c>
+      <c r="J96">
+        <v>-79.390140000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="17.25">
       <c r="A97" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E97" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="F97" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="G97" s="1">
-        <v>988</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K97" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" ht="18">
+        <v>386</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C97" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E97" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="F97" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="G97" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="H97" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="I97">
+        <v>43.661929999999998</v>
+      </c>
+      <c r="J97">
+        <v>-79.386219999999994</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="17.25">
       <c r="A98" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="F98" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="G98" s="1">
-        <v>911</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="K98" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" ht="18">
+        <v>386</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E98" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="F98" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="G98" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="H98" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="I98">
+        <v>45.401820000000001</v>
+      </c>
+      <c r="J98">
+        <v>-75.64873</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="17.25">
       <c r="A99" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E99" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="F99" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="G99" s="1">
-        <v>211</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K99" t="s">
-        <v>17</v>
+        <v>386</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C99" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E99" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="F99" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="G99" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="H99" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="I99">
+        <v>45.432119999999998</v>
+      </c>
+      <c r="J99">
+        <v>-75.696269999999998</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="18">
       <c r="A100" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="5" t="s">
-        <v>12</v>
+        <v>386</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="F100" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="G100" s="1">
-        <v>811</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K100" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="18">
+        <v>452</v>
+      </c>
+      <c r="F100" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="G100" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="H100" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="I100">
+        <v>44.224400000000003</v>
+      </c>
+      <c r="J100">
+        <v>-76.492149999999995</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="17.25">
       <c r="A101" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="F101" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="G101" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K101" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="18">
+        <v>386</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C101" s="17" t="s">
+        <v>457</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E101" s="17" t="s">
+        <v>458</v>
+      </c>
+      <c r="F101" s="17" t="s">
+        <v>459</v>
+      </c>
+      <c r="G101" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="H101" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="I101">
+        <v>43.262560000000001</v>
+      </c>
+      <c r="J101">
+        <v>-79.852990000000005</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="17.25">
       <c r="A102" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="F102" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="G102" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="K102" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="18">
+        <v>386</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C102" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E102" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="F102" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="G102" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="H102" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="I102">
+        <v>42.961289999999998</v>
+      </c>
+      <c r="J102">
+        <v>-81.225300000000004</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="17.25">
       <c r="A103" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E103" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="F103" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="G103" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K103" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" ht="18">
+        <v>386</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C103" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E103" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="F103" s="17" t="s">
+        <v>471</v>
+      </c>
+      <c r="G103" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="H103" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="I103">
+        <v>43.558709999999998</v>
+      </c>
+      <c r="J103">
+        <v>-79.703159999999997</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="17.25">
       <c r="A104" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="F104" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="G104" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K104" t="s">
-        <v>17</v>
+        <v>386</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C104" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E104" s="17" t="s">
+        <v>476</v>
+      </c>
+      <c r="F104" s="17" t="s">
+        <v>477</v>
+      </c>
+      <c r="G104" s="17" t="s">
+        <v>478</v>
+      </c>
+      <c r="H104" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="I104">
+        <v>46.468000000000004</v>
+      </c>
+      <c r="J104">
+        <v>-80.996840000000006</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="18">
       <c r="A105" s="1" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>426</v>
+        <v>480</v>
+      </c>
+      <c r="C105" s="17" t="s">
+        <v>481</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E105" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="F105" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>430</v>
+      <c r="E105" s="17" t="s">
+        <v>482</v>
+      </c>
+      <c r="F105" s="17" t="s">
+        <v>483</v>
+      </c>
+      <c r="G105" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="H105" s="13" t="s">
+        <v>485</v>
       </c>
       <c r="I105">
-        <v>44.662269999999999</v>
+        <v>44.415990000000001</v>
       </c>
       <c r="J105">
-        <v>-63.510300000000001</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" ht="18">
+        <v>-79.659509999999997</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="17.25">
       <c r="A106" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E106" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="F106" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="G106" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="K106" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" ht="18">
+        <v>386</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E106" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="F106" s="17" t="s">
+        <v>489</v>
+      </c>
+      <c r="G106" s="17" t="s">
+        <v>490</v>
+      </c>
+      <c r="H106" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="I106">
+        <v>48.754269999999998</v>
+      </c>
+      <c r="J106">
+        <v>-91.596860000000007</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="17.25">
       <c r="A107" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="F107" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="G107" s="1"/>
-      <c r="H107" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="K107" t="s">
-        <v>17</v>
+        <v>386</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E107" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="F107" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="G107" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="H107" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="I107">
+        <v>48.487520000000004</v>
+      </c>
+      <c r="J107">
+        <v>-81.312809999999999</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="18">
       <c r="A108" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="D108" s="15" t="s">
-        <v>36</v>
+        <v>498</v>
+      </c>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>438</v>
+        <v>499</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="G108" s="1"/>
+        <v>500</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>501</v>
+      </c>
       <c r="H108" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="I108">
-        <v>46.231630000000003</v>
-      </c>
-      <c r="J108">
-        <v>-63.135429999999999</v>
+        <v>502</v>
+      </c>
+      <c r="K108" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="18">
       <c r="A109" s="1" t="s">
-        <v>431</v>
+        <v>498</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
-      <c r="D109" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>440</v>
+      <c r="D109" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>503</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>441</v>
+        <v>504</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>442</v>
+        <v>505</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>434</v>
+        <v>506</v>
       </c>
       <c r="K109" t="s">
         <v>17</v>
@@ -4973,7 +5646,7 @@
     </row>
     <row r="110" spans="1:11" ht="18">
       <c r="A110" s="1" t="s">
-        <v>431</v>
+        <v>498</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -4981,16 +5654,14 @@
         <v>12</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>443</v>
+        <v>507</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="G110" s="9" t="s">
-        <v>445</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="G110" s="1"/>
       <c r="H110" s="2" t="s">
-        <v>446</v>
+        <v>509</v>
       </c>
       <c r="K110" t="s">
         <v>17</v>
@@ -4998,137 +5669,156 @@
     </row>
     <row r="111" spans="1:11" ht="18">
       <c r="A111" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E111" s="10">
-        <v>39699</v>
+        <v>498</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>512</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="G111" s="1">
-        <v>988</v>
+        <v>513</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>514</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="K111" t="s">
-        <v>17</v>
+        <v>515</v>
+      </c>
+      <c r="I111">
+        <v>45.442189999999997</v>
+      </c>
+      <c r="J111">
+        <v>-73.584199999999996</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="18">
       <c r="A112" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="16" t="s">
-        <v>26</v>
+        <v>498</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F112" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="G112" s="9" t="s">
-        <v>29</v>
+        <v>517</v>
+      </c>
+      <c r="F112" s="1"/>
+      <c r="G112" s="2" t="s">
+        <v>518</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="K112" t="s">
-        <v>17</v>
+        <v>519</v>
+      </c>
+      <c r="I112">
+        <v>45.58878</v>
+      </c>
+      <c r="J112">
+        <v>-73.528620000000004</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="18">
       <c r="A113" s="1" t="s">
-        <v>431</v>
+        <v>498</v>
       </c>
       <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
+      <c r="C113" s="1" t="s">
+        <v>520</v>
+      </c>
       <c r="D113" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E113" s="9" t="s">
-        <v>241</v>
+        <v>36</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>521</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>451</v>
+        <v>522</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="H113" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="K113" t="s">
-        <v>17</v>
+        <v>523</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="I113">
+        <v>45.488190000000003</v>
+      </c>
+      <c r="J113">
+        <v>-73.638499999999993</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="18">
       <c r="A114" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
+        <v>498</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>525</v>
+      </c>
       <c r="D114" s="15" t="s">
         <v>36</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>453</v>
+        <v>526</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>454</v>
-      </c>
-      <c r="G114" s="1"/>
+        <v>527</v>
+      </c>
+      <c r="G114" s="9" t="s">
+        <v>528</v>
+      </c>
       <c r="H114" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="K114" t="s">
-        <v>17</v>
+        <v>529</v>
+      </c>
+      <c r="I114">
+        <v>45.577219999999997</v>
+      </c>
+      <c r="J114">
+        <v>-73.653369999999995</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="18">
       <c r="A115" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>45</v>
+        <v>498</v>
+      </c>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>457</v>
+        <v>530</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>458</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>459</v>
+        <v>531</v>
+      </c>
+      <c r="G115" s="9" t="s">
+        <v>532</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="I115">
-        <v>46.45167</v>
-      </c>
-      <c r="J115">
-        <v>-62.599679999999999</v>
+        <v>533</v>
+      </c>
+      <c r="K115" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="18">
       <c r="A116" s="1" t="s">
-        <v>461</v>
+        <v>534</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -5136,16 +5826,16 @@
         <v>12</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>462</v>
+        <v>535</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="G116" s="1">
-        <v>811</v>
+        <v>536</v>
+      </c>
+      <c r="G116" s="9" t="s">
+        <v>535</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>464</v>
+        <v>537</v>
       </c>
       <c r="K116" t="s">
         <v>17</v>
@@ -5153,7 +5843,7 @@
     </row>
     <row r="117" spans="1:11" ht="18">
       <c r="A117" s="1" t="s">
-        <v>461</v>
+        <v>534</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -5161,16 +5851,16 @@
         <v>12</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>465</v>
+        <v>299</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="G117" s="9" t="s">
-        <v>465</v>
+        <v>538</v>
+      </c>
+      <c r="G117" s="1">
+        <v>988</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>467</v>
+        <v>539</v>
       </c>
       <c r="K117" t="s">
         <v>17</v>
@@ -5178,25 +5868,24 @@
     </row>
     <row r="118" spans="1:11" ht="18">
       <c r="A118" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B118" t="s">
-        <v>468</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
       <c r="D118" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E118" s="5" t="s">
-        <v>469</v>
+      <c r="E118" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>470</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>471</v>
+        <v>541</v>
+      </c>
+      <c r="G118" s="1">
+        <v>911</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>472</v>
+        <v>542</v>
       </c>
       <c r="K118" t="s">
         <v>17</v>
@@ -5204,54 +5893,45 @@
     </row>
     <row r="119" spans="1:11" ht="18">
       <c r="A119" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B119" t="s">
-        <v>468</v>
-      </c>
-      <c r="C119" s="9" t="s">
-        <v>473</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E119" s="9" t="s">
-        <v>474</v>
+        <v>534</v>
+      </c>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>543</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="G119" s="1"/>
-      <c r="H119" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="I119">
-        <v>47.529060000000001</v>
-      </c>
-      <c r="J119">
-        <v>-52.748820000000002</v>
+        <v>544</v>
+      </c>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="K119" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="18">
       <c r="A120" s="1" t="s">
-        <v>461</v>
+        <v>534</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E120" s="9" t="s">
-        <v>477</v>
+      <c r="E120" s="5" t="s">
+        <v>546</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="G120" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>479</v>
+        <v>547</v>
+      </c>
+      <c r="G120" s="1"/>
+      <c r="H120" s="9" t="s">
+        <v>548</v>
       </c>
       <c r="K120" t="s">
         <v>17</v>
@@ -5259,76 +5939,857 @@
     </row>
     <row r="121" spans="1:11" ht="18">
       <c r="A121" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="5" t="s">
-        <v>12</v>
+        <v>534</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D121" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>480</v>
+        <v>551</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>481</v>
-      </c>
-      <c r="G121" s="9" t="s">
-        <v>482</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="K121" t="s">
-        <v>17</v>
+        <v>552</v>
+      </c>
+      <c r="G121" s="1"/>
+      <c r="H121" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="I121">
+        <v>46.194569999999999</v>
+      </c>
+      <c r="J121">
+        <v>-66.326549999999997</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="18">
       <c r="A122" s="1" t="s">
-        <v>461</v>
+        <v>534</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E122" s="9" t="s">
-        <v>484</v>
+      <c r="E122" s="5" t="s">
+        <v>554</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="G122" s="9" t="s">
-        <v>486</v>
-      </c>
+        <v>555</v>
+      </c>
+      <c r="G122" s="1"/>
       <c r="H122" s="2" t="s">
-        <v>483</v>
+        <v>556</v>
       </c>
       <c r="K122" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="30.75">
+    <row r="123" spans="1:11" ht="18">
       <c r="A123" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="15" t="s">
+        <v>534</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="F123" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="I123">
+        <v>45.25441</v>
+      </c>
+      <c r="J123">
+        <v>-66.126549999999995</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="18">
+      <c r="A124" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E124" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F124" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="G124" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="K124" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="18">
+      <c r="A125" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E123" s="5" t="s">
+      <c r="E125" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="F123" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="G123" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="H123" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="K123" t="s">
+      <c r="F125" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="G125" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="K125" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="18">
+      <c r="A126" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E126" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="F126" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="G126" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="K126" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="18">
+      <c r="A127" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="G127" s="1">
+        <v>988</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="K127" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="18">
+      <c r="A128" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E128" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="F128" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="G128" s="1">
+        <v>911</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="K128" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="18">
+      <c r="A129" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E129" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="F129" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="G129" s="1">
+        <v>211</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="K129" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="18">
+      <c r="A130" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E130" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="F130" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="G130" s="1">
+        <v>811</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="K130" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" ht="18">
+      <c r="A131" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E131" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G131" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="K131" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="18">
+      <c r="A132" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="F132" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="G132" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="K132" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="18">
+      <c r="A133" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E133" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="G133" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="K133" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="18">
+      <c r="A134" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="F134" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="G134" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="K134" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="18">
+      <c r="A135" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E135" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="F135" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="I135">
+        <v>44.662269999999999</v>
+      </c>
+      <c r="J135">
+        <v>-63.510300000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" ht="18">
+      <c r="A136" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="F136" s="9" t="s">
+        <v>599</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="K136" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" ht="18">
+      <c r="A137" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="G137" s="1"/>
+      <c r="H137" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="K137" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" ht="18">
+      <c r="A138" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D138" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E138" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="F138" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="G138" s="1"/>
+      <c r="H138" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="I138">
+        <v>46.231630000000003</v>
+      </c>
+      <c r="J138">
+        <v>-63.135429999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" ht="18">
+      <c r="A139" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="F139" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="G139" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="K139" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" ht="18">
+      <c r="A140" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="F140" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="G140" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="K140" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" ht="18">
+      <c r="A141" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E141" s="10">
+        <v>39699</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="G141" s="1">
+        <v>988</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="K141" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" ht="18">
+      <c r="A142" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E142" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F142" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="G142" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="K142" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" ht="18">
+      <c r="A143" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E143" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="F143" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="G143" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="H143" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="K143" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" ht="18">
+      <c r="A144" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E144" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="F144" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="G144" s="1"/>
+      <c r="H144" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="K144" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" ht="18">
+      <c r="A145" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E145" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="F145" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="I145">
+        <v>46.45167</v>
+      </c>
+      <c r="J145">
+        <v>-62.599679999999999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" ht="18">
+      <c r="A146" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E146" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="F146" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="G146" s="1">
+        <v>811</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="K146" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" ht="18">
+      <c r="A147" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E147" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="F147" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="G147" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="K147" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" ht="18">
+      <c r="A148" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B148" t="s">
+        <v>634</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="F148" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="K148" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" ht="18">
+      <c r="A149" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B149" t="s">
+        <v>634</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E149" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="F149" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="G149" s="1"/>
+      <c r="H149" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="I149">
+        <v>47.529060000000001</v>
+      </c>
+      <c r="J149">
+        <v>-52.748820000000002</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="18">
+      <c r="A150" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E150" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="F150" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="G150" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="K150" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" ht="18">
+      <c r="A151" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E151" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="F151" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="G151" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="K151" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" ht="18">
+      <c r="A152" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E152" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="F152" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="G152" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="K152" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" ht="30.75">
+      <c r="A153" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="F153" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="G153" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="H153" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="K153" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5345,73 +6806,103 @@
     <hyperlink ref="H55" r:id="rId9" xr:uid="{EB8FF160-EB55-443D-A6DD-793F1839464E}"/>
     <hyperlink ref="H56" r:id="rId10" xr:uid="{B09A5FF5-5D41-4240-8D2A-6F0B1643B415}"/>
     <hyperlink ref="G56" r:id="rId11" xr:uid="{0BA7FFA1-ED06-4618-8C42-2876721C8843}"/>
-    <hyperlink ref="H59" r:id="rId12" xr:uid="{628110EB-432A-42FF-B260-6607AA6A6781}"/>
-    <hyperlink ref="H58" r:id="rId13" xr:uid="{23358601-B2E9-4118-8D5F-397F1AF69849}"/>
-    <hyperlink ref="H60" r:id="rId14" xr:uid="{87652C1F-8B16-4D65-960D-D2CF7390080F}"/>
-    <hyperlink ref="H61" r:id="rId15" xr:uid="{9D1CC37C-97D9-498D-A7DB-E29338B54213}"/>
-    <hyperlink ref="H62" r:id="rId16" xr:uid="{B3D6B2A6-BB78-40B9-B990-89A2CE2DA5BA}"/>
-    <hyperlink ref="H63" r:id="rId17" xr:uid="{94D3C27F-0CCF-4C6F-B482-BBC7E016C605}"/>
-    <hyperlink ref="H64" r:id="rId18" xr:uid="{447F398C-BE7D-4636-A497-645A4CB73CA0}"/>
-    <hyperlink ref="H65" r:id="rId19" xr:uid="{9AD01CFA-96B4-46DC-A604-DEFFF1DAADE1}"/>
-    <hyperlink ref="H66" r:id="rId20" xr:uid="{B0C50439-DBB8-4538-A68F-5544E89033FA}"/>
-    <hyperlink ref="H67" r:id="rId21" xr:uid="{0236DDF4-8A3C-43C4-A0F7-6F760DBC070B}"/>
-    <hyperlink ref="H68" r:id="rId22" xr:uid="{3DE0A6C8-C0F9-49AF-8927-C81F0CB4522A}"/>
-    <hyperlink ref="H69" r:id="rId23" xr:uid="{A8859254-DF3E-4954-BD35-2B39624AB51A}"/>
-    <hyperlink ref="H70" r:id="rId24" xr:uid="{BC85AE09-90E5-4F56-BA21-361C64062B0A}"/>
-    <hyperlink ref="H71" r:id="rId25" xr:uid="{1A2B4584-6875-45C6-AB14-B985F467B320}"/>
-    <hyperlink ref="H72" r:id="rId26" xr:uid="{CBABF045-EE47-442B-95F6-394E5893770C}"/>
-    <hyperlink ref="H73" r:id="rId27" xr:uid="{0B219907-9711-4EED-A32D-47E3A2FD96AD}"/>
-    <hyperlink ref="H74" r:id="rId28" xr:uid="{84AFC162-EB8E-456A-A423-FA05C8906F62}"/>
-    <hyperlink ref="H75" r:id="rId29" xr:uid="{4A434D25-C681-4244-A773-600C1B5A9AA4}"/>
-    <hyperlink ref="H76" r:id="rId30" xr:uid="{CF81BECF-6B14-4105-BC55-E7FF2CAEB433}"/>
-    <hyperlink ref="H78" r:id="rId31" xr:uid="{A0F20107-18D0-4131-9A5C-61D3726902D9}"/>
-    <hyperlink ref="H77" r:id="rId32" xr:uid="{052FAB8F-0420-4627-AE87-8288A48F3C70}"/>
-    <hyperlink ref="H79" r:id="rId33" xr:uid="{655CFF90-3D6C-43B9-9D21-10202EA4E0C0}"/>
-    <hyperlink ref="H80" r:id="rId34" xr:uid="{096C7111-82D9-4A6E-ADBD-801BAD893077}"/>
-    <hyperlink ref="G81" r:id="rId35" xr:uid="{55F21E9C-C755-4728-8C66-A865575B1391}"/>
-    <hyperlink ref="H81" r:id="rId36" xr:uid="{8FA4C36B-5195-46EA-9544-7D8C8F0B67EB}"/>
-    <hyperlink ref="G82" r:id="rId37" xr:uid="{C802B139-64F7-4ED3-B49F-AB7F10048303}"/>
-    <hyperlink ref="H82" r:id="rId38" xr:uid="{2FA47A89-5FF1-4C14-9F15-C78CE8CDD967}"/>
-    <hyperlink ref="H83" r:id="rId39" xr:uid="{8B3DB364-8D50-41D0-A3ED-15D47E7C59C9}"/>
-    <hyperlink ref="H84" r:id="rId40" xr:uid="{7ADA8415-2326-40FD-A951-098C518EA883}"/>
-    <hyperlink ref="H85" r:id="rId41" xr:uid="{ED4B6256-754C-475F-BAE4-3E66DF192B7A}"/>
-    <hyperlink ref="H86" r:id="rId42" xr:uid="{5B2EF92A-7F5B-4A34-B686-0F71150919AA}"/>
-    <hyperlink ref="H87" r:id="rId43" xr:uid="{50858415-ED52-4A36-9180-89CDBF444839}"/>
-    <hyperlink ref="H88" r:id="rId44" xr:uid="{0F19C44E-E5C6-4851-84AC-A4BE3616EF70}"/>
-    <hyperlink ref="H92" r:id="rId45" xr:uid="{44813E4A-D65F-434E-856D-7BC7B9B0666C}"/>
-    <hyperlink ref="G93" r:id="rId46" xr:uid="{56A678BB-2E71-4C1C-A863-B9A4C9058283}"/>
-    <hyperlink ref="H93" r:id="rId47" xr:uid="{BABD7A1B-396E-44AF-83DF-9DA093E17DF5}"/>
-    <hyperlink ref="H94" r:id="rId48" xr:uid="{4EB2D67A-6777-4E85-8370-0331D6244F47}"/>
-    <hyperlink ref="H95" r:id="rId49" xr:uid="{92785F75-59D0-465A-B09F-81654C38D2E9}"/>
-    <hyperlink ref="H96" r:id="rId50" xr:uid="{75BD6DCD-2E7E-42FB-A8A3-DB1AEB06B81A}"/>
-    <hyperlink ref="H97" r:id="rId51" xr:uid="{35A6A3E6-51C9-4EEA-B3DE-33032898FCD2}"/>
-    <hyperlink ref="H98" r:id="rId52" xr:uid="{0839D5DF-D99E-4F25-B862-6FD3FF122498}"/>
-    <hyperlink ref="H99" r:id="rId53" xr:uid="{DE0BA959-158A-4A76-827D-8B2DFB12CECC}"/>
-    <hyperlink ref="H100" r:id="rId54" xr:uid="{17C1766C-8707-46C1-B2E3-638C3FEAB84E}"/>
-    <hyperlink ref="H101" r:id="rId55" xr:uid="{F655D19A-A891-42FD-B3A3-3582F9EB3FCC}"/>
-    <hyperlink ref="H102" r:id="rId56" xr:uid="{0AA56572-F267-4947-8959-D24785097602}"/>
-    <hyperlink ref="H103" r:id="rId57" xr:uid="{D39B20F6-0D20-4207-A7D6-03233245BF14}"/>
-    <hyperlink ref="H104" r:id="rId58" xr:uid="{9D0BE197-B05A-450E-A8A9-EC003ECF2B76}"/>
-    <hyperlink ref="H105" r:id="rId59" xr:uid="{25A578F7-FF23-4235-9320-0017FC66B6CF}"/>
-    <hyperlink ref="G105" r:id="rId60" xr:uid="{0D88C6F8-33E4-4583-B1CF-F67D1D58AFA9}"/>
-    <hyperlink ref="H106" r:id="rId61" xr:uid="{D1D317DC-896D-4605-84D0-51C184E8170A}"/>
-    <hyperlink ref="H107" r:id="rId62" xr:uid="{115FEE2D-FCE0-463C-AE6D-08EF2B3229E7}"/>
-    <hyperlink ref="H108" r:id="rId63" xr:uid="{A53556A5-6758-41AB-A1B1-2E9CFF5B6391}"/>
-    <hyperlink ref="H109" r:id="rId64" xr:uid="{58D6F27A-C105-4B36-946E-FC9921346AA9}"/>
-    <hyperlink ref="H110" r:id="rId65" xr:uid="{1B38FBC7-F211-45E3-82E1-79FEC82E7161}"/>
-    <hyperlink ref="H111" r:id="rId66" xr:uid="{E512F4C3-0EE1-4C25-BB22-74863E10C4A4}"/>
-    <hyperlink ref="H112" r:id="rId67" xr:uid="{3EDF19AF-3A73-4B00-B5EF-5A8E0C4276F4}"/>
-    <hyperlink ref="H114" r:id="rId68" xr:uid="{89F82A50-2F80-4004-93D4-47BE44571414}"/>
-    <hyperlink ref="G115" r:id="rId69" xr:uid="{4F58A876-2211-4B82-B7B6-5EB1F792FDB6}"/>
-    <hyperlink ref="H115" r:id="rId70" xr:uid="{F82D4FF5-03BE-4658-A031-257C8DCA4239}"/>
-    <hyperlink ref="H116" r:id="rId71" xr:uid="{D0306E84-F1FD-45BF-A95C-4E40257C887B}"/>
-    <hyperlink ref="H117" r:id="rId72" xr:uid="{9335F234-6020-4A6A-94A4-39EAD720A890}"/>
-    <hyperlink ref="H118" r:id="rId73" xr:uid="{21CB1893-1EAB-416A-892F-A5A7FC989675}"/>
-    <hyperlink ref="H119" r:id="rId74" xr:uid="{C11C02C8-A230-4B86-89F9-34A4B3C4B3A9}"/>
-    <hyperlink ref="H120" r:id="rId75" xr:uid="{640B7CB8-9A40-4BC8-A265-81441E63BE92}"/>
-    <hyperlink ref="H121" r:id="rId76" xr:uid="{16BE2CA2-53E7-4277-8D20-4381F5F57EF9}"/>
-    <hyperlink ref="H122" r:id="rId77" xr:uid="{AE86639D-D374-4793-9C2B-20096C40C962}"/>
+    <hyperlink ref="H67" r:id="rId12" xr:uid="{628110EB-432A-42FF-B260-6607AA6A6781}"/>
+    <hyperlink ref="H66" r:id="rId13" xr:uid="{23358601-B2E9-4118-8D5F-397F1AF69849}"/>
+    <hyperlink ref="H68" r:id="rId14" xr:uid="{87652C1F-8B16-4D65-960D-D2CF7390080F}"/>
+    <hyperlink ref="H69" r:id="rId15" xr:uid="{9D1CC37C-97D9-498D-A7DB-E29338B54213}"/>
+    <hyperlink ref="H70" r:id="rId16" xr:uid="{B3D6B2A6-BB78-40B9-B990-89A2CE2DA5BA}"/>
+    <hyperlink ref="H71" r:id="rId17" xr:uid="{94D3C27F-0CCF-4C6F-B482-BBC7E016C605}"/>
+    <hyperlink ref="H72" r:id="rId18" xr:uid="{447F398C-BE7D-4636-A497-645A4CB73CA0}"/>
+    <hyperlink ref="H73" r:id="rId19" xr:uid="{9AD01CFA-96B4-46DC-A604-DEFFF1DAADE1}"/>
+    <hyperlink ref="H74" r:id="rId20" xr:uid="{B0C50439-DBB8-4538-A68F-5544E89033FA}"/>
+    <hyperlink ref="H75" r:id="rId21" xr:uid="{0236DDF4-8A3C-43C4-A0F7-6F760DBC070B}"/>
+    <hyperlink ref="H85" r:id="rId22" xr:uid="{3DE0A6C8-C0F9-49AF-8927-C81F0CB4522A}"/>
+    <hyperlink ref="H86" r:id="rId23" xr:uid="{A8859254-DF3E-4954-BD35-2B39624AB51A}"/>
+    <hyperlink ref="H87" r:id="rId24" xr:uid="{BC85AE09-90E5-4F56-BA21-361C64062B0A}"/>
+    <hyperlink ref="H88" r:id="rId25" xr:uid="{1A2B4584-6875-45C6-AB14-B985F467B320}"/>
+    <hyperlink ref="H89" r:id="rId26" xr:uid="{CBABF045-EE47-442B-95F6-394E5893770C}"/>
+    <hyperlink ref="H90" r:id="rId27" xr:uid="{0B219907-9711-4EED-A32D-47E3A2FD96AD}"/>
+    <hyperlink ref="H91" r:id="rId28" xr:uid="{84AFC162-EB8E-456A-A423-FA05C8906F62}"/>
+    <hyperlink ref="H92" r:id="rId29" xr:uid="{4A434D25-C681-4244-A773-600C1B5A9AA4}"/>
+    <hyperlink ref="H93" r:id="rId30" xr:uid="{CF81BECF-6B14-4105-BC55-E7FF2CAEB433}"/>
+    <hyperlink ref="H108" r:id="rId31" xr:uid="{A0F20107-18D0-4131-9A5C-61D3726902D9}"/>
+    <hyperlink ref="H94" r:id="rId32" xr:uid="{052FAB8F-0420-4627-AE87-8288A48F3C70}"/>
+    <hyperlink ref="H109" r:id="rId33" xr:uid="{655CFF90-3D6C-43B9-9D21-10202EA4E0C0}"/>
+    <hyperlink ref="H110" r:id="rId34" xr:uid="{096C7111-82D9-4A6E-ADBD-801BAD893077}"/>
+    <hyperlink ref="G111" r:id="rId35" xr:uid="{55F21E9C-C755-4728-8C66-A865575B1391}"/>
+    <hyperlink ref="H111" r:id="rId36" xr:uid="{8FA4C36B-5195-46EA-9544-7D8C8F0B67EB}"/>
+    <hyperlink ref="G112" r:id="rId37" xr:uid="{C802B139-64F7-4ED3-B49F-AB7F10048303}"/>
+    <hyperlink ref="H112" r:id="rId38" xr:uid="{2FA47A89-5FF1-4C14-9F15-C78CE8CDD967}"/>
+    <hyperlink ref="H113" r:id="rId39" xr:uid="{8B3DB364-8D50-41D0-A3ED-15D47E7C59C9}"/>
+    <hyperlink ref="H114" r:id="rId40" xr:uid="{7ADA8415-2326-40FD-A951-098C518EA883}"/>
+    <hyperlink ref="H115" r:id="rId41" xr:uid="{ED4B6256-754C-475F-BAE4-3E66DF192B7A}"/>
+    <hyperlink ref="H116" r:id="rId42" xr:uid="{5B2EF92A-7F5B-4A34-B686-0F71150919AA}"/>
+    <hyperlink ref="H117" r:id="rId43" xr:uid="{50858415-ED52-4A36-9180-89CDBF444839}"/>
+    <hyperlink ref="H118" r:id="rId44" xr:uid="{0F19C44E-E5C6-4851-84AC-A4BE3616EF70}"/>
+    <hyperlink ref="H122" r:id="rId45" xr:uid="{44813E4A-D65F-434E-856D-7BC7B9B0666C}"/>
+    <hyperlink ref="G123" r:id="rId46" xr:uid="{56A678BB-2E71-4C1C-A863-B9A4C9058283}"/>
+    <hyperlink ref="H123" r:id="rId47" xr:uid="{BABD7A1B-396E-44AF-83DF-9DA093E17DF5}"/>
+    <hyperlink ref="H124" r:id="rId48" xr:uid="{4EB2D67A-6777-4E85-8370-0331D6244F47}"/>
+    <hyperlink ref="H125" r:id="rId49" xr:uid="{92785F75-59D0-465A-B09F-81654C38D2E9}"/>
+    <hyperlink ref="H126" r:id="rId50" xr:uid="{75BD6DCD-2E7E-42FB-A8A3-DB1AEB06B81A}"/>
+    <hyperlink ref="H127" r:id="rId51" xr:uid="{35A6A3E6-51C9-4EEA-B3DE-33032898FCD2}"/>
+    <hyperlink ref="H128" r:id="rId52" xr:uid="{0839D5DF-D99E-4F25-B862-6FD3FF122498}"/>
+    <hyperlink ref="H129" r:id="rId53" xr:uid="{DE0BA959-158A-4A76-827D-8B2DFB12CECC}"/>
+    <hyperlink ref="H130" r:id="rId54" xr:uid="{17C1766C-8707-46C1-B2E3-638C3FEAB84E}"/>
+    <hyperlink ref="H131" r:id="rId55" xr:uid="{F655D19A-A891-42FD-B3A3-3582F9EB3FCC}"/>
+    <hyperlink ref="H132" r:id="rId56" xr:uid="{0AA56572-F267-4947-8959-D24785097602}"/>
+    <hyperlink ref="H133" r:id="rId57" xr:uid="{D39B20F6-0D20-4207-A7D6-03233245BF14}"/>
+    <hyperlink ref="H134" r:id="rId58" xr:uid="{9D0BE197-B05A-450E-A8A9-EC003ECF2B76}"/>
+    <hyperlink ref="H135" r:id="rId59" xr:uid="{25A578F7-FF23-4235-9320-0017FC66B6CF}"/>
+    <hyperlink ref="G135" r:id="rId60" xr:uid="{0D88C6F8-33E4-4583-B1CF-F67D1D58AFA9}"/>
+    <hyperlink ref="H136" r:id="rId61" xr:uid="{D1D317DC-896D-4605-84D0-51C184E8170A}"/>
+    <hyperlink ref="H137" r:id="rId62" xr:uid="{115FEE2D-FCE0-463C-AE6D-08EF2B3229E7}"/>
+    <hyperlink ref="H138" r:id="rId63" xr:uid="{A53556A5-6758-41AB-A1B1-2E9CFF5B6391}"/>
+    <hyperlink ref="H139" r:id="rId64" xr:uid="{58D6F27A-C105-4B36-946E-FC9921346AA9}"/>
+    <hyperlink ref="H140" r:id="rId65" xr:uid="{1B38FBC7-F211-45E3-82E1-79FEC82E7161}"/>
+    <hyperlink ref="H141" r:id="rId66" xr:uid="{E512F4C3-0EE1-4C25-BB22-74863E10C4A4}"/>
+    <hyperlink ref="H142" r:id="rId67" xr:uid="{3EDF19AF-3A73-4B00-B5EF-5A8E0C4276F4}"/>
+    <hyperlink ref="H144" r:id="rId68" xr:uid="{89F82A50-2F80-4004-93D4-47BE44571414}"/>
+    <hyperlink ref="G145" r:id="rId69" xr:uid="{4F58A876-2211-4B82-B7B6-5EB1F792FDB6}"/>
+    <hyperlink ref="H145" r:id="rId70" xr:uid="{F82D4FF5-03BE-4658-A031-257C8DCA4239}"/>
+    <hyperlink ref="H146" r:id="rId71" xr:uid="{D0306E84-F1FD-45BF-A95C-4E40257C887B}"/>
+    <hyperlink ref="H147" r:id="rId72" xr:uid="{9335F234-6020-4A6A-94A4-39EAD720A890}"/>
+    <hyperlink ref="H148" r:id="rId73" xr:uid="{21CB1893-1EAB-416A-892F-A5A7FC989675}"/>
+    <hyperlink ref="H149" r:id="rId74" xr:uid="{C11C02C8-A230-4B86-89F9-34A4B3C4B3A9}"/>
+    <hyperlink ref="H150" r:id="rId75" xr:uid="{640B7CB8-9A40-4BC8-A265-81441E63BE92}"/>
+    <hyperlink ref="H151" r:id="rId76" xr:uid="{16BE2CA2-53E7-4277-8D20-4381F5F57EF9}"/>
+    <hyperlink ref="H152" r:id="rId77" xr:uid="{AE86639D-D374-4793-9C2B-20096C40C962}"/>
     <hyperlink ref="G8" r:id="rId78" xr:uid="{E742C719-BE50-4F2B-A446-09FE206F59FD}"/>
+    <hyperlink ref="H95" r:id="rId79" xr:uid="{D22F333E-6B2E-462E-8473-09059923163D}"/>
+    <hyperlink ref="H96" r:id="rId80" xr:uid="{5E407717-3197-47C0-9715-217775EBACF6}"/>
+    <hyperlink ref="H97" r:id="rId81" xr:uid="{ADBAFAB0-0224-4F6E-82F2-03B76E2FC02A}"/>
+    <hyperlink ref="H98" r:id="rId82" xr:uid="{AE8C881C-F2E9-4F66-AC47-B442700B2C18}"/>
+    <hyperlink ref="H99" r:id="rId83" xr:uid="{ABD7CF64-37E7-4D5B-ADB4-BCBAE393B53C}"/>
+    <hyperlink ref="H100" r:id="rId84" xr:uid="{81490DBC-EF4F-43A8-9CC3-75BC1CC70041}"/>
+    <hyperlink ref="H101" r:id="rId85" xr:uid="{A280F50F-954D-41A4-B175-630E2F8F7AAE}"/>
+    <hyperlink ref="H102" r:id="rId86" xr:uid="{FE7BF1AF-C2BC-4223-ACD3-6C5B5C1ACF5C}"/>
+    <hyperlink ref="H103" r:id="rId87" xr:uid="{0550BB2F-1786-4D5D-989D-8385AF18525F}"/>
+    <hyperlink ref="H104" r:id="rId88" xr:uid="{08BB6ADE-01EA-4758-9D2F-B3A203D7EE69}"/>
+    <hyperlink ref="H105" r:id="rId89" xr:uid="{419F2576-0BD3-470C-800E-656C2AF03CB2}"/>
+    <hyperlink ref="H106" r:id="rId90" xr:uid="{305EF59C-3CEA-4C7F-BBD8-F78E6A430F48}"/>
+    <hyperlink ref="H107" r:id="rId91" xr:uid="{8B3E0728-0173-483F-97A3-27ECDBA4D4D7}"/>
+    <hyperlink ref="H76" r:id="rId92" xr:uid="{49A711D6-C2C8-4C84-99F7-30A6871B0C36}"/>
+    <hyperlink ref="H77" r:id="rId93" xr:uid="{E19C6151-B9CB-4C95-B309-BB7205C1B4A6}"/>
+    <hyperlink ref="H78" r:id="rId94" xr:uid="{0BF33B14-4038-440D-9F5F-1ECF52B857AC}"/>
+    <hyperlink ref="H79" r:id="rId95" location=".XSdr3flKhGM" xr:uid="{7E7CCC6D-D93F-48E8-B6D0-C1F081CBD446}"/>
+    <hyperlink ref="H80" r:id="rId96" xr:uid="{E8AF3653-664F-42FE-AA76-4721C48B39BD}"/>
+    <hyperlink ref="H81" r:id="rId97" xr:uid="{ACF0DB63-4AC0-48F4-BDFA-DBD13E6D324C}"/>
+    <hyperlink ref="H82" r:id="rId98" xr:uid="{7FC94FE2-963E-4784-958D-266A89ACB295}"/>
+    <hyperlink ref="H83" r:id="rId99" xr:uid="{9B1F6FBE-FDCD-4DA4-9AEE-557212C69178}"/>
+    <hyperlink ref="H84" r:id="rId100" xr:uid="{1B26F309-EF93-4AB1-8005-ABCA27C4E910}"/>
+    <hyperlink ref="H58" r:id="rId101" xr:uid="{C9DE94E2-86B7-42F4-88B7-DF5AED6646EF}"/>
+    <hyperlink ref="H59" r:id="rId102" xr:uid="{A583E38B-7128-4359-ACC8-8193E6242AA0}"/>
+    <hyperlink ref="H60" r:id="rId103" xr:uid="{5E286D42-7835-4064-BEBF-F2CE15DC5853}"/>
+    <hyperlink ref="H61" r:id="rId104" xr:uid="{DE90B924-10F6-4A21-8F33-510BB9868C52}"/>
+    <hyperlink ref="H62" r:id="rId105" xr:uid="{ABDABD2E-09AC-4561-82CA-7D9DD58111F1}"/>
+    <hyperlink ref="H63" r:id="rId106" xr:uid="{B442E89A-EC9B-4ECB-87C7-2C2244E59EBC}"/>
+    <hyperlink ref="H64" r:id="rId107" xr:uid="{C3C976CD-1869-46C4-BCCA-0B261A8272FD}"/>
+    <hyperlink ref="H65" r:id="rId108" xr:uid="{BDBFBA04-C3F5-49E3-A03E-7A400D4278D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/canadianMentalHealthResources.xlsx
+++ b/assets/canadianMentalHealthResources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://queensuca-my.sharepoint.com/personal/23nrd2_queensu_ca/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CEFDB21-0B4B-4144-B833-9360189A904F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA43D6BE-5F28-4BD0-82D5-BBB14C904E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16980" xr2:uid="{60D886F8-FFE1-F14E-A3CB-AFDAAB1FA1C7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="660">
   <si>
     <t>Province</t>
   </si>
@@ -2060,6 +2060,21 @@
   </si>
   <si>
     <t>1-800-668-6868 or text “CONNECT” to 686868</t>
+  </si>
+  <si>
+    <t>552 Princess Street, Kingston, ON</t>
+  </si>
+  <si>
+    <t>Addiction &amp; Mental Health Services – KFLA (AMHS-KFLA)</t>
+  </si>
+  <si>
+    <t>Provides mental health and addiction support services in the Kingston, Frontenac, Lennox, and Addington areas</t>
+  </si>
+  <si>
+    <t>613-544-1356</t>
+  </si>
+  <si>
+    <t>https://amhs-kfla.ca/</t>
   </si>
 </sst>
 </file>
@@ -2194,7 +2209,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -2219,6 +2234,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2554,10 +2572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8E0B34-D33C-AB4E-A291-CAA443D46446}">
-  <dimension ref="A1:K153"/>
+  <dimension ref="A1:K154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F45" workbookViewId="0">
-      <selection activeCell="I89" sqref="I89"/>
+    <sheetView tabSelected="1" topLeftCell="F146" workbookViewId="0">
+      <selection activeCell="J154" sqref="J154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6791,6 +6809,38 @@
       </c>
       <c r="K153" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154" t="s">
+        <v>386</v>
+      </c>
+      <c r="B154" t="s">
+        <v>450</v>
+      </c>
+      <c r="C154" t="s">
+        <v>655</v>
+      </c>
+      <c r="D154" t="s">
+        <v>12</v>
+      </c>
+      <c r="E154" t="s">
+        <v>656</v>
+      </c>
+      <c r="F154" t="s">
+        <v>657</v>
+      </c>
+      <c r="G154" t="s">
+        <v>658</v>
+      </c>
+      <c r="H154" s="13" t="s">
+        <v>659</v>
+      </c>
+      <c r="I154" s="18">
+        <v>44.233800000000002</v>
+      </c>
+      <c r="J154">
+        <v>76.497299999999996</v>
       </c>
     </row>
   </sheetData>
@@ -6903,6 +6953,7 @@
     <hyperlink ref="H63" r:id="rId106" xr:uid="{B442E89A-EC9B-4ECB-87C7-2C2244E59EBC}"/>
     <hyperlink ref="H64" r:id="rId107" xr:uid="{C3C976CD-1869-46C4-BCCA-0B261A8272FD}"/>
     <hyperlink ref="H65" r:id="rId108" xr:uid="{BDBFBA04-C3F5-49E3-A03E-7A400D4278D8}"/>
+    <hyperlink ref="H154" r:id="rId109" xr:uid="{3EE46F70-8110-4047-85AF-DBA27F8BB891}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/canadianMentalHealthResources.xlsx
+++ b/assets/canadianMentalHealthResources.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29404"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://queensuca-my.sharepoint.com/personal/23nrd2_queensu_ca/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA43D6BE-5F28-4BD0-82D5-BBB14C904E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9D0D13B-2528-485F-8935-3D0F298C2CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16980" xr2:uid="{60D886F8-FFE1-F14E-A3CB-AFDAAB1FA1C7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="713">
   <si>
     <t>Province</t>
   </si>
@@ -2075,6 +2075,165 @@
   </si>
   <si>
     <t>https://amhs-kfla.ca/</t>
+  </si>
+  <si>
+    <t>Suite 718, 2525 Willow St, V5Z 3N8</t>
+  </si>
+  <si>
+    <t>Changeways Clinic</t>
+  </si>
+  <si>
+    <t>Large multi-clinician practice providing in-person and virtual therapy.</t>
+  </si>
+  <si>
+    <t>604-871-0490</t>
+  </si>
+  <si>
+    <t>changeways.com (Changeways Clinic)</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>EDC 281, 2500 University Dr NW, T2N 1N4</t>
+  </si>
+  <si>
+    <t>University of Calgary Psychology Clinic</t>
+  </si>
+  <si>
+    <t>University-affiliated clinic offering therapy and assessments.</t>
+  </si>
+  <si>
+    <t>403-220-3500</t>
+  </si>
+  <si>
+    <t>arts.ucalgary.ca/psychology-clinic (Faculty of Arts)</t>
+  </si>
+  <si>
+    <t>#610, 340 3rd Ave N, S7K 2J1</t>
+  </si>
+  <si>
+    <t>Evolve Counselling &amp; Wellness</t>
+  </si>
+  <si>
+    <t>Community counselling and wellness services.</t>
+  </si>
+  <si>
+    <t>639-384-7674</t>
+  </si>
+  <si>
+    <t>evolvecounsellingyxe.com (Evolve Counselling)</t>
+  </si>
+  <si>
+    <t>200-254 Edmonton St, R3C 1R9</t>
+  </si>
+  <si>
+    <t>Thrive Counselling – Downtown</t>
+  </si>
+  <si>
+    <t>Affordable therapy at multiple Winnipeg locations.</t>
+  </si>
+  <si>
+    <t>204-774-4184</t>
+  </si>
+  <si>
+    <t>thrivewinnipeg.com (Thrive Counselling)</t>
+  </si>
+  <si>
+    <t>2 Carlton St, Suite 1803, M5B 1J3</t>
+  </si>
+  <si>
+    <t>Toronto Psychology Clinic</t>
+  </si>
+  <si>
+    <t>Individual, couples therapy, and assessments downtown.</t>
+  </si>
+  <si>
+    <t>416-551-1759</t>
+  </si>
+  <si>
+    <t>torontopsychology.com (Toronto Psychology Clinic)</t>
+  </si>
+  <si>
+    <t>Québec</t>
+  </si>
+  <si>
+    <t>3801 rue Masson, H1X 1S9</t>
+  </si>
+  <si>
+    <t>Clinique de psychologie Masson</t>
+  </si>
+  <si>
+    <t>Psychothérapie pour individus et couples.</t>
+  </si>
+  <si>
+    <t>cliniquepsymasson.com (clinique de psychologie masson)</t>
+  </si>
+  <si>
+    <t>161 York St, E3B 3N8</t>
+  </si>
+  <si>
+    <t>Counselling Center (Fredericton)</t>
+  </si>
+  <si>
+    <t>Walk-in/appointment-based counselling services.</t>
+  </si>
+  <si>
+    <t>506-454-7723</t>
+  </si>
+  <si>
+    <t>see listing (Yelp) (Yelp)</t>
+  </si>
+  <si>
+    <t>Halifax</t>
+  </si>
+  <si>
+    <t>1526 Dresden Row, Suite 602, B3J 3K3</t>
+  </si>
+  <si>
+    <t>Green Leaf Psychological Services</t>
+  </si>
+  <si>
+    <t>Therapy, assessments, in-person and online options.</t>
+  </si>
+  <si>
+    <t>info@greenleafpsychological.com</t>
+  </si>
+  <si>
+    <t>greenleafpsychological.com (Halifax Psychologists)</t>
+  </si>
+  <si>
+    <t>125 Great George St, Suite 400, C1A 4K7</t>
+  </si>
+  <si>
+    <t>Charlottetown Psychological &amp; Therapeutic Services</t>
+  </si>
+  <si>
+    <t>Private practice offering therapy and assessments.</t>
+  </si>
+  <si>
+    <t>902-370-2655</t>
+  </si>
+  <si>
+    <t>cpats.ca (CHARLOTTETOWN)</t>
+  </si>
+  <si>
+    <t>Yukon</t>
+  </si>
+  <si>
+    <t>Unit 1, 3089 3rd Ave, Y1A</t>
+  </si>
+  <si>
+    <t>Ignite Counselling</t>
+  </si>
+  <si>
+    <t>In-person counselling with flexible booking.</t>
+  </si>
+  <si>
+    <t>867-668-5498</t>
+  </si>
+  <si>
+    <t>ignitecounselling.ca (ignitecounselling.ca)</t>
   </si>
 </sst>
 </file>
@@ -2209,7 +2368,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -2235,6 +2394,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2572,10 +2737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8E0B34-D33C-AB4E-A291-CAA443D46446}">
-  <dimension ref="A1:K154"/>
+  <dimension ref="A1:K164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F146" workbookViewId="0">
-      <selection activeCell="J154" sqref="J154"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F155" sqref="F155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6841,6 +7006,354 @@
       </c>
       <c r="J154">
         <v>76.497299999999996</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" ht="61.5">
+      <c r="A155" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="B155" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="C155" s="19" t="s">
+        <v>660</v>
+      </c>
+      <c r="D155" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E155" s="19" t="s">
+        <v>661</v>
+      </c>
+      <c r="F155" s="19" t="s">
+        <v>662</v>
+      </c>
+      <c r="G155" s="19" t="s">
+        <v>663</v>
+      </c>
+      <c r="H155" s="20" t="s">
+        <v>664</v>
+      </c>
+      <c r="I155" s="19">
+        <v>49.263550000000002</v>
+      </c>
+      <c r="J155" s="19">
+        <v>-123.12187</v>
+      </c>
+      <c r="K155" s="19" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" ht="92.25">
+      <c r="A156" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="B156" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="C156" s="19" t="s">
+        <v>666</v>
+      </c>
+      <c r="D156" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E156" s="19" t="s">
+        <v>667</v>
+      </c>
+      <c r="F156" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="G156" s="19" t="s">
+        <v>669</v>
+      </c>
+      <c r="H156" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I156" s="19">
+        <v>51.078609999999998</v>
+      </c>
+      <c r="J156" s="19">
+        <v>-114.13021000000001</v>
+      </c>
+      <c r="K156" s="19" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" ht="61.5">
+      <c r="A157" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B157" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C157" s="19" t="s">
+        <v>671</v>
+      </c>
+      <c r="D157" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E157" s="19" t="s">
+        <v>672</v>
+      </c>
+      <c r="F157" s="19" t="s">
+        <v>673</v>
+      </c>
+      <c r="G157" s="19" t="s">
+        <v>674</v>
+      </c>
+      <c r="H157" s="20" t="s">
+        <v>675</v>
+      </c>
+      <c r="I157" s="19">
+        <v>52.132910000000003</v>
+      </c>
+      <c r="J157" s="19">
+        <v>-106.65835</v>
+      </c>
+      <c r="K157" s="19" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" ht="61.5">
+      <c r="A158" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="B158" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="C158" s="19" t="s">
+        <v>676</v>
+      </c>
+      <c r="D158" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E158" s="19" t="s">
+        <v>677</v>
+      </c>
+      <c r="F158" s="19" t="s">
+        <v>678</v>
+      </c>
+      <c r="G158" s="19" t="s">
+        <v>679</v>
+      </c>
+      <c r="H158" s="20" t="s">
+        <v>680</v>
+      </c>
+      <c r="I158" s="19">
+        <v>49.892099999999999</v>
+      </c>
+      <c r="J158" s="19">
+        <v>-97.144480000000001</v>
+      </c>
+      <c r="K158" s="19" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" ht="77.25">
+      <c r="A159" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="B159" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="C159" s="19" t="s">
+        <v>681</v>
+      </c>
+      <c r="D159" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E159" s="19" t="s">
+        <v>682</v>
+      </c>
+      <c r="F159" s="19" t="s">
+        <v>683</v>
+      </c>
+      <c r="G159" s="19" t="s">
+        <v>684</v>
+      </c>
+      <c r="H159" s="20" t="s">
+        <v>685</v>
+      </c>
+      <c r="I159" s="19">
+        <v>43.661929999999998</v>
+      </c>
+      <c r="J159" s="19">
+        <v>-79.38212</v>
+      </c>
+      <c r="K159" s="19" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" ht="77.25">
+      <c r="A160" s="19" t="s">
+        <v>686</v>
+      </c>
+      <c r="B160" s="19" t="s">
+        <v>510</v>
+      </c>
+      <c r="C160" s="19" t="s">
+        <v>687</v>
+      </c>
+      <c r="D160" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E160" s="19" t="s">
+        <v>688</v>
+      </c>
+      <c r="F160" s="19" t="s">
+        <v>689</v>
+      </c>
+      <c r="G160" s="19"/>
+      <c r="H160" s="20" t="s">
+        <v>690</v>
+      </c>
+      <c r="I160" s="19">
+        <v>45.556550000000001</v>
+      </c>
+      <c r="J160" s="19">
+        <v>-73.568259999999995</v>
+      </c>
+      <c r="K160" s="19" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" ht="46.5">
+      <c r="A161" s="19" t="s">
+        <v>534</v>
+      </c>
+      <c r="B161" s="19" t="s">
+        <v>549</v>
+      </c>
+      <c r="C161" s="19" t="s">
+        <v>691</v>
+      </c>
+      <c r="D161" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E161" s="19" t="s">
+        <v>692</v>
+      </c>
+      <c r="F161" s="19" t="s">
+        <v>693</v>
+      </c>
+      <c r="G161" s="19" t="s">
+        <v>694</v>
+      </c>
+      <c r="H161" s="20" t="s">
+        <v>695</v>
+      </c>
+      <c r="I161" s="19">
+        <v>45.961570000000002</v>
+      </c>
+      <c r="J161" s="19">
+        <v>-66.642949999999999</v>
+      </c>
+      <c r="K161" s="19" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" ht="77.25">
+      <c r="A162" s="19" t="s">
+        <v>566</v>
+      </c>
+      <c r="B162" s="19" t="s">
+        <v>696</v>
+      </c>
+      <c r="C162" s="19" t="s">
+        <v>697</v>
+      </c>
+      <c r="D162" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E162" s="19" t="s">
+        <v>698</v>
+      </c>
+      <c r="F162" s="19" t="s">
+        <v>699</v>
+      </c>
+      <c r="G162" s="20" t="s">
+        <v>700</v>
+      </c>
+      <c r="H162" s="20" t="s">
+        <v>701</v>
+      </c>
+      <c r="I162" s="19">
+        <v>44.643569999999997</v>
+      </c>
+      <c r="J162" s="19">
+        <v>-63.576149999999998</v>
+      </c>
+      <c r="K162" s="19" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" ht="61.5">
+      <c r="A163" s="19" t="s">
+        <v>597</v>
+      </c>
+      <c r="B163" s="19" t="s">
+        <v>602</v>
+      </c>
+      <c r="C163" s="19" t="s">
+        <v>702</v>
+      </c>
+      <c r="D163" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E163" s="19" t="s">
+        <v>703</v>
+      </c>
+      <c r="F163" s="19" t="s">
+        <v>704</v>
+      </c>
+      <c r="G163" s="19" t="s">
+        <v>705</v>
+      </c>
+      <c r="H163" s="20" t="s">
+        <v>706</v>
+      </c>
+      <c r="I163" s="19">
+        <v>46.236260000000001</v>
+      </c>
+      <c r="J163" s="19">
+        <v>-63.1267</v>
+      </c>
+      <c r="K163" s="19" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" ht="61.5">
+      <c r="A164" s="19" t="s">
+        <v>707</v>
+      </c>
+      <c r="B164" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C164" s="19" t="s">
+        <v>708</v>
+      </c>
+      <c r="D164" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E164" s="19" t="s">
+        <v>709</v>
+      </c>
+      <c r="F164" s="19" t="s">
+        <v>710</v>
+      </c>
+      <c r="G164" s="19" t="s">
+        <v>711</v>
+      </c>
+      <c r="H164" s="20" t="s">
+        <v>712</v>
+      </c>
+      <c r="I164" s="19">
+        <v>60.717950000000002</v>
+      </c>
+      <c r="J164" s="19">
+        <v>-135.05113</v>
+      </c>
+      <c r="K164" s="19" t="s">
+        <v>665</v>
       </c>
     </row>
   </sheetData>
@@ -6954,6 +7467,17 @@
     <hyperlink ref="H64" r:id="rId107" xr:uid="{C3C976CD-1869-46C4-BCCA-0B261A8272FD}"/>
     <hyperlink ref="H65" r:id="rId108" xr:uid="{BDBFBA04-C3F5-49E3-A03E-7A400D4278D8}"/>
     <hyperlink ref="H154" r:id="rId109" xr:uid="{3EE46F70-8110-4047-85AF-DBA27F8BB891}"/>
+    <hyperlink ref="H155" r:id="rId110" xr:uid="{EE184696-31BC-4E76-B5B0-34AD21765881}"/>
+    <hyperlink ref="H156" r:id="rId111" xr:uid="{1897DB71-2700-495A-A235-84FFF534B828}"/>
+    <hyperlink ref="H157" r:id="rId112" xr:uid="{AE1B71E4-546B-47E5-8F4F-DC0152E98C07}"/>
+    <hyperlink ref="H158" r:id="rId113" xr:uid="{918F191D-20C2-42EB-9DC0-7009F77100EF}"/>
+    <hyperlink ref="H159" r:id="rId114" xr:uid="{DCB68E18-0171-431E-8673-E77932063D59}"/>
+    <hyperlink ref="H160" r:id="rId115" xr:uid="{70536EB9-3576-4934-81BA-5D70FC859CC5}"/>
+    <hyperlink ref="H161" r:id="rId116" xr:uid="{96F62463-53B7-4D91-8EA8-CF8D58106DB3}"/>
+    <hyperlink ref="G162" r:id="rId117" xr:uid="{E1853ADD-F500-4ABE-B721-8CB5C7C4EE0C}"/>
+    <hyperlink ref="H162" r:id="rId118" xr:uid="{28B3029B-C15A-4178-85BF-33BCE6F68142}"/>
+    <hyperlink ref="H163" r:id="rId119" xr:uid="{12A6853B-157D-4F03-81BD-14839EEB17E4}"/>
+    <hyperlink ref="H164" r:id="rId120" xr:uid="{2B88D383-731B-465E-9441-9D3A7AAC3959}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/canadianMentalHealthResources.xlsx
+++ b/assets/canadianMentalHealthResources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://queensuca-my.sharepoint.com/personal/23nrd2_queensu_ca/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9D0D13B-2528-485F-8935-3D0F298C2CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32435773-67D4-4BA3-9598-19B2D3E9F29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16980" xr2:uid="{60D886F8-FFE1-F14E-A3CB-AFDAAB1FA1C7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="814">
   <si>
     <t>Province</t>
   </si>
@@ -2234,6 +2234,314 @@
   </si>
   <si>
     <t>ignitecounselling.ca (ignitecounselling.ca)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44 Victoria St Unit 720, Toronto, ON M5C 1Y2 </t>
+  </si>
+  <si>
+    <t>Stark Wellness Clinic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Offers therapy for adults and couples looking for support in working through mental health and every day challenges. such as depression, anxiety, trauma, life transitions, stress management, self-esteem, grief, and relationship struggles.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(647) 250-7479 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.starkwellnessclinic.com/ </t>
+  </si>
+  <si>
+    <t>421 Danforth Ave Unit 1, Toronto, ON M4K 1P1</t>
+  </si>
+  <si>
+    <t>Toronto Psychotherapy Space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Built on the belief that therapy should feel warm, grounded, and human, never clinical or cold. Their therapists bring both heart and expertise to every session, offering care that’s collaborative, down-to-earth, and always centred on you.
+</t>
+  </si>
+  <si>
+    <t>(647) 267-8920</t>
+  </si>
+  <si>
+    <t>https://www.tpstherapy.ca/</t>
+  </si>
+  <si>
+    <t>999 W Broadway Suite 590, Vancouver, BC V5Z 1K5</t>
+  </si>
+  <si>
+    <t>Blue Sky Counselling + Wellness Clinic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specializing in relationships, self-esteem, anxiety, depression, trauma, grief, workplace challenges, and more.
+</t>
+  </si>
+  <si>
+    <t>(604) 428-6046</t>
+  </si>
+  <si>
+    <t>https://www.blueskywellnessclinic.ca/</t>
+  </si>
+  <si>
+    <t>1892 W Broadway #200, Vancouver, BC V6J 1Y9</t>
+  </si>
+  <si>
+    <t>Vancouver Therapy Collective</t>
+  </si>
+  <si>
+    <t>A collective of therapists who care deeply about inclusion, accessibility and respect. Their work is grounded in compassion and guided by experience.</t>
+  </si>
+  <si>
+    <t>info@vantherapy.ca</t>
+  </si>
+  <si>
+    <t>https://www.vantherapy.ca/?utm_source=gpb</t>
+  </si>
+  <si>
+    <t>280 Midpark Way SE #210, Calgary, AB T2X 1J6</t>
+  </si>
+  <si>
+    <t>Alberta Counselling Centre</t>
+  </si>
+  <si>
+    <t>Provides comprehensive psychoeducational assessments and counselling for children, adolescents, and adults.</t>
+  </si>
+  <si>
+    <t>(587) 352-3222</t>
+  </si>
+  <si>
+    <t>https://albertacounselling.ca/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edmonton </t>
+  </si>
+  <si>
+    <t>8711 50 Ave NW Unit 201, Edmonton, AB T6E 5W3</t>
+  </si>
+  <si>
+    <t>Thrive Teen Therapy Alberta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therapist who love working with youth, and know how to connect with them. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (587) 480-7359</t>
+  </si>
+  <si>
+    <t>https://www.thriveteens.ca/</t>
+  </si>
+  <si>
+    <t>53.48719071806588, -113.45695373745954</t>
+  </si>
+  <si>
+    <t>161 Stafford St #1, Winnipeg, MB R3M 2V8</t>
+  </si>
+  <si>
+    <t>Safe Harbour Therapy Centre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides collaborative wrap-around care for body, mind, soul in a nurturing and holistic space where individuals can embark on a transformative journey of healing and self-discovery without the added stress of navigating the health system alone. </t>
+  </si>
+  <si>
+    <t>(204) 891-2370</t>
+  </si>
+  <si>
+    <t>https://safeharbourtherapy.com/</t>
+  </si>
+  <si>
+    <t>209 Yale Ave W, Winnipeg, MB R2C 1E9</t>
+  </si>
+  <si>
+    <t>New Aniibiish</t>
+  </si>
+  <si>
+    <t>A team who provides compassionate, personalized counselling that encourages active effort, self-exploration, and growth—helping clients build healthier relationships, develop coping skills, and enhance self-esteem while supporting them through the challenges of confronting difficult emotions.</t>
+  </si>
+  <si>
+    <t>(204) 612-6869</t>
+  </si>
+  <si>
+    <t>https://aniibiish.ca/</t>
+  </si>
+  <si>
+    <t>231 Regent St Suite 101, Fredericton, NB E3B 3W9</t>
+  </si>
+  <si>
+    <t>Conscious Counselling and Wellness</t>
+  </si>
+  <si>
+    <t>Through both individual and community care, they offer New Brunswickers compassion-focused, trauma-informed support for healing and wellness.</t>
+  </si>
+  <si>
+    <t>(506) 230-4105</t>
+  </si>
+  <si>
+    <t>https://www.consciouscounsellingandwellness.com/</t>
+  </si>
+  <si>
+    <t>836 Churchill Row, Fredericton, NB E3B 1P9</t>
+  </si>
+  <si>
+    <t>Prism Counselling</t>
+  </si>
+  <si>
+    <t>Prism Counselling Inc. is an inclusive wellness clinic offering integrative mental health services both in-person and virtually, led by a diverse team of professionals dedicated to creating meaningful, positive paths forward and celebrating individuality and diversity in every client they support.</t>
+  </si>
+  <si>
+    <t>(506) 454-1371</t>
+  </si>
+  <si>
+    <t>https://www.prismfredericton.com/</t>
+  </si>
+  <si>
+    <t>205 Lemarchant Rd, St. John's, NL A1C 2H5</t>
+  </si>
+  <si>
+    <t>Power Counselling &amp; Wellness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here to walk alongside you and help you navigate life’s challenges—gently, professionally, and without judgment.
+</t>
+  </si>
+  <si>
+    <t>(709) 579-4303</t>
+  </si>
+  <si>
+    <t>https://www.powercounselling.net/</t>
+  </si>
+  <si>
+    <t>238 Lemarchant Rd, St. John's, NL A1E 2Z1</t>
+  </si>
+  <si>
+    <t>The Calm Place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Calm Place is a wellness centre located in St. John's offering health services for both the mind and body. The Calm Place is made up of a team who bring unique skills and services to support individuals through their healing. </t>
+  </si>
+  <si>
+    <t>(709) 733-2256</t>
+  </si>
+  <si>
+    <t>https://calmplace.ca/</t>
+  </si>
+  <si>
+    <t>1526 Dresden Row Suite 602, Halifax, NS B3J 1G9</t>
+  </si>
+  <si>
+    <t>Provides a full range of therapy, mental health counselling (in-person and online), and assessment services for children, adolescents, and adults.</t>
+  </si>
+  <si>
+    <t>(902) 932-8428</t>
+  </si>
+  <si>
+    <t>https://www.greenleafpsychological.com/</t>
+  </si>
+  <si>
+    <t>44.64339694269363, -63.57836204076442</t>
+  </si>
+  <si>
+    <t>5855 Spring Garden Rd B210, Halifax, NS B3H 4S2</t>
+  </si>
+  <si>
+    <t>RISE Anxiety and Depression Clinic Halifax</t>
+  </si>
+  <si>
+    <t>Committed to supporting individuals through life’s challenges, whether it’s anxiety, depression, trauma, or stress</t>
+  </si>
+  <si>
+    <t>(782) 927-2154</t>
+  </si>
+  <si>
+    <t>https://anxietydepressionhalifax.com/</t>
+  </si>
+  <si>
+    <t>75 Fitzroy St Suite 101, Charlottetown, PE C1A 1R6</t>
+  </si>
+  <si>
+    <t>Megan Muckler Counselling Therapy</t>
+  </si>
+  <si>
+    <t>Provides evidence-based therapy for individuals experiencing anxiety, trauma, chronic pain, or depression, offering a compassionate and ethical approach grounded in Cognitive Processing Therapy, Prolonged Exposure Therapy, mindfulness, and other behavioral modalities to support healing and personal growth.</t>
+  </si>
+  <si>
+    <t>(902) 394-4998</t>
+  </si>
+  <si>
+    <t>https://meganmucklercounselling.com/</t>
+  </si>
+  <si>
+    <t>Holman Building, 134 Kent St Suite 400, Charlottetown, PE C1A 8R8</t>
+  </si>
+  <si>
+    <t>We are a group of counsellors, psychologists, and social workers. Our goal in opening our practice was to provide the best possible mental health services to the Prince Edward Island community. Our clinicians draw on evidence-based assessment and treatment practices to support people of most ages and all backgrounds.</t>
+  </si>
+  <si>
+    <t>(902) 370-2655</t>
+  </si>
+  <si>
+    <t>https://cpats.ca/#about</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5513 Monkland Ave Suite #3, Montreal, Quebec H4A 1C8</t>
+  </si>
+  <si>
+    <t>Montreal Therapy Lifeline Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montreal Therapy Lifeline Center offers holistic, culturally sensitive, and trauma-informed support to help you heal, grow, and thrive.
+</t>
+  </si>
+  <si>
+    <t>(514) 403-5433</t>
+  </si>
+  <si>
+    <t>https://www.montrealtherapylifelinecenter.com/</t>
+  </si>
+  <si>
+    <t>Pointe-Claire</t>
+  </si>
+  <si>
+    <t>620 Boul. Saint-Jean Suite 203, Pointe-Claire, Quebec H9R 3K2</t>
+  </si>
+  <si>
+    <t>West Island Mental Health - Anxiety &amp; Depression Help</t>
+  </si>
+  <si>
+    <t>Offering strength-based, trauma-informed, and anti-oppressive counselling that empowers individuals, couples, and families through empathy, respect, and non-judgmental support to navigate life’s challenges and foster lasting well-being.</t>
+  </si>
+  <si>
+    <t>(514) 652-6650</t>
+  </si>
+  <si>
+    <t>https://westislandmentalhealth.com/</t>
+  </si>
+  <si>
+    <t>340 3rd Ave N #610, Saskatoon, SK S7K 2J1</t>
+  </si>
+  <si>
+    <t>Supporting your journey to better mental health with compassionate care, personalized counselling, and holistic wellness practices. Discover a safe, inclusive space where healing and growth begin.</t>
+  </si>
+  <si>
+    <t>(639) 384-7674</t>
+  </si>
+  <si>
+    <t>https://evolvecounsellingyxe.com/</t>
+  </si>
+  <si>
+    <t>603 Lenore Dr, Saskatoon, SK S7K 5C3</t>
+  </si>
+  <si>
+    <t>Living and Loss Counseling</t>
+  </si>
+  <si>
+    <t>Offering compassionate, trauma-informed grief counselling online, this Saskatoon-based service helps clients heal by integrating body and mind through EMDR and personalized support—creating a safe, accessible space to process loss and restore emotional balance from the comfort of home or office.</t>
+  </si>
+  <si>
+    <t>(306) 227-7323</t>
+  </si>
+  <si>
+    <t>https://livingandlosscounselling.com/</t>
   </si>
 </sst>
 </file>
@@ -2737,10 +3045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8E0B34-D33C-AB4E-A291-CAA443D46446}">
-  <dimension ref="A1:K164"/>
+  <dimension ref="A1:K185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F155" sqref="F155"/>
+    <sheetView tabSelected="1" topLeftCell="D172" workbookViewId="0">
+      <selection activeCell="F184" sqref="F184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -7355,6 +7663,709 @@
       <c r="K164" s="19" t="s">
         <v>665</v>
       </c>
+    </row>
+    <row r="165" spans="1:11" ht="61.5">
+      <c r="A165" t="s">
+        <v>386</v>
+      </c>
+      <c r="B165" t="s">
+        <v>390</v>
+      </c>
+      <c r="C165" t="s">
+        <v>713</v>
+      </c>
+      <c r="D165" t="s">
+        <v>36</v>
+      </c>
+      <c r="E165" t="s">
+        <v>714</v>
+      </c>
+      <c r="F165" s="18" t="s">
+        <v>715</v>
+      </c>
+      <c r="G165" t="s">
+        <v>716</v>
+      </c>
+      <c r="H165" s="20" t="s">
+        <v>717</v>
+      </c>
+      <c r="I165">
+        <v>43.650550000000003</v>
+      </c>
+      <c r="J165">
+        <v>-79.377290000000002</v>
+      </c>
+      <c r="K165" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" ht="46.5">
+      <c r="A166" t="s">
+        <v>386</v>
+      </c>
+      <c r="B166" t="s">
+        <v>390</v>
+      </c>
+      <c r="C166" t="s">
+        <v>718</v>
+      </c>
+      <c r="D166" t="s">
+        <v>36</v>
+      </c>
+      <c r="E166" t="s">
+        <v>719</v>
+      </c>
+      <c r="F166" s="18" t="s">
+        <v>720</v>
+      </c>
+      <c r="G166" t="s">
+        <v>721</v>
+      </c>
+      <c r="H166" s="13" t="s">
+        <v>722</v>
+      </c>
+      <c r="I166">
+        <v>43.685270000000003</v>
+      </c>
+      <c r="J166">
+        <v>-79.350539999999995</v>
+      </c>
+      <c r="K166" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" ht="46.5">
+      <c r="A167" t="s">
+        <v>298</v>
+      </c>
+      <c r="B167" t="s">
+        <v>314</v>
+      </c>
+      <c r="C167" t="s">
+        <v>723</v>
+      </c>
+      <c r="D167" t="s">
+        <v>36</v>
+      </c>
+      <c r="E167" t="s">
+        <v>724</v>
+      </c>
+      <c r="F167" s="18" t="s">
+        <v>725</v>
+      </c>
+      <c r="G167" t="s">
+        <v>726</v>
+      </c>
+      <c r="H167" s="13" t="s">
+        <v>727</v>
+      </c>
+      <c r="I167">
+        <v>49.264746137174598</v>
+      </c>
+      <c r="J167">
+        <v>-123.126583192065</v>
+      </c>
+      <c r="K167" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168" t="s">
+        <v>298</v>
+      </c>
+      <c r="B168" t="s">
+        <v>314</v>
+      </c>
+      <c r="C168" t="s">
+        <v>728</v>
+      </c>
+      <c r="D168" t="s">
+        <v>36</v>
+      </c>
+      <c r="E168" t="s">
+        <v>729</v>
+      </c>
+      <c r="F168" t="s">
+        <v>730</v>
+      </c>
+      <c r="G168" s="13" t="s">
+        <v>731</v>
+      </c>
+      <c r="H168" s="13" t="s">
+        <v>732</v>
+      </c>
+      <c r="I168">
+        <v>49.264267932067</v>
+      </c>
+      <c r="J168">
+        <v>-123.148014361376</v>
+      </c>
+      <c r="K168" s="19" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169" t="s">
+        <v>248</v>
+      </c>
+      <c r="B169" t="s">
+        <v>237</v>
+      </c>
+      <c r="C169" t="s">
+        <v>733</v>
+      </c>
+      <c r="D169" t="s">
+        <v>36</v>
+      </c>
+      <c r="E169" t="s">
+        <v>734</v>
+      </c>
+      <c r="F169" t="s">
+        <v>735</v>
+      </c>
+      <c r="G169" t="s">
+        <v>736</v>
+      </c>
+      <c r="H169" s="13" t="s">
+        <v>737</v>
+      </c>
+      <c r="I169">
+        <v>50.910465826508897</v>
+      </c>
+      <c r="J169">
+        <v>-114.064214415344</v>
+      </c>
+      <c r="K169" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170" t="s">
+        <v>248</v>
+      </c>
+      <c r="B170" t="s">
+        <v>738</v>
+      </c>
+      <c r="C170" t="s">
+        <v>739</v>
+      </c>
+      <c r="D170" t="s">
+        <v>36</v>
+      </c>
+      <c r="E170" t="s">
+        <v>740</v>
+      </c>
+      <c r="F170" t="s">
+        <v>741</v>
+      </c>
+      <c r="G170" t="s">
+        <v>742</v>
+      </c>
+      <c r="H170" s="13" t="s">
+        <v>743</v>
+      </c>
+      <c r="I170" t="s">
+        <v>744</v>
+      </c>
+      <c r="J170">
+        <v>-113.456953737459</v>
+      </c>
+      <c r="K170" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171" t="s">
+        <v>173</v>
+      </c>
+      <c r="B171" t="s">
+        <v>188</v>
+      </c>
+      <c r="C171" t="s">
+        <v>745</v>
+      </c>
+      <c r="D171" t="s">
+        <v>36</v>
+      </c>
+      <c r="E171" t="s">
+        <v>746</v>
+      </c>
+      <c r="F171" t="s">
+        <v>747</v>
+      </c>
+      <c r="G171" t="s">
+        <v>748</v>
+      </c>
+      <c r="H171" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="I171">
+        <v>49.871420043527998</v>
+      </c>
+      <c r="J171">
+        <v>-97.163713611323203</v>
+      </c>
+      <c r="K171" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172" t="s">
+        <v>173</v>
+      </c>
+      <c r="B172" t="s">
+        <v>188</v>
+      </c>
+      <c r="C172" t="s">
+        <v>750</v>
+      </c>
+      <c r="D172" t="s">
+        <v>36</v>
+      </c>
+      <c r="E172" t="s">
+        <v>751</v>
+      </c>
+      <c r="F172" t="s">
+        <v>752</v>
+      </c>
+      <c r="G172" t="s">
+        <v>753</v>
+      </c>
+      <c r="H172" s="13" t="s">
+        <v>754</v>
+      </c>
+      <c r="I172">
+        <v>49.901163885184801</v>
+      </c>
+      <c r="J172">
+        <v>-97.006118654492496</v>
+      </c>
+      <c r="K172" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173" t="s">
+        <v>534</v>
+      </c>
+      <c r="B173" t="s">
+        <v>549</v>
+      </c>
+      <c r="C173" t="s">
+        <v>755</v>
+      </c>
+      <c r="D173" t="s">
+        <v>36</v>
+      </c>
+      <c r="E173" t="s">
+        <v>756</v>
+      </c>
+      <c r="F173" t="s">
+        <v>757</v>
+      </c>
+      <c r="G173" t="s">
+        <v>758</v>
+      </c>
+      <c r="H173" s="13" t="s">
+        <v>759</v>
+      </c>
+      <c r="I173">
+        <v>45.957836495545799</v>
+      </c>
+      <c r="J173">
+        <v>-66.642072299999995</v>
+      </c>
+      <c r="K173" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174" t="s">
+        <v>534</v>
+      </c>
+      <c r="B174" t="s">
+        <v>549</v>
+      </c>
+      <c r="C174" t="s">
+        <v>760</v>
+      </c>
+      <c r="D174" t="s">
+        <v>36</v>
+      </c>
+      <c r="E174" t="s">
+        <v>761</v>
+      </c>
+      <c r="F174" t="s">
+        <v>762</v>
+      </c>
+      <c r="G174" t="s">
+        <v>763</v>
+      </c>
+      <c r="H174" s="13" t="s">
+        <v>764</v>
+      </c>
+      <c r="I174">
+        <v>45.954167841596302</v>
+      </c>
+      <c r="J174">
+        <v>-66.637325147656597</v>
+      </c>
+      <c r="K174" s="19" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" ht="46.5">
+      <c r="A175" t="s">
+        <v>627</v>
+      </c>
+      <c r="B175" t="s">
+        <v>634</v>
+      </c>
+      <c r="C175" t="s">
+        <v>765</v>
+      </c>
+      <c r="D175" t="s">
+        <v>36</v>
+      </c>
+      <c r="E175" t="s">
+        <v>766</v>
+      </c>
+      <c r="F175" s="18" t="s">
+        <v>767</v>
+      </c>
+      <c r="G175" t="s">
+        <v>768</v>
+      </c>
+      <c r="H175" s="13" t="s">
+        <v>769</v>
+      </c>
+      <c r="I175">
+        <v>47.556011670822997</v>
+      </c>
+      <c r="J175">
+        <v>-52.7216127153442</v>
+      </c>
+      <c r="K175" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176" t="s">
+        <v>627</v>
+      </c>
+      <c r="B176" t="s">
+        <v>634</v>
+      </c>
+      <c r="C176" t="s">
+        <v>770</v>
+      </c>
+      <c r="D176" t="s">
+        <v>36</v>
+      </c>
+      <c r="E176" t="s">
+        <v>771</v>
+      </c>
+      <c r="F176" t="s">
+        <v>772</v>
+      </c>
+      <c r="G176" t="s">
+        <v>773</v>
+      </c>
+      <c r="H176" s="13" t="s">
+        <v>774</v>
+      </c>
+      <c r="I176">
+        <v>47.5548010888009</v>
+      </c>
+      <c r="J176">
+        <v>-52.723121599999999</v>
+      </c>
+      <c r="K176" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177" t="s">
+        <v>566</v>
+      </c>
+      <c r="B177" t="s">
+        <v>696</v>
+      </c>
+      <c r="C177" t="s">
+        <v>775</v>
+      </c>
+      <c r="D177" t="s">
+        <v>36</v>
+      </c>
+      <c r="E177" t="s">
+        <v>698</v>
+      </c>
+      <c r="F177" t="s">
+        <v>776</v>
+      </c>
+      <c r="G177" t="s">
+        <v>777</v>
+      </c>
+      <c r="H177" s="13" t="s">
+        <v>778</v>
+      </c>
+      <c r="I177" t="s">
+        <v>779</v>
+      </c>
+      <c r="J177">
+        <v>-63.578362040764397</v>
+      </c>
+      <c r="K177" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178" t="s">
+        <v>566</v>
+      </c>
+      <c r="B178" t="s">
+        <v>696</v>
+      </c>
+      <c r="C178" t="s">
+        <v>780</v>
+      </c>
+      <c r="D178" t="s">
+        <v>36</v>
+      </c>
+      <c r="E178" t="s">
+        <v>781</v>
+      </c>
+      <c r="F178" t="s">
+        <v>782</v>
+      </c>
+      <c r="G178" t="s">
+        <v>783</v>
+      </c>
+      <c r="H178" s="13" t="s">
+        <v>784</v>
+      </c>
+      <c r="I178">
+        <v>44.641652238601999</v>
+      </c>
+      <c r="J178">
+        <v>-63.583836644180202</v>
+      </c>
+      <c r="K178" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="A179" t="s">
+        <v>597</v>
+      </c>
+      <c r="B179" t="s">
+        <v>602</v>
+      </c>
+      <c r="C179" t="s">
+        <v>785</v>
+      </c>
+      <c r="D179" t="s">
+        <v>36</v>
+      </c>
+      <c r="E179" t="s">
+        <v>786</v>
+      </c>
+      <c r="F179" t="s">
+        <v>787</v>
+      </c>
+      <c r="G179" t="s">
+        <v>788</v>
+      </c>
+      <c r="H179" s="13" t="s">
+        <v>789</v>
+      </c>
+      <c r="I179">
+        <v>46.236419235598198</v>
+      </c>
+      <c r="J179">
+        <v>-63.130175699999903</v>
+      </c>
+      <c r="K179" s="19" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="A180" t="s">
+        <v>597</v>
+      </c>
+      <c r="B180" t="s">
+        <v>602</v>
+      </c>
+      <c r="C180" t="s">
+        <v>790</v>
+      </c>
+      <c r="D180" t="s">
+        <v>36</v>
+      </c>
+      <c r="E180" t="s">
+        <v>703</v>
+      </c>
+      <c r="F180" t="s">
+        <v>791</v>
+      </c>
+      <c r="G180" t="s">
+        <v>792</v>
+      </c>
+      <c r="H180" s="13" t="s">
+        <v>793</v>
+      </c>
+      <c r="I180">
+        <v>46.235766458082303</v>
+      </c>
+      <c r="J180">
+        <v>-63.128038213491799</v>
+      </c>
+      <c r="K180" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" ht="30.75">
+      <c r="A181" t="s">
+        <v>686</v>
+      </c>
+      <c r="B181" t="s">
+        <v>510</v>
+      </c>
+      <c r="C181" t="s">
+        <v>794</v>
+      </c>
+      <c r="D181" t="s">
+        <v>36</v>
+      </c>
+      <c r="E181" t="s">
+        <v>795</v>
+      </c>
+      <c r="F181" s="18" t="s">
+        <v>796</v>
+      </c>
+      <c r="G181" t="s">
+        <v>797</v>
+      </c>
+      <c r="H181" s="13" t="s">
+        <v>798</v>
+      </c>
+      <c r="I181">
+        <v>45.476894537670802</v>
+      </c>
+      <c r="J181">
+        <v>-73.622019926983597</v>
+      </c>
+      <c r="K181" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="A182" t="s">
+        <v>686</v>
+      </c>
+      <c r="B182" t="s">
+        <v>799</v>
+      </c>
+      <c r="C182" t="s">
+        <v>800</v>
+      </c>
+      <c r="D182" t="s">
+        <v>36</v>
+      </c>
+      <c r="E182" t="s">
+        <v>801</v>
+      </c>
+      <c r="F182" t="s">
+        <v>802</v>
+      </c>
+      <c r="G182" t="s">
+        <v>803</v>
+      </c>
+      <c r="H182" s="13" t="s">
+        <v>804</v>
+      </c>
+      <c r="I182">
+        <v>45.4605031656642</v>
+      </c>
+      <c r="J182">
+        <v>-73.823256112671004</v>
+      </c>
+      <c r="K182" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183" t="s">
+        <v>99</v>
+      </c>
+      <c r="B183" t="s">
+        <v>109</v>
+      </c>
+      <c r="C183" t="s">
+        <v>805</v>
+      </c>
+      <c r="D183" t="s">
+        <v>36</v>
+      </c>
+      <c r="E183" t="s">
+        <v>672</v>
+      </c>
+      <c r="F183" t="s">
+        <v>806</v>
+      </c>
+      <c r="G183" t="s">
+        <v>807</v>
+      </c>
+      <c r="H183" s="13" t="s">
+        <v>808</v>
+      </c>
+      <c r="I183">
+        <v>52.132538815317098</v>
+      </c>
+      <c r="J183">
+        <v>-106.659783373016</v>
+      </c>
+      <c r="K183" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="A184" t="s">
+        <v>99</v>
+      </c>
+      <c r="B184" t="s">
+        <v>109</v>
+      </c>
+      <c r="C184" t="s">
+        <v>809</v>
+      </c>
+      <c r="D184" t="s">
+        <v>36</v>
+      </c>
+      <c r="E184" t="s">
+        <v>810</v>
+      </c>
+      <c r="F184" t="s">
+        <v>811</v>
+      </c>
+      <c r="G184" t="s">
+        <v>812</v>
+      </c>
+      <c r="H184" s="13" t="s">
+        <v>813</v>
+      </c>
+      <c r="I184">
+        <v>52.175876607785099</v>
+      </c>
+      <c r="J184">
+        <v>-106.619584501852</v>
+      </c>
+      <c r="K184" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="K185" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7478,6 +8489,27 @@
     <hyperlink ref="H162" r:id="rId118" xr:uid="{28B3029B-C15A-4178-85BF-33BCE6F68142}"/>
     <hyperlink ref="H163" r:id="rId119" xr:uid="{12A6853B-157D-4F03-81BD-14839EEB17E4}"/>
     <hyperlink ref="H164" r:id="rId120" xr:uid="{2B88D383-731B-465E-9441-9D3A7AAC3959}"/>
+    <hyperlink ref="H165" r:id="rId121" xr:uid="{B53381E1-C8C1-4859-A1AA-1DF0DD6DC695}"/>
+    <hyperlink ref="H166" r:id="rId122" xr:uid="{1BAF0A08-15AC-4109-9648-460609DEA3F9}"/>
+    <hyperlink ref="H167" r:id="rId123" xr:uid="{42987845-6BA5-4AE5-A1AC-F6CD4E38B456}"/>
+    <hyperlink ref="H168" r:id="rId124" xr:uid="{60755389-93BF-4DB4-A7E2-FD926463AE79}"/>
+    <hyperlink ref="G168" r:id="rId125" xr:uid="{502D4E85-0AB6-41CE-82D6-305605034587}"/>
+    <hyperlink ref="H169" r:id="rId126" xr:uid="{B340E5AC-CD3B-4DFE-BCCF-9322E2F41F30}"/>
+    <hyperlink ref="H170" r:id="rId127" xr:uid="{EF33502B-9189-4A48-8124-AD63EF5FFD61}"/>
+    <hyperlink ref="H171" r:id="rId128" xr:uid="{B98A28EA-F9EF-496C-A422-7480F7611CE8}"/>
+    <hyperlink ref="H172" r:id="rId129" xr:uid="{4E42FEC5-B4DA-4037-B411-E59ED665B2ED}"/>
+    <hyperlink ref="H173" r:id="rId130" xr:uid="{05EAA7FF-4DFE-46B3-8394-D3D85F0DAE6A}"/>
+    <hyperlink ref="H174" r:id="rId131" xr:uid="{3C761C79-B215-4B84-946F-368719CFFD43}"/>
+    <hyperlink ref="H175" r:id="rId132" xr:uid="{01CB5B46-5CF8-49DA-9B05-CC0D97847A66}"/>
+    <hyperlink ref="H176" r:id="rId133" xr:uid="{2E3CA685-CF58-44D7-B18D-D9EE133546A4}"/>
+    <hyperlink ref="H177" r:id="rId134" xr:uid="{D4281E0D-A61B-49E2-AD66-62258EBEC897}"/>
+    <hyperlink ref="H178" r:id="rId135" xr:uid="{0BCBD663-DF65-44F5-BCC3-3B399F78A863}"/>
+    <hyperlink ref="H179" r:id="rId136" xr:uid="{37E25C42-A08D-4807-91D3-CA8040DAE27E}"/>
+    <hyperlink ref="H180" r:id="rId137" location="about" xr:uid="{1EB3C49B-184B-4667-95AA-8448C2951338}"/>
+    <hyperlink ref="H181" r:id="rId138" xr:uid="{2208D7D1-4447-40A2-B2A7-9B930D3E5E52}"/>
+    <hyperlink ref="H182" r:id="rId139" xr:uid="{7C49C998-E77D-42CB-B8C6-5B55F8E9FB82}"/>
+    <hyperlink ref="H183" r:id="rId140" xr:uid="{C82A5DB6-C8A0-4674-834C-98F8D29FF995}"/>
+    <hyperlink ref="H184" r:id="rId141" xr:uid="{523B3FBC-E7B8-40FA-9F24-3753B73F1323}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/canadianMentalHealthResources.xlsx
+++ b/assets/canadianMentalHealthResources.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yehonathanshakarghi/Documents/seedle/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E247FC-AAA2-DC4C-9DCE-A259CB70C008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0A7037-B80F-9642-89E4-56A991D459AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3194" uniqueCount="1698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3197" uniqueCount="1701">
   <si>
     <t>Province</t>
   </si>
@@ -5130,13 +5130,22 @@
   </si>
   <si>
     <t>Offers walk in counselling to youths dealing with mental health issues, sexual orientation issues, bullying or behavioral problems.&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>OHIP</t>
+  </si>
+  <si>
+    <t>UHIP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5150,6 +5159,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -5159,7 +5181,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -5182,11 +5204,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -5195,6 +5230,8 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5497,10 +5534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K368"/>
+  <dimension ref="A1:N368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A347" workbookViewId="0">
-      <selection activeCell="P367" sqref="P367"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5508,7 +5545,7 @@
     <col min="2" max="2" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5542,8 +5579,17 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="4" t="s">
+        <v>1698</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>1699</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>137</v>
       </c>
@@ -5574,8 +5620,11 @@
       <c r="K2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>137</v>
       </c>
@@ -5610,7 +5659,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -5645,7 +5694,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>137</v>
       </c>
@@ -5680,7 +5729,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>137</v>
       </c>
@@ -5715,7 +5764,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>137</v>
       </c>
@@ -5750,7 +5799,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>137</v>
       </c>
@@ -5785,7 +5834,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>137</v>
       </c>
@@ -5820,7 +5869,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>137</v>
       </c>
@@ -5855,7 +5904,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>137</v>
       </c>
@@ -5890,7 +5939,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>137</v>
       </c>
@@ -5925,7 +5974,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>137</v>
       </c>
@@ -5960,7 +6009,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>137</v>
       </c>
@@ -5995,7 +6044,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>137</v>
       </c>
@@ -6030,7 +6079,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>137</v>
       </c>

--- a/assets/canadianMentalHealthResources.xlsx
+++ b/assets/canadianMentalHealthResources.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yehonathanshakarghi/Documents/seedle/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0A7037-B80F-9642-89E4-56A991D459AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AFD6254-7A83-174A-A939-3B474F447B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5537,7 +5537,7 @@
   <dimension ref="A1:N368"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/assets/canadianMentalHealthResources.xlsx
+++ b/assets/canadianMentalHealthResources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yehonathanshakarghi/Documents/seedle/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharmindabidiyan/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AFD6254-7A83-174A-A939-3B474F447B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E45449-9A39-684E-BA9E-F4FC6D17C2E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11380" yWindow="780" windowWidth="22780" windowHeight="21200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3197" uniqueCount="1701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3333" uniqueCount="1763">
   <si>
     <t>Province</t>
   </si>
@@ -5132,20 +5132,206 @@
     <t>Offers walk in counselling to youths dealing with mental health issues, sexual orientation issues, bullying or behavioral problems.&lt;/span&gt;</t>
   </si>
   <si>
-    <t>Rating</t>
-  </si>
-  <si>
     <t>OHIP</t>
   </si>
   <si>
     <t>UHIP</t>
+  </si>
+  <si>
+    <t>Campus Observation Room (COR)</t>
+  </si>
+  <si>
+    <t>128 Queen’s Crescent</t>
+  </si>
+  <si>
+    <t>613-533-6911</t>
+  </si>
+  <si>
+    <t>https://www.queensu.ca/studentwellness/health-promotion/campus-observation-room-cor</t>
+  </si>
+  <si>
+    <t>On-site non-medical detox service overseen by Queen's University Student Wellness Services with the support of trained student volunteers and professional Addiction Support Workers</t>
+  </si>
+  <si>
+    <t>https://www.queensu.ca/yellow-house/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">207 Stuart St Rideau Building – 3rd floor </t>
+  </si>
+  <si>
+    <t>Yellow House Student Centre for Equity and Inclusion</t>
+  </si>
+  <si>
+    <t>Create comfortable and accountable spaces for students who identify as Queer, and/or Trans, and/or Black, and/or Indigenous, and/or as People of Colour (QTBIPoC) to feel safer, to create community, to be empowered, to celebrate their identity, and to flourish</t>
+  </si>
+  <si>
+    <t>613-533-6000 x75740</t>
+  </si>
+  <si>
+    <t>Trellis HIV &amp; Community Care</t>
+  </si>
+  <si>
+    <t>844 Princess St</t>
+  </si>
+  <si>
+    <t>(613) 545-3698</t>
+  </si>
+  <si>
+    <t>https://trellishiv.ca/</t>
+  </si>
+  <si>
+    <t>A safer space providing stigma-free HIV/AIDS education, Harm Reduction, and support services across Kingston and South Eastern Ontario</t>
+  </si>
+  <si>
+    <t>Sexual Assault Centre Kingston</t>
+  </si>
+  <si>
+    <t>400 Elliott Ave</t>
+  </si>
+  <si>
+    <t>A not-for-profit organization providing free, confidential, non-judgemental support for all survivors, 12+, of recent and/or historic sexual violence in Kingston, Frontenac, Lennox &amp; Addington (KFL&amp;A) since 1978</t>
+  </si>
+  <si>
+    <t>1-877-544-6424</t>
+  </si>
+  <si>
+    <t>https://www.sackingston.com/</t>
+  </si>
+  <si>
+    <t>Ban Righ Centre</t>
+  </si>
+  <si>
+    <t>Assists women-identified students of all ages, especially those who are returning to university after a time away to continue formal or informal education</t>
+  </si>
+  <si>
+    <t>32 Bader Lane</t>
+  </si>
+  <si>
+    <t>613 533 2976</t>
+  </si>
+  <si>
+    <t>https://www.queensu.ca/ban-righ-centre/</t>
+  </si>
+  <si>
+    <t>Martha's Table Community Program</t>
+  </si>
+  <si>
+    <t>To provide a caring place where people in need can have access to a nutritious meal and find community social support</t>
+  </si>
+  <si>
+    <t>613 546 0320</t>
+  </si>
+  <si>
+    <t>https://marthastable.ca/</t>
+  </si>
+  <si>
+    <t>427 Princess Street</t>
+  </si>
+  <si>
+    <t>https://www.amsfoodbank.ca/</t>
+  </si>
+  <si>
+    <t>To provide a confidential and non-judgmental food service to members of the Queen’s community</t>
+  </si>
+  <si>
+    <t>99 University Ave</t>
+  </si>
+  <si>
+    <t>(604) 822-5627</t>
+  </si>
+  <si>
+    <t>https://www.queensu.ca/fourdirections/</t>
+  </si>
+  <si>
+    <t>To provide study spaces, laundry, a cozy living room, and a pantry/full access kitchen</t>
+  </si>
+  <si>
+    <t>Four Directions Indigenous Student Centre</t>
+  </si>
+  <si>
+    <t>144-146 Barrie St</t>
+  </si>
+  <si>
+    <t>(613) 533-6970</t>
+  </si>
+  <si>
+    <t>AMS Food Bank</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Call BlackLine</t>
+  </si>
+  <si>
+    <t>To provide a space for peer support, counseling, reporting of mistreatment, witnessing and affirming the lived experiences for folxs who are most impacted by systematic oppression with an LGBTQ+ Black Femme Lens.</t>
+  </si>
+  <si>
+    <t>1 (800) 604-5841</t>
+  </si>
+  <si>
+    <t>https://www.callblackline.com</t>
+  </si>
+  <si>
+    <t>Queen's Student Wellness Services</t>
+  </si>
+  <si>
+    <t>Offers one-on-one appointments with our mental health professionals, psychoeducation and therapy groups</t>
+  </si>
+  <si>
+    <t>https://www.queensu.ca/studentwellness/mental-health</t>
+  </si>
+  <si>
+    <t>Community Counseling</t>
+  </si>
+  <si>
+    <t>International SOS</t>
+  </si>
+  <si>
+    <t>To provide out-of-country emergency assistance for all Queen's community members traveling on university-sanctioned activities</t>
+  </si>
+  <si>
+    <t>https://queensuca.sharepoint.com/sites/EHS-ESP</t>
+  </si>
+  <si>
+    <t>1-215-942-8478</t>
+  </si>
+  <si>
+    <t>Queen's University International Centre</t>
+  </si>
+  <si>
+    <t>Provides a great space in the heart of campus to support international students transitioning to Queen’s, with services to encourage a successful student experience</t>
+  </si>
+  <si>
+    <t>69 Union St.</t>
+  </si>
+  <si>
+    <t>https://quic.queensu.ca</t>
+  </si>
+  <si>
+    <t>Peer Support Centre</t>
+  </si>
+  <si>
+    <t>https://www.amspeersupport.com</t>
+  </si>
+  <si>
+    <t>JDUC</t>
+  </si>
+  <si>
+    <t>613-533-2604</t>
+  </si>
+  <si>
+    <t>613-701-1577</t>
+  </si>
+  <si>
+    <t>A student-run listening and resource referral service that provides drop-in and appointment-based one-on-one peer support</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5170,6 +5356,24 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -5221,7 +5425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -5232,6 +5436,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5534,18 +5742,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N368"/>
+  <dimension ref="A1:M381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" topLeftCell="A363" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E377" sqref="E377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="8.83203125" style="3"/>
+    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5585,11 +5794,8 @@
       <c r="M1" s="4" t="s">
         <v>1699</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>137</v>
       </c>
@@ -5622,9 +5828,8 @@
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>137</v>
       </c>
@@ -5659,7 +5864,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -5694,7 +5899,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>137</v>
       </c>
@@ -5729,7 +5934,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>137</v>
       </c>
@@ -5764,7 +5969,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>137</v>
       </c>
@@ -5799,7 +6004,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>137</v>
       </c>
@@ -5834,7 +6039,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>137</v>
       </c>
@@ -5869,7 +6074,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>137</v>
       </c>
@@ -5904,7 +6109,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>137</v>
       </c>
@@ -5939,7 +6144,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>137</v>
       </c>
@@ -5974,7 +6179,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>137</v>
       </c>
@@ -6009,7 +6214,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>137</v>
       </c>
@@ -6044,7 +6249,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>137</v>
       </c>
@@ -6079,7 +6284,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>137</v>
       </c>
@@ -17832,6 +18037,503 @@
       </c>
       <c r="K368" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="369" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>58</v>
+      </c>
+      <c r="B369" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C369" s="6" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D369" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E369" t="s">
+        <v>1700</v>
+      </c>
+      <c r="F369" t="s">
+        <v>1704</v>
+      </c>
+      <c r="G369" s="6" t="s">
+        <v>1702</v>
+      </c>
+      <c r="H369" t="s">
+        <v>1703</v>
+      </c>
+      <c r="I369">
+        <v>44.224400139764597</v>
+      </c>
+      <c r="J369">
+        <v>-76.500746058016304</v>
+      </c>
+      <c r="K369" t="s">
+        <v>73</v>
+      </c>
+      <c r="L369" t="s">
+        <v>1740</v>
+      </c>
+      <c r="M369" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="370" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>58</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C370" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D370" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E370" s="6" t="s">
+        <v>1707</v>
+      </c>
+      <c r="F370" t="s">
+        <v>1708</v>
+      </c>
+      <c r="G370" t="s">
+        <v>1709</v>
+      </c>
+      <c r="H370" t="s">
+        <v>1705</v>
+      </c>
+      <c r="I370">
+        <v>44.224233903827098</v>
+      </c>
+      <c r="J370">
+        <v>-76.497922133729105</v>
+      </c>
+      <c r="K370" t="s">
+        <v>73</v>
+      </c>
+      <c r="L370" t="s">
+        <v>1740</v>
+      </c>
+      <c r="M370" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="371" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>58</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C371" s="7" t="s">
+        <v>1711</v>
+      </c>
+      <c r="D371" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E371" t="s">
+        <v>1710</v>
+      </c>
+      <c r="F371" t="s">
+        <v>1714</v>
+      </c>
+      <c r="G371" t="s">
+        <v>1712</v>
+      </c>
+      <c r="H371" t="s">
+        <v>1713</v>
+      </c>
+      <c r="I371">
+        <v>44.240025887215097</v>
+      </c>
+      <c r="J371">
+        <v>-76.5088156472207</v>
+      </c>
+      <c r="K371" t="s">
+        <v>73</v>
+      </c>
+      <c r="L371" t="s">
+        <v>1740</v>
+      </c>
+      <c r="M371" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="372" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>58</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C372" s="7" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D372" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E372" t="s">
+        <v>1715</v>
+      </c>
+      <c r="F372" t="s">
+        <v>1717</v>
+      </c>
+      <c r="G372" t="s">
+        <v>1718</v>
+      </c>
+      <c r="H372" t="s">
+        <v>1719</v>
+      </c>
+      <c r="I372">
+        <v>44.2559411863934</v>
+      </c>
+      <c r="J372">
+        <v>-76.497278128170606</v>
+      </c>
+      <c r="K372" t="s">
+        <v>73</v>
+      </c>
+      <c r="L372" t="s">
+        <v>1740</v>
+      </c>
+      <c r="M372" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="373" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>58</v>
+      </c>
+      <c r="B373" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C373" s="7" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D373" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E373" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F373" t="s">
+        <v>1721</v>
+      </c>
+      <c r="G373" t="s">
+        <v>1723</v>
+      </c>
+      <c r="H373" t="s">
+        <v>1724</v>
+      </c>
+      <c r="I373">
+        <v>44.224849125685999</v>
+      </c>
+      <c r="J373">
+        <v>-76.496844849073497</v>
+      </c>
+      <c r="K373" t="s">
+        <v>73</v>
+      </c>
+      <c r="L373" t="s">
+        <v>1740</v>
+      </c>
+      <c r="M373" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="374" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>58</v>
+      </c>
+      <c r="B374" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C374" s="7" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D374" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E374" t="s">
+        <v>1725</v>
+      </c>
+      <c r="F374" t="s">
+        <v>1726</v>
+      </c>
+      <c r="G374" t="s">
+        <v>1727</v>
+      </c>
+      <c r="H374" t="s">
+        <v>1728</v>
+      </c>
+      <c r="I374">
+        <v>44.237285431986102</v>
+      </c>
+      <c r="J374">
+        <v>-76.501168594863302</v>
+      </c>
+      <c r="K374" t="s">
+        <v>73</v>
+      </c>
+      <c r="L374" t="s">
+        <v>1740</v>
+      </c>
+      <c r="M374" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="375" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>58</v>
+      </c>
+      <c r="B375" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C375" s="7" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D375" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E375" t="s">
+        <v>1739</v>
+      </c>
+      <c r="F375" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G375" t="s">
+        <v>1733</v>
+      </c>
+      <c r="H375" t="s">
+        <v>1730</v>
+      </c>
+      <c r="I375">
+        <v>44.228798942422401</v>
+      </c>
+      <c r="J375">
+        <v>-76.494791117197195</v>
+      </c>
+      <c r="K375" t="s">
+        <v>73</v>
+      </c>
+      <c r="L375" t="s">
+        <v>1740</v>
+      </c>
+      <c r="M375" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="376" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>58</v>
+      </c>
+      <c r="B376" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C376" s="7" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D376" t="s">
+        <v>1494</v>
+      </c>
+      <c r="E376" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F376" t="s">
+        <v>1735</v>
+      </c>
+      <c r="G376" t="s">
+        <v>1738</v>
+      </c>
+      <c r="H376" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I376">
+        <v>44.227350606025901</v>
+      </c>
+      <c r="J376">
+        <v>-76.490941431876294</v>
+      </c>
+      <c r="K376" t="s">
+        <v>73</v>
+      </c>
+      <c r="L376" t="s">
+        <v>1740</v>
+      </c>
+      <c r="M376" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="377" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D377" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E377" t="s">
+        <v>1741</v>
+      </c>
+      <c r="F377" t="s">
+        <v>1742</v>
+      </c>
+      <c r="G377" s="8" t="s">
+        <v>1743</v>
+      </c>
+      <c r="H377" t="s">
+        <v>1744</v>
+      </c>
+      <c r="K377" t="s">
+        <v>17</v>
+      </c>
+      <c r="L377" t="s">
+        <v>1740</v>
+      </c>
+      <c r="M377" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="378" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>58</v>
+      </c>
+      <c r="B378" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D378" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E378" t="s">
+        <v>1745</v>
+      </c>
+      <c r="F378" t="s">
+        <v>1746</v>
+      </c>
+      <c r="H378" t="s">
+        <v>1747</v>
+      </c>
+      <c r="K378" t="s">
+        <v>17</v>
+      </c>
+      <c r="L378" t="s">
+        <v>1740</v>
+      </c>
+      <c r="M378" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="379" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>58</v>
+      </c>
+      <c r="B379" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D379" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E379" s="6" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F379" t="s">
+        <v>1750</v>
+      </c>
+      <c r="G379" t="s">
+        <v>1752</v>
+      </c>
+      <c r="H379" t="s">
+        <v>1751</v>
+      </c>
+      <c r="K379" t="s">
+        <v>17</v>
+      </c>
+      <c r="L379" t="s">
+        <v>1740</v>
+      </c>
+      <c r="M379" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="380" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>58</v>
+      </c>
+      <c r="B380" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C380" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D380" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E380" t="s">
+        <v>1753</v>
+      </c>
+      <c r="F380" t="s">
+        <v>1754</v>
+      </c>
+      <c r="G380" t="s">
+        <v>1760</v>
+      </c>
+      <c r="H380" t="s">
+        <v>1756</v>
+      </c>
+      <c r="I380">
+        <v>44.228645231268302</v>
+      </c>
+      <c r="J380">
+        <v>-76.494224815344495</v>
+      </c>
+      <c r="K380" t="s">
+        <v>73</v>
+      </c>
+      <c r="L380" t="s">
+        <v>1740</v>
+      </c>
+      <c r="M380" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="381" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>58</v>
+      </c>
+      <c r="B381" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C381" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D381" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E381" t="s">
+        <v>1757</v>
+      </c>
+      <c r="F381" t="s">
+        <v>1762</v>
+      </c>
+      <c r="G381" t="s">
+        <v>1761</v>
+      </c>
+      <c r="H381" s="9" t="s">
+        <v>1758</v>
+      </c>
+      <c r="I381" s="9">
+        <v>44.228467026303399</v>
+      </c>
+      <c r="J381">
+        <v>-76.495155135582294</v>
+      </c>
+      <c r="K381" t="s">
+        <v>73</v>
+      </c>
+      <c r="L381" t="s">
+        <v>1740</v>
+      </c>
+      <c r="M381" t="s">
+        <v>1740</v>
       </c>
     </row>
   </sheetData>

--- a/assets/canadianMentalHealthResources.xlsx
+++ b/assets/canadianMentalHealthResources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://queensuca-my.sharepoint.com/personal/23nrd2_queensu_ca/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AA1A6F2-3230-4843-9073-272937F158E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{936262D1-E6F1-4D87-A920-A6B83B409F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16980" xr2:uid="{60D886F8-FFE1-F14E-A3CB-AFDAAB1FA1C7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3611" uniqueCount="1914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3584" uniqueCount="1902">
   <si>
     <t>Province</t>
   </si>
@@ -4226,18 +4226,6 @@
     <t>Nunavut</t>
   </si>
   <si>
-    <t>Kamatsiaqtut Nunavut Helpline</t>
-  </si>
-  <si>
-    <t>24/7 anonymous and confidential telephone counselling in English, French, and Inuktitut; staffed by trained volunteers</t>
-  </si>
-  <si>
-    <t>1‑867‑979‑3333 (local), 1‑800‑265‑3333 (toll-free)</t>
-  </si>
-  <si>
-    <t>https://nunavuthelpline.ca</t>
-  </si>
-  <si>
     <t>National Crisis &amp; Distress Support Crisis Helpline</t>
   </si>
   <si>
@@ -4247,9 +4235,6 @@
     <t>https://Crisis &amp; Distress Supportprevention.ca/location/nunavut-kamatsiaqtut-help-line/</t>
   </si>
   <si>
-    <t>Available 24/7 to First Nations, Inuit, and Métis individuals; support in English, French, and Inuktitut upon request</t>
-  </si>
-  <si>
     <t>RCY (Rep for Children and Youth) Mental Health Crisis &amp; Distress Support</t>
   </si>
   <si>
@@ -4262,27 +4247,15 @@
     <t>https://www.rcynu.ca</t>
   </si>
   <si>
+    <t>Cambridge Bay</t>
+  </si>
+  <si>
+    <t>13A Omingmak St., Cambridge Bay, NU X0B 0A1</t>
+  </si>
+  <si>
     <t>Community Counselling</t>
   </si>
   <si>
-    <t>Healing by Talking Program</t>
-  </si>
-  <si>
-    <t>Free telephone counselling service provided by the Government of Nunavut</t>
-  </si>
-  <si>
-    <t>healing@gov.nu.ca</t>
-  </si>
-  <si>
-    <t>https://www.gov.nu.ca/sites/default/files/documents/2023-01/information_sheet_-_getting_help_en_final_1.pdf</t>
-  </si>
-  <si>
-    <t>Cambridge Bay</t>
-  </si>
-  <si>
-    <t>13A Omingmak St., Cambridge Bay, NU X0B 0A1</t>
-  </si>
-  <si>
     <t>Cambridge Bay Wellness Centre</t>
   </si>
   <si>
@@ -4323,15 +4296,6 @@
   </si>
   <si>
     <t>(867) 979-2400</t>
-  </si>
-  <si>
-    <t>Inuusivut Annirnaqtut 2024–2029 (Crisis &amp; Distress Support Prevention Action Plan)</t>
-  </si>
-  <si>
-    <t>Territory-wide strategic plan developed by the Government of Nunavut, NTI, RCMP, Embrace Life Council, and others to reduce Crisis &amp; Distress Support rates and improve mental wellnes</t>
-  </si>
-  <si>
-    <t>https://www.assembly.nu.ca/sites/default/files/2024-10/2024-10-30-HEA-TD-Inuusivut%20Anniraqtut%20Action%20Plan%202024-2029.pdf</t>
   </si>
   <si>
     <t>Saskatchewan</t>
@@ -6287,8 +6251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8E0B34-D33C-AB4E-A291-CAA443D46446}">
   <dimension ref="A1:O416"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G401" workbookViewId="0">
-      <selection activeCell="A416" sqref="A416:XFD416"/>
+    <sheetView tabSelected="1" topLeftCell="G298" workbookViewId="0">
+      <selection activeCell="A299" sqref="A299:XFD299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -16655,32 +16619,18 @@
       <c r="N298" s="8"/>
       <c r="O298" s="8"/>
     </row>
-    <row r="299" spans="1:15" ht="32.25">
-      <c r="A299" s="2" t="s">
-        <v>1395</v>
-      </c>
+    <row r="299" spans="1:15">
+      <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="11"/>
-      <c r="D299" s="8" t="s">
-        <v>1369</v>
-      </c>
-      <c r="E299" s="11" t="s">
-        <v>1396</v>
-      </c>
-      <c r="F299" s="8" t="s">
-        <v>1397</v>
-      </c>
-      <c r="G299" s="11" t="s">
-        <v>1398</v>
-      </c>
-      <c r="I299" s="11" t="s">
-        <v>1399</v>
-      </c>
+      <c r="D299" s="8"/>
+      <c r="E299" s="11"/>
+      <c r="F299" s="8"/>
+      <c r="G299" s="11"/>
+      <c r="I299" s="11"/>
       <c r="M299" s="8"/>
       <c r="N299" s="8"/>
-      <c r="O299" s="8" t="s">
-        <v>1374</v>
-      </c>
+      <c r="O299" s="8"/>
     </row>
     <row r="300" spans="1:15" ht="45.75">
       <c r="A300" s="2" t="s">
@@ -16692,16 +16642,16 @@
         <v>1369</v>
       </c>
       <c r="E300" s="11" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="F300" s="8" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="G300" s="11" t="s">
         <v>1375</v>
       </c>
       <c r="I300" s="11" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="M300" s="8"/>
       <c r="N300" s="8"/>
@@ -16709,32 +16659,18 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="301" spans="1:15" ht="30.75">
-      <c r="A301" s="2" t="s">
-        <v>1395</v>
-      </c>
+    <row r="301" spans="1:15">
+      <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="11"/>
-      <c r="D301" s="8" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E301" s="11" t="s">
-        <v>1384</v>
-      </c>
-      <c r="F301" s="8" t="s">
-        <v>1403</v>
-      </c>
-      <c r="G301" s="11" t="s">
-        <v>1386</v>
-      </c>
-      <c r="I301" s="11" t="s">
-        <v>1387</v>
-      </c>
+      <c r="D301" s="8"/>
+      <c r="E301" s="11"/>
+      <c r="F301" s="8"/>
+      <c r="G301" s="11"/>
+      <c r="I301" s="11"/>
       <c r="M301" s="8"/>
       <c r="N301" s="8"/>
-      <c r="O301" s="8" t="s">
-        <v>1374</v>
-      </c>
+      <c r="O301" s="8"/>
     </row>
     <row r="302" spans="1:15" ht="76.5">
       <c r="A302" s="2" t="s">
@@ -16746,16 +16682,16 @@
         <v>1369</v>
       </c>
       <c r="E302" s="11" t="s">
-        <v>1404</v>
+        <v>1399</v>
       </c>
       <c r="F302" s="8" t="s">
-        <v>1405</v>
+        <v>1400</v>
       </c>
       <c r="G302" s="12" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
       <c r="I302" s="11" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
       <c r="M302" s="8"/>
       <c r="N302" s="8"/>
@@ -16763,54 +16699,40 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="303" spans="1:15" ht="45.75">
-      <c r="A303" s="2" t="s">
-        <v>1395</v>
-      </c>
+    <row r="303" spans="1:15">
+      <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="11"/>
-      <c r="D303" s="8" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E303" s="11" t="s">
-        <v>1409</v>
-      </c>
-      <c r="F303" s="8" t="s">
-        <v>1410</v>
-      </c>
-      <c r="G303" s="11" t="s">
-        <v>1411</v>
-      </c>
-      <c r="I303" s="11" t="s">
-        <v>1412</v>
-      </c>
+      <c r="D303" s="8"/>
+      <c r="E303" s="11"/>
+      <c r="F303" s="8"/>
+      <c r="G303" s="11"/>
+      <c r="I303" s="11"/>
       <c r="M303" s="8"/>
       <c r="N303" s="8"/>
-      <c r="O303" s="8" t="s">
-        <v>1374</v>
-      </c>
+      <c r="O303" s="8"/>
     </row>
     <row r="304" spans="1:15" ht="30.75">
       <c r="A304" s="2" t="s">
         <v>1395</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>1413</v>
+        <v>1403</v>
       </c>
       <c r="C304" s="11" t="s">
-        <v>1414</v>
+        <v>1404</v>
       </c>
       <c r="D304" s="8" t="s">
+        <v>1405</v>
+      </c>
+      <c r="E304" s="11" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F304" s="8" t="s">
+        <v>1407</v>
+      </c>
+      <c r="G304" s="11" t="s">
         <v>1408</v>
-      </c>
-      <c r="E304" s="11" t="s">
-        <v>1415</v>
-      </c>
-      <c r="F304" s="8" t="s">
-        <v>1416</v>
-      </c>
-      <c r="G304" s="11" t="s">
-        <v>1417</v>
       </c>
       <c r="I304" s="11"/>
       <c r="M304" s="8">
@@ -16828,22 +16750,22 @@
         <v>1395</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>1418</v>
+        <v>1409</v>
       </c>
       <c r="C305" s="11" t="s">
-        <v>1419</v>
+        <v>1410</v>
       </c>
       <c r="D305" s="8" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E305" s="11" t="s">
-        <v>1420</v>
+        <v>1411</v>
       </c>
       <c r="F305" s="8" t="s">
-        <v>1416</v>
+        <v>1407</v>
       </c>
       <c r="G305" s="11" t="s">
-        <v>1421</v>
+        <v>1412</v>
       </c>
       <c r="I305" s="11"/>
       <c r="M305" s="8">
@@ -16861,22 +16783,22 @@
         <v>1395</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>1422</v>
+        <v>1413</v>
       </c>
       <c r="C306" s="11" t="s">
-        <v>1423</v>
+        <v>1414</v>
       </c>
       <c r="D306" s="8" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E306" s="11" t="s">
-        <v>1424</v>
+        <v>1415</v>
       </c>
       <c r="F306" s="8" t="s">
+        <v>1407</v>
+      </c>
+      <c r="G306" s="11" t="s">
         <v>1416</v>
-      </c>
-      <c r="G306" s="11" t="s">
-        <v>1425</v>
       </c>
       <c r="I306" s="11"/>
       <c r="M306" s="8">
@@ -16894,22 +16816,22 @@
         <v>1395</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>1422</v>
+        <v>1413</v>
       </c>
       <c r="C307" s="11" t="s">
-        <v>1426</v>
+        <v>1417</v>
       </c>
       <c r="D307" s="8" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E307" s="11" t="s">
-        <v>1427</v>
+        <v>1418</v>
       </c>
       <c r="F307" s="8" t="s">
-        <v>1416</v>
+        <v>1407</v>
       </c>
       <c r="G307" s="11" t="s">
-        <v>1428</v>
+        <v>1419</v>
       </c>
       <c r="I307" s="11"/>
       <c r="M307" s="8">
@@ -16922,53 +16844,41 @@
         <v>29</v>
       </c>
     </row>
-    <row r="308" spans="1:15" ht="91.5">
-      <c r="A308" s="2" t="s">
-        <v>1395</v>
-      </c>
+    <row r="308" spans="1:15">
+      <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="11"/>
-      <c r="D308" s="8" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E308" s="11" t="s">
-        <v>1429</v>
-      </c>
-      <c r="F308" s="8" t="s">
-        <v>1430</v>
-      </c>
+      <c r="D308" s="8"/>
+      <c r="E308" s="11"/>
+      <c r="F308" s="8"/>
       <c r="G308" s="11"/>
-      <c r="I308" s="11" t="s">
-        <v>1431</v>
-      </c>
+      <c r="I308" s="11"/>
       <c r="M308" s="8"/>
       <c r="N308" s="8"/>
-      <c r="O308" s="8" t="s">
-        <v>1374</v>
-      </c>
+      <c r="O308" s="8"/>
     </row>
     <row r="309" spans="1:15" ht="60.75">
       <c r="A309" s="2" t="s">
-        <v>1432</v>
+        <v>1420</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>1433</v>
+        <v>1421</v>
       </c>
       <c r="C309" s="11"/>
       <c r="D309" s="8" t="s">
         <v>1369</v>
       </c>
       <c r="E309" s="11" t="s">
-        <v>1434</v>
+        <v>1422</v>
       </c>
       <c r="F309" s="8" t="s">
-        <v>1435</v>
+        <v>1423</v>
       </c>
       <c r="G309" s="11" t="s">
-        <v>1436</v>
+        <v>1424</v>
       </c>
       <c r="I309" s="11" t="s">
-        <v>1437</v>
+        <v>1425</v>
       </c>
       <c r="M309" s="8"/>
       <c r="N309" s="8"/>
@@ -16978,28 +16888,28 @@
     </row>
     <row r="310" spans="1:15" ht="152.25">
       <c r="A310" s="2" t="s">
-        <v>1432</v>
+        <v>1420</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>1438</v>
+        <v>1426</v>
       </c>
       <c r="C310" s="11" t="s">
-        <v>1439</v>
+        <v>1427</v>
       </c>
       <c r="D310" s="8" t="s">
         <v>1369</v>
       </c>
       <c r="E310" s="11" t="s">
-        <v>1440</v>
+        <v>1428</v>
       </c>
       <c r="F310" s="8" t="s">
-        <v>1441</v>
+        <v>1429</v>
       </c>
       <c r="G310" s="11" t="s">
-        <v>1442</v>
+        <v>1430</v>
       </c>
       <c r="I310" s="11" t="s">
-        <v>1443</v>
+        <v>1431</v>
       </c>
       <c r="M310" s="8">
         <v>52.13317</v>
@@ -17013,7 +16923,7 @@
     </row>
     <row r="311" spans="1:15" ht="45.75">
       <c r="A311" s="2" t="s">
-        <v>1432</v>
+        <v>1420</v>
       </c>
       <c r="B311" s="2"/>
       <c r="C311" s="11"/>
@@ -17021,16 +16931,16 @@
         <v>1369</v>
       </c>
       <c r="E311" s="11" t="s">
-        <v>1444</v>
+        <v>1432</v>
       </c>
       <c r="F311" s="8" t="s">
-        <v>1445</v>
+        <v>1433</v>
       </c>
       <c r="G311" s="11" t="s">
-        <v>1446</v>
+        <v>1434</v>
       </c>
       <c r="I311" s="11" t="s">
-        <v>1447</v>
+        <v>1435</v>
       </c>
       <c r="M311" s="8"/>
       <c r="N311" s="8"/>
@@ -17040,24 +16950,24 @@
     </row>
     <row r="312" spans="1:15" ht="45.75">
       <c r="A312" s="2" t="s">
-        <v>1432</v>
+        <v>1420</v>
       </c>
       <c r="B312" s="2"/>
       <c r="C312" s="11"/>
       <c r="D312" s="8" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E312" s="11" t="s">
-        <v>1448</v>
+        <v>1436</v>
       </c>
       <c r="F312" s="8" t="s">
-        <v>1449</v>
+        <v>1437</v>
       </c>
       <c r="G312" s="11" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="I312" s="11" t="s">
-        <v>1451</v>
+        <v>1439</v>
       </c>
       <c r="M312" s="8"/>
       <c r="N312" s="8"/>
@@ -17067,7 +16977,7 @@
     </row>
     <row r="313" spans="1:15" ht="45.75">
       <c r="A313" s="2" t="s">
-        <v>1452</v>
+        <v>1440</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" s="11"/>
@@ -17075,16 +16985,16 @@
         <v>1369</v>
       </c>
       <c r="E313" s="11" t="s">
-        <v>1453</v>
+        <v>1441</v>
       </c>
       <c r="F313" s="8" t="s">
-        <v>1454</v>
+        <v>1442</v>
       </c>
       <c r="G313" s="11" t="s">
-        <v>1455</v>
+        <v>1443</v>
       </c>
       <c r="I313" s="11" t="s">
-        <v>1456</v>
+        <v>1444</v>
       </c>
       <c r="M313" s="8"/>
       <c r="N313" s="8"/>
@@ -17094,7 +17004,7 @@
     </row>
     <row r="314" spans="1:15" ht="45.75">
       <c r="A314" s="2" t="s">
-        <v>1452</v>
+        <v>1440</v>
       </c>
       <c r="B314" s="2"/>
       <c r="C314" s="11"/>
@@ -17102,16 +17012,16 @@
         <v>1369</v>
       </c>
       <c r="E314" s="11" t="s">
-        <v>1457</v>
+        <v>1445</v>
       </c>
       <c r="F314" s="8" t="s">
-        <v>1458</v>
+        <v>1446</v>
       </c>
       <c r="G314" s="11" t="s">
-        <v>1459</v>
+        <v>1447</v>
       </c>
       <c r="I314" s="11" t="s">
-        <v>1460</v>
+        <v>1448</v>
       </c>
       <c r="M314" s="8"/>
       <c r="N314" s="8"/>
@@ -17121,7 +17031,7 @@
     </row>
     <row r="315" spans="1:15" ht="30.75">
       <c r="A315" s="2" t="s">
-        <v>1452</v>
+        <v>1440</v>
       </c>
       <c r="B315" s="2"/>
       <c r="C315" s="11"/>
@@ -17129,16 +17039,16 @@
         <v>1378</v>
       </c>
       <c r="E315" s="11" t="s">
-        <v>1461</v>
+        <v>1449</v>
       </c>
       <c r="F315" s="8" t="s">
-        <v>1462</v>
+        <v>1450</v>
       </c>
       <c r="G315" s="11" t="s">
-        <v>1463</v>
+        <v>1451</v>
       </c>
       <c r="I315" s="11" t="s">
-        <v>1464</v>
+        <v>1452</v>
       </c>
       <c r="M315" s="8"/>
       <c r="N315" s="8"/>
@@ -17148,28 +17058,28 @@
     </row>
     <row r="316" spans="1:15" ht="30.75">
       <c r="A316" s="2" t="s">
-        <v>1452</v>
+        <v>1440</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>1465</v>
+        <v>1453</v>
       </c>
       <c r="C316" s="11" t="s">
-        <v>1466</v>
+        <v>1454</v>
       </c>
       <c r="D316" s="8" t="s">
-        <v>1467</v>
+        <v>1455</v>
       </c>
       <c r="E316" s="11" t="s">
-        <v>1468</v>
+        <v>1456</v>
       </c>
       <c r="F316" s="8" t="s">
-        <v>1469</v>
+        <v>1457</v>
       </c>
       <c r="G316" s="11" t="s">
-        <v>1470</v>
+        <v>1458</v>
       </c>
       <c r="I316" s="11" t="s">
-        <v>1471</v>
+        <v>1459</v>
       </c>
       <c r="M316" s="8">
         <v>60.73265</v>
@@ -17183,7 +17093,7 @@
     </row>
     <row r="317" spans="1:15" ht="45.75">
       <c r="A317" s="2" t="s">
-        <v>1472</v>
+        <v>1460</v>
       </c>
       <c r="B317" s="2"/>
       <c r="C317" s="11"/>
@@ -17191,16 +17101,16 @@
         <v>1369</v>
       </c>
       <c r="E317" s="11" t="s">
-        <v>1473</v>
+        <v>1461</v>
       </c>
       <c r="F317" s="8" t="s">
-        <v>1474</v>
+        <v>1462</v>
       </c>
       <c r="G317" s="11" t="s">
-        <v>1475</v>
+        <v>1463</v>
       </c>
       <c r="I317" s="11" t="s">
-        <v>1476</v>
+        <v>1464</v>
       </c>
       <c r="M317" s="8"/>
       <c r="N317" s="8"/>
@@ -17210,7 +17120,7 @@
     </row>
     <row r="318" spans="1:15" ht="30.75">
       <c r="A318" s="2" t="s">
-        <v>1472</v>
+        <v>1460</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" s="11"/>
@@ -17218,16 +17128,16 @@
         <v>1369</v>
       </c>
       <c r="E318" s="11" t="s">
-        <v>1477</v>
+        <v>1465</v>
       </c>
       <c r="F318" s="8" t="s">
-        <v>1478</v>
+        <v>1466</v>
       </c>
       <c r="G318" s="11">
         <v>211</v>
       </c>
       <c r="I318" s="11" t="s">
-        <v>1479</v>
+        <v>1467</v>
       </c>
       <c r="M318" s="8"/>
       <c r="N318" s="8"/>
@@ -17237,7 +17147,7 @@
     </row>
     <row r="319" spans="1:15" ht="30.75">
       <c r="A319" s="2" t="s">
-        <v>1472</v>
+        <v>1460</v>
       </c>
       <c r="B319" s="2"/>
       <c r="C319" s="11"/>
@@ -17245,16 +17155,16 @@
         <v>1369</v>
       </c>
       <c r="E319" s="11" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
       <c r="F319" s="8" t="s">
-        <v>1481</v>
+        <v>1469</v>
       </c>
       <c r="G319" s="11">
         <v>988</v>
       </c>
       <c r="I319" s="11" t="s">
-        <v>1482</v>
+        <v>1470</v>
       </c>
       <c r="M319" s="8"/>
       <c r="N319" s="8"/>
@@ -17264,7 +17174,7 @@
     </row>
     <row r="320" spans="1:15" ht="60.75">
       <c r="A320" s="2" t="s">
-        <v>1472</v>
+        <v>1460</v>
       </c>
       <c r="B320" s="2"/>
       <c r="C320" s="11"/>
@@ -17272,16 +17182,16 @@
         <v>1369</v>
       </c>
       <c r="E320" s="11" t="s">
-        <v>1483</v>
+        <v>1471</v>
       </c>
       <c r="F320" s="8" t="s">
-        <v>1484</v>
+        <v>1472</v>
       </c>
       <c r="G320" s="11" t="s">
-        <v>1485</v>
+        <v>1473</v>
       </c>
       <c r="I320" s="11" t="s">
-        <v>1486</v>
+        <v>1474</v>
       </c>
       <c r="M320" s="8"/>
       <c r="N320" s="8"/>
@@ -17291,22 +17201,22 @@
     </row>
     <row r="321" spans="1:15" ht="45.75">
       <c r="A321" s="2" t="s">
-        <v>1472</v>
+        <v>1460</v>
       </c>
       <c r="B321" s="2"/>
       <c r="C321" s="11"/>
       <c r="D321" s="8" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E321" s="11" t="s">
-        <v>1487</v>
+        <v>1475</v>
       </c>
       <c r="F321" s="8" t="s">
-        <v>1488</v>
+        <v>1476</v>
       </c>
       <c r="G321" s="11"/>
       <c r="I321" s="11" t="s">
-        <v>1489</v>
+        <v>1477</v>
       </c>
       <c r="M321" s="8"/>
       <c r="N321" s="8"/>
@@ -17316,7 +17226,7 @@
     </row>
     <row r="322" spans="1:15" ht="45.75">
       <c r="A322" s="2" t="s">
-        <v>1472</v>
+        <v>1460</v>
       </c>
       <c r="B322" s="2"/>
       <c r="C322" s="11"/>
@@ -17324,14 +17234,14 @@
         <v>1369</v>
       </c>
       <c r="E322" s="11" t="s">
-        <v>1490</v>
+        <v>1478</v>
       </c>
       <c r="F322" s="8" t="s">
-        <v>1491</v>
+        <v>1479</v>
       </c>
       <c r="G322" s="11"/>
       <c r="I322" s="11" t="s">
-        <v>1492</v>
+        <v>1480</v>
       </c>
       <c r="M322" s="8"/>
       <c r="N322" s="8"/>
@@ -17341,7 +17251,7 @@
     </row>
     <row r="323" spans="1:15" ht="30.75">
       <c r="A323" s="2" t="s">
-        <v>1493</v>
+        <v>1481</v>
       </c>
       <c r="B323" s="2"/>
       <c r="C323" s="11"/>
@@ -17349,13 +17259,13 @@
         <v>1369</v>
       </c>
       <c r="E323" s="11" t="s">
-        <v>1494</v>
+        <v>1482</v>
       </c>
       <c r="F323" s="8" t="s">
-        <v>1495</v>
+        <v>1483</v>
       </c>
       <c r="G323" s="11" t="s">
-        <v>1496</v>
+        <v>1484</v>
       </c>
       <c r="I323" s="11"/>
       <c r="M323" s="8"/>
@@ -17366,7 +17276,7 @@
     </row>
     <row r="324" spans="1:15">
       <c r="A324" s="2" t="s">
-        <v>1493</v>
+        <v>1481</v>
       </c>
       <c r="B324" s="2"/>
       <c r="C324" s="11"/>
@@ -17374,16 +17284,16 @@
         <v>1369</v>
       </c>
       <c r="E324" s="11" t="s">
-        <v>1497</v>
+        <v>1485</v>
       </c>
       <c r="F324" s="8" t="s">
-        <v>1498</v>
+        <v>1486</v>
       </c>
       <c r="G324" s="11" t="s">
-        <v>1497</v>
+        <v>1485</v>
       </c>
       <c r="I324" s="11" t="s">
-        <v>1499</v>
+        <v>1487</v>
       </c>
       <c r="M324" s="8"/>
       <c r="N324" s="8"/>
@@ -17393,7 +17303,7 @@
     </row>
     <row r="325" spans="1:15" ht="30.75">
       <c r="A325" s="2" t="s">
-        <v>1493</v>
+        <v>1481</v>
       </c>
       <c r="B325" s="2"/>
       <c r="C325" s="11"/>
@@ -17401,16 +17311,16 @@
         <v>1369</v>
       </c>
       <c r="E325" s="11" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
       <c r="F325" s="8" t="s">
-        <v>1501</v>
+        <v>1489</v>
       </c>
       <c r="G325" s="11" t="s">
-        <v>1502</v>
+        <v>1490</v>
       </c>
       <c r="I325" s="11" t="s">
-        <v>1503</v>
+        <v>1491</v>
       </c>
       <c r="M325" s="8"/>
       <c r="N325" s="8"/>
@@ -17420,7 +17330,7 @@
     </row>
     <row r="326" spans="1:15" ht="45.75">
       <c r="A326" s="2" t="s">
-        <v>1493</v>
+        <v>1481</v>
       </c>
       <c r="B326" s="2"/>
       <c r="C326" s="11"/>
@@ -17428,16 +17338,16 @@
         <v>1369</v>
       </c>
       <c r="E326" s="11" t="s">
-        <v>1504</v>
+        <v>1492</v>
       </c>
       <c r="F326" s="8" t="s">
-        <v>1505</v>
+        <v>1493</v>
       </c>
       <c r="G326" s="11">
         <v>811</v>
       </c>
       <c r="I326" s="11" t="s">
-        <v>1506</v>
+        <v>1494</v>
       </c>
       <c r="M326" s="8"/>
       <c r="N326" s="8"/>
@@ -17447,7 +17357,7 @@
     </row>
     <row r="327" spans="1:15" ht="45.75">
       <c r="A327" s="2" t="s">
-        <v>1493</v>
+        <v>1481</v>
       </c>
       <c r="B327" s="2"/>
       <c r="C327" s="11"/>
@@ -17455,16 +17365,16 @@
         <v>1383</v>
       </c>
       <c r="E327" s="11" t="s">
-        <v>1507</v>
+        <v>1495</v>
       </c>
       <c r="F327" s="8" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
       <c r="G327" s="11" t="s">
-        <v>1509</v>
+        <v>1497</v>
       </c>
       <c r="I327" s="11" t="s">
-        <v>1510</v>
+        <v>1498</v>
       </c>
       <c r="M327" s="8"/>
       <c r="N327" s="8"/>
@@ -17474,7 +17384,7 @@
     </row>
     <row r="328" spans="1:15">
       <c r="A328" s="2" t="s">
-        <v>1493</v>
+        <v>1481</v>
       </c>
       <c r="B328" s="2"/>
       <c r="C328" s="11"/>
@@ -17482,16 +17392,16 @@
         <v>1378</v>
       </c>
       <c r="E328" s="11" t="s">
-        <v>1511</v>
+        <v>1499</v>
       </c>
       <c r="F328" s="8" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
       <c r="G328" s="11" t="s">
-        <v>1513</v>
+        <v>1501</v>
       </c>
       <c r="I328" s="11" t="s">
-        <v>1514</v>
+        <v>1502</v>
       </c>
       <c r="M328" s="8"/>
       <c r="N328" s="8"/>
@@ -17501,7 +17411,7 @@
     </row>
     <row r="329" spans="1:15" ht="30.75">
       <c r="A329" s="2" t="s">
-        <v>1493</v>
+        <v>1481</v>
       </c>
       <c r="B329" s="2"/>
       <c r="C329" s="11"/>
@@ -17512,13 +17422,13 @@
         <v>1384</v>
       </c>
       <c r="F329" s="8" t="s">
-        <v>1515</v>
+        <v>1503</v>
       </c>
       <c r="G329" s="11" t="s">
-        <v>1516</v>
+        <v>1504</v>
       </c>
       <c r="I329" s="11" t="s">
-        <v>1517</v>
+        <v>1505</v>
       </c>
       <c r="M329" s="8"/>
       <c r="N329" s="8"/>
@@ -17528,25 +17438,25 @@
     </row>
     <row r="330" spans="1:15" ht="45.75">
       <c r="A330" s="2" t="s">
-        <v>1493</v>
+        <v>1481</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>1518</v>
+        <v>1506</v>
       </c>
       <c r="C330" s="11" t="s">
-        <v>1519</v>
+        <v>1507</v>
       </c>
       <c r="D330" s="8" t="s">
         <v>1369</v>
       </c>
       <c r="E330" s="11" t="s">
-        <v>1520</v>
+        <v>1508</v>
       </c>
       <c r="F330" s="8" t="s">
-        <v>1521</v>
+        <v>1509</v>
       </c>
       <c r="G330" s="11" t="s">
-        <v>1522</v>
+        <v>1510</v>
       </c>
       <c r="I330" s="11"/>
       <c r="M330" s="8">
@@ -17561,28 +17471,28 @@
     </row>
     <row r="331" spans="1:15" ht="30.75">
       <c r="A331" s="2" t="s">
-        <v>1523</v>
+        <v>1511</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>1524</v>
+        <v>1512</v>
       </c>
       <c r="C331" s="11" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
       <c r="D331" s="8" t="s">
         <v>1383</v>
       </c>
       <c r="E331" s="11" t="s">
-        <v>1526</v>
+        <v>1514</v>
       </c>
       <c r="F331" s="8" t="s">
-        <v>1527</v>
+        <v>1515</v>
       </c>
       <c r="G331" s="11" t="s">
-        <v>1528</v>
+        <v>1516</v>
       </c>
       <c r="I331" s="11" t="s">
-        <v>1529</v>
+        <v>1517</v>
       </c>
       <c r="M331" s="8">
         <v>49.905729999999998</v>
@@ -17596,7 +17506,7 @@
     </row>
     <row r="332" spans="1:15" ht="30.75">
       <c r="A332" s="2" t="s">
-        <v>1523</v>
+        <v>1511</v>
       </c>
       <c r="B332" s="2"/>
       <c r="C332" s="11"/>
@@ -17604,16 +17514,16 @@
         <v>1369</v>
       </c>
       <c r="E332" s="11" t="s">
-        <v>1530</v>
+        <v>1518</v>
       </c>
       <c r="F332" s="8" t="s">
-        <v>1531</v>
+        <v>1519</v>
       </c>
       <c r="G332" s="11">
         <v>811</v>
       </c>
       <c r="I332" s="11" t="s">
-        <v>1532</v>
+        <v>1520</v>
       </c>
       <c r="M332" s="8"/>
       <c r="N332" s="8"/>
@@ -17623,24 +17533,24 @@
     </row>
     <row r="333" spans="1:15">
       <c r="A333" s="2" t="s">
-        <v>1523</v>
+        <v>1511</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>1524</v>
+        <v>1512</v>
       </c>
       <c r="C333" s="11"/>
       <c r="D333" s="8" t="s">
         <v>1369</v>
       </c>
       <c r="E333" s="11" t="s">
-        <v>1533</v>
+        <v>1521</v>
       </c>
       <c r="F333" s="8" t="s">
-        <v>1534</v>
+        <v>1522</v>
       </c>
       <c r="G333" s="11"/>
       <c r="I333" s="11" t="s">
-        <v>1535</v>
+        <v>1523</v>
       </c>
       <c r="M333" s="8"/>
       <c r="N333" s="8"/>
@@ -17650,26 +17560,26 @@
     </row>
     <row r="334" spans="1:15" ht="45.75">
       <c r="A334" s="2" t="s">
-        <v>1523</v>
+        <v>1511</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>1536</v>
+        <v>1524</v>
       </c>
       <c r="C334" s="11"/>
       <c r="D334" s="8" t="s">
         <v>1369</v>
       </c>
       <c r="E334" s="11" t="s">
-        <v>1537</v>
+        <v>1525</v>
       </c>
       <c r="F334" s="8" t="s">
-        <v>1538</v>
+        <v>1526</v>
       </c>
       <c r="G334" s="11" t="s">
-        <v>1539</v>
+        <v>1527</v>
       </c>
       <c r="I334" s="11" t="s">
-        <v>1540</v>
+        <v>1528</v>
       </c>
       <c r="M334" s="8"/>
       <c r="N334" s="8"/>
@@ -17679,7 +17589,7 @@
     </row>
     <row r="335" spans="1:15" ht="45.75">
       <c r="A335" s="2" t="s">
-        <v>1541</v>
+        <v>1529</v>
       </c>
       <c r="B335" s="2"/>
       <c r="C335" s="11"/>
@@ -17687,16 +17597,16 @@
         <v>1378</v>
       </c>
       <c r="E335" s="11" t="s">
-        <v>1542</v>
+        <v>1530</v>
       </c>
       <c r="F335" s="8" t="s">
-        <v>1543</v>
+        <v>1531</v>
       </c>
       <c r="G335" s="11" t="s">
-        <v>1544</v>
+        <v>1532</v>
       </c>
       <c r="I335" s="11" t="s">
-        <v>1545</v>
+        <v>1533</v>
       </c>
       <c r="M335" s="8"/>
       <c r="N335" s="8"/>
@@ -17706,7 +17616,7 @@
     </row>
     <row r="336" spans="1:15" ht="30.75">
       <c r="A336" s="2" t="s">
-        <v>1546</v>
+        <v>1534</v>
       </c>
       <c r="B336" s="2"/>
       <c r="C336" s="11"/>
@@ -17714,14 +17624,14 @@
         <v>1369</v>
       </c>
       <c r="E336" s="11" t="s">
-        <v>1547</v>
+        <v>1535</v>
       </c>
       <c r="F336" s="8" t="s">
-        <v>1548</v>
+        <v>1536</v>
       </c>
       <c r="G336" s="11"/>
       <c r="I336" s="11" t="s">
-        <v>1549</v>
+        <v>1537</v>
       </c>
       <c r="M336" s="8"/>
       <c r="N336" s="8"/>
@@ -17731,7 +17641,7 @@
     </row>
     <row r="337" spans="1:15" ht="30.75">
       <c r="A337" s="2" t="s">
-        <v>1546</v>
+        <v>1534</v>
       </c>
       <c r="B337" s="2"/>
       <c r="C337" s="11"/>
@@ -17739,14 +17649,14 @@
         <v>1369</v>
       </c>
       <c r="E337" s="11" t="s">
-        <v>1550</v>
+        <v>1538</v>
       </c>
       <c r="F337" s="8" t="s">
-        <v>1551</v>
+        <v>1539</v>
       </c>
       <c r="G337" s="11"/>
       <c r="I337" s="11" t="s">
-        <v>1552</v>
+        <v>1540</v>
       </c>
       <c r="M337" s="8"/>
       <c r="N337" s="8"/>
@@ -17756,26 +17666,26 @@
     </row>
     <row r="338" spans="1:15" ht="30.75">
       <c r="A338" s="2" t="s">
-        <v>1546</v>
+        <v>1534</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>1553</v>
+        <v>1541</v>
       </c>
       <c r="C338" s="11" t="s">
-        <v>1554</v>
+        <v>1542</v>
       </c>
       <c r="D338" s="8" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E338" s="11" t="s">
-        <v>1555</v>
+        <v>1543</v>
       </c>
       <c r="F338" s="8" t="s">
-        <v>1556</v>
+        <v>1544</v>
       </c>
       <c r="G338" s="11"/>
       <c r="I338" s="11" t="s">
-        <v>1557</v>
+        <v>1545</v>
       </c>
       <c r="M338" s="8">
         <v>46.194569999999999</v>
@@ -17789,7 +17699,7 @@
     </row>
     <row r="339" spans="1:15" ht="30.75">
       <c r="A339" s="2" t="s">
-        <v>1546</v>
+        <v>1534</v>
       </c>
       <c r="B339" s="2"/>
       <c r="C339" s="11"/>
@@ -17800,13 +17710,13 @@
         <v>1384</v>
       </c>
       <c r="F339" s="8" t="s">
-        <v>1558</v>
+        <v>1546</v>
       </c>
       <c r="G339" s="11" t="s">
         <v>1386</v>
       </c>
       <c r="I339" s="11" t="s">
-        <v>1559</v>
+        <v>1547</v>
       </c>
       <c r="M339" s="8"/>
       <c r="N339" s="8"/>
@@ -17816,7 +17726,7 @@
     </row>
     <row r="340" spans="1:15">
       <c r="A340" s="2" t="s">
-        <v>1546</v>
+        <v>1534</v>
       </c>
       <c r="B340" s="2"/>
       <c r="C340" s="11"/>
@@ -17824,16 +17734,16 @@
         <v>1378</v>
       </c>
       <c r="E340" s="11" t="s">
-        <v>1511</v>
+        <v>1499</v>
       </c>
       <c r="F340" s="8" t="s">
-        <v>1560</v>
+        <v>1548</v>
       </c>
       <c r="G340" s="11" t="s">
-        <v>1513</v>
+        <v>1501</v>
       </c>
       <c r="I340" s="11" t="s">
-        <v>1561</v>
+        <v>1549</v>
       </c>
       <c r="M340" s="8"/>
       <c r="N340" s="8"/>
@@ -17843,7 +17753,7 @@
     </row>
     <row r="341" spans="1:15">
       <c r="A341" s="2" t="s">
-        <v>1562</v>
+        <v>1550</v>
       </c>
       <c r="B341" s="2"/>
       <c r="C341" s="11"/>
@@ -17851,16 +17761,16 @@
         <v>1378</v>
       </c>
       <c r="E341" s="11" t="s">
-        <v>1511</v>
+        <v>1499</v>
       </c>
       <c r="F341" s="8" t="s">
-        <v>1563</v>
+        <v>1551</v>
       </c>
       <c r="G341" s="11" t="s">
-        <v>1564</v>
+        <v>1552</v>
       </c>
       <c r="I341" s="11" t="s">
-        <v>1561</v>
+        <v>1549</v>
       </c>
       <c r="M341" s="8"/>
       <c r="N341" s="8"/>
@@ -17870,7 +17780,7 @@
     </row>
     <row r="342" spans="1:15" ht="30.75">
       <c r="A342" s="2" t="s">
-        <v>1565</v>
+        <v>1553</v>
       </c>
       <c r="B342" s="2"/>
       <c r="C342" s="11"/>
@@ -17878,16 +17788,16 @@
         <v>1378</v>
       </c>
       <c r="E342" s="11" t="s">
-        <v>1511</v>
+        <v>1499</v>
       </c>
       <c r="F342" s="8" t="s">
-        <v>1566</v>
+        <v>1554</v>
       </c>
       <c r="G342" s="11" t="s">
-        <v>1513</v>
+        <v>1501</v>
       </c>
       <c r="I342" s="11" t="s">
-        <v>1567</v>
+        <v>1555</v>
       </c>
       <c r="M342" s="8"/>
       <c r="N342" s="8"/>
@@ -17897,7 +17807,7 @@
     </row>
     <row r="343" spans="1:15" ht="30.75">
       <c r="A343" s="2" t="s">
-        <v>1568</v>
+        <v>1556</v>
       </c>
       <c r="B343" s="2"/>
       <c r="C343" s="11"/>
@@ -17905,16 +17815,16 @@
         <v>1378</v>
       </c>
       <c r="E343" s="11" t="s">
-        <v>1511</v>
+        <v>1499</v>
       </c>
       <c r="F343" s="8" t="s">
-        <v>1569</v>
+        <v>1557</v>
       </c>
       <c r="G343" s="11" t="s">
-        <v>1570</v>
+        <v>1558</v>
       </c>
       <c r="I343" s="11" t="s">
-        <v>1567</v>
+        <v>1555</v>
       </c>
       <c r="M343" s="8"/>
       <c r="N343" s="8"/>
@@ -17924,28 +17834,28 @@
     </row>
     <row r="344" spans="1:15" ht="60.75">
       <c r="A344" s="2" t="s">
-        <v>1571</v>
+        <v>1559</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>1572</v>
+        <v>1560</v>
       </c>
       <c r="C344" s="11" t="s">
-        <v>1573</v>
+        <v>1561</v>
       </c>
       <c r="D344" s="8" t="s">
         <v>1369</v>
       </c>
       <c r="E344" s="11" t="s">
-        <v>1574</v>
+        <v>1562</v>
       </c>
       <c r="F344" s="8" t="s">
-        <v>1575</v>
+        <v>1563</v>
       </c>
       <c r="G344" s="11" t="s">
         <v>289</v>
       </c>
       <c r="I344" s="11" t="s">
-        <v>1576</v>
+        <v>1564</v>
       </c>
       <c r="M344" s="8">
         <v>44.233800000000002</v>
@@ -17959,28 +17869,28 @@
     </row>
     <row r="345" spans="1:15">
       <c r="A345" s="2" t="s">
-        <v>1523</v>
+        <v>1511</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>1524</v>
+        <v>1512</v>
       </c>
       <c r="C345" s="11" t="s">
-        <v>1577</v>
+        <v>1565</v>
       </c>
       <c r="D345" s="8" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E345" s="11" t="s">
-        <v>1578</v>
+        <v>1566</v>
       </c>
       <c r="F345" s="8" t="s">
-        <v>1579</v>
+        <v>1567</v>
       </c>
       <c r="G345" s="11" t="s">
-        <v>1580</v>
+        <v>1568</v>
       </c>
       <c r="I345" s="11" t="s">
-        <v>1581</v>
+        <v>1569</v>
       </c>
       <c r="M345" s="8">
         <v>49.263550000000002</v>
@@ -17994,28 +17904,28 @@
     </row>
     <row r="346" spans="1:15" ht="45.75">
       <c r="A346" s="2" t="s">
-        <v>1493</v>
+        <v>1481</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>1582</v>
+        <v>1570</v>
       </c>
       <c r="C346" s="11" t="s">
-        <v>1583</v>
+        <v>1571</v>
       </c>
       <c r="D346" s="8" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E346" s="11" t="s">
-        <v>1584</v>
+        <v>1572</v>
       </c>
       <c r="F346" s="8" t="s">
-        <v>1585</v>
+        <v>1573</v>
       </c>
       <c r="G346" s="11" t="s">
-        <v>1586</v>
+        <v>1574</v>
       </c>
       <c r="I346" s="11" t="s">
-        <v>1587</v>
+        <v>1575</v>
       </c>
       <c r="M346" s="8">
         <v>51.078609999999998</v>
@@ -18029,28 +17939,28 @@
     </row>
     <row r="347" spans="1:15" ht="30.75">
       <c r="A347" s="2" t="s">
-        <v>1432</v>
+        <v>1420</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>1438</v>
+        <v>1426</v>
       </c>
       <c r="C347" s="11" t="s">
-        <v>1588</v>
+        <v>1576</v>
       </c>
       <c r="D347" s="8" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E347" s="11" t="s">
-        <v>1589</v>
+        <v>1577</v>
       </c>
       <c r="F347" s="8" t="s">
-        <v>1590</v>
+        <v>1578</v>
       </c>
       <c r="G347" s="11" t="s">
-        <v>1591</v>
+        <v>1579</v>
       </c>
       <c r="I347" s="11" t="s">
-        <v>1592</v>
+        <v>1580</v>
       </c>
       <c r="M347" s="8">
         <v>52.132910000000003</v>
@@ -18064,28 +17974,28 @@
     </row>
     <row r="348" spans="1:15" ht="30.75">
       <c r="A348" s="2" t="s">
-        <v>1472</v>
+        <v>1460</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>1593</v>
+        <v>1581</v>
       </c>
       <c r="C348" s="11" t="s">
-        <v>1594</v>
+        <v>1582</v>
       </c>
       <c r="D348" s="8" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E348" s="11" t="s">
-        <v>1595</v>
+        <v>1583</v>
       </c>
       <c r="F348" s="8" t="s">
-        <v>1596</v>
+        <v>1584</v>
       </c>
       <c r="G348" s="11" t="s">
-        <v>1597</v>
+        <v>1585</v>
       </c>
       <c r="I348" s="11" t="s">
-        <v>1598</v>
+        <v>1586</v>
       </c>
       <c r="M348" s="8">
         <v>49.892099999999999</v>
@@ -18099,28 +18009,28 @@
     </row>
     <row r="349" spans="1:15" ht="30.75">
       <c r="A349" s="2" t="s">
-        <v>1571</v>
+        <v>1559</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>1599</v>
+        <v>1587</v>
       </c>
       <c r="C349" s="11" t="s">
-        <v>1600</v>
+        <v>1588</v>
       </c>
       <c r="D349" s="8" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E349" s="11" t="s">
-        <v>1601</v>
+        <v>1589</v>
       </c>
       <c r="F349" s="8" t="s">
-        <v>1602</v>
+        <v>1590</v>
       </c>
       <c r="G349" s="11" t="s">
-        <v>1603</v>
+        <v>1591</v>
       </c>
       <c r="I349" s="11" t="s">
-        <v>1604</v>
+        <v>1592</v>
       </c>
       <c r="M349" s="8">
         <v>43.661929999999998</v>
@@ -18134,26 +18044,26 @@
     </row>
     <row r="350" spans="1:15" ht="45.75">
       <c r="A350" s="2" t="s">
-        <v>1605</v>
+        <v>1593</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>1606</v>
+        <v>1594</v>
       </c>
       <c r="C350" s="11" t="s">
-        <v>1607</v>
+        <v>1595</v>
       </c>
       <c r="D350" s="8" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E350" s="11" t="s">
-        <v>1608</v>
+        <v>1596</v>
       </c>
       <c r="F350" s="8" t="s">
-        <v>1609</v>
+        <v>1597</v>
       </c>
       <c r="G350" s="11"/>
       <c r="I350" s="11" t="s">
-        <v>1610</v>
+        <v>1598</v>
       </c>
       <c r="M350" s="8">
         <v>45.556550000000001</v>
@@ -18167,28 +18077,28 @@
     </row>
     <row r="351" spans="1:15" ht="60.75">
       <c r="A351" s="2" t="s">
-        <v>1565</v>
+        <v>1553</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>1611</v>
+        <v>1599</v>
       </c>
       <c r="C351" s="11" t="s">
-        <v>1612</v>
+        <v>1600</v>
       </c>
       <c r="D351" s="8" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E351" s="11" t="s">
-        <v>1613</v>
+        <v>1601</v>
       </c>
       <c r="F351" s="8" t="s">
-        <v>1614</v>
+        <v>1602</v>
       </c>
       <c r="G351" s="11" t="s">
-        <v>1615</v>
+        <v>1603</v>
       </c>
       <c r="I351" s="11" t="s">
-        <v>1616</v>
+        <v>1604</v>
       </c>
       <c r="M351" s="8">
         <v>46.236260000000001</v>
@@ -18202,28 +18112,28 @@
     </row>
     <row r="352" spans="1:15" ht="45.75">
       <c r="A352" s="2" t="s">
-        <v>1523</v>
+        <v>1511</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>1524</v>
+        <v>1512</v>
       </c>
       <c r="C352" s="11" t="s">
-        <v>1617</v>
+        <v>1605</v>
       </c>
       <c r="D352" s="8" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E352" s="11" t="s">
-        <v>1618</v>
+        <v>1606</v>
       </c>
       <c r="F352" s="8" t="s">
-        <v>1619</v>
+        <v>1607</v>
       </c>
       <c r="G352" s="11" t="s">
-        <v>1620</v>
+        <v>1608</v>
       </c>
       <c r="I352" s="11" t="s">
-        <v>1621</v>
+        <v>1609</v>
       </c>
       <c r="M352" s="8">
         <v>49.264749999999999</v>
@@ -18237,28 +18147,28 @@
     </row>
     <row r="353" spans="1:15" ht="30.75">
       <c r="A353" s="2" t="s">
-        <v>1523</v>
+        <v>1511</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>1524</v>
+        <v>1512</v>
       </c>
       <c r="C353" s="11" t="s">
-        <v>1622</v>
+        <v>1610</v>
       </c>
       <c r="D353" s="8" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E353" s="11" t="s">
-        <v>1623</v>
+        <v>1611</v>
       </c>
       <c r="F353" s="8" t="s">
-        <v>1624</v>
+        <v>1612</v>
       </c>
       <c r="G353" s="11" t="s">
-        <v>1625</v>
+        <v>1613</v>
       </c>
       <c r="I353" s="11" t="s">
-        <v>1626</v>
+        <v>1614</v>
       </c>
       <c r="M353" s="8">
         <v>49.264270000000003</v>
@@ -18272,28 +18182,28 @@
     </row>
     <row r="354" spans="1:15" ht="30.75">
       <c r="A354" s="2" t="s">
-        <v>1493</v>
+        <v>1481</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>1582</v>
+        <v>1570</v>
       </c>
       <c r="C354" s="11" t="s">
-        <v>1627</v>
+        <v>1615</v>
       </c>
       <c r="D354" s="8" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E354" s="11" t="s">
-        <v>1628</v>
+        <v>1616</v>
       </c>
       <c r="F354" s="8" t="s">
-        <v>1629</v>
+        <v>1617</v>
       </c>
       <c r="G354" s="11" t="s">
-        <v>1630</v>
+        <v>1618</v>
       </c>
       <c r="I354" s="11" t="s">
-        <v>1631</v>
+        <v>1619</v>
       </c>
       <c r="M354" s="8">
         <v>50.910469999999997</v>
@@ -18307,31 +18217,31 @@
     </row>
     <row r="355" spans="1:15" ht="30.75">
       <c r="A355" s="2" t="s">
-        <v>1493</v>
+        <v>1481</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>1518</v>
+        <v>1506</v>
       </c>
       <c r="C355" s="11" t="s">
-        <v>1632</v>
+        <v>1620</v>
       </c>
       <c r="D355" s="8" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E355" s="11" t="s">
-        <v>1633</v>
+        <v>1621</v>
       </c>
       <c r="F355" s="8" t="s">
-        <v>1634</v>
+        <v>1622</v>
       </c>
       <c r="G355" s="11" t="s">
-        <v>1635</v>
+        <v>1623</v>
       </c>
       <c r="I355" s="11" t="s">
-        <v>1636</v>
+        <v>1624</v>
       </c>
       <c r="M355" s="8" t="s">
-        <v>1637</v>
+        <v>1625</v>
       </c>
       <c r="N355" s="8">
         <v>-113.45699999999999</v>
@@ -18342,28 +18252,28 @@
     </row>
     <row r="356" spans="1:15" ht="30.75">
       <c r="A356" s="2" t="s">
-        <v>1472</v>
+        <v>1460</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>1593</v>
+        <v>1581</v>
       </c>
       <c r="C356" s="11" t="s">
-        <v>1638</v>
+        <v>1626</v>
       </c>
       <c r="D356" s="8" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E356" s="11" t="s">
-        <v>1639</v>
+        <v>1627</v>
       </c>
       <c r="F356" s="8" t="s">
-        <v>1640</v>
+        <v>1628</v>
       </c>
       <c r="G356" s="11" t="s">
-        <v>1641</v>
+        <v>1629</v>
       </c>
       <c r="I356" s="11" t="s">
-        <v>1642</v>
+        <v>1630</v>
       </c>
       <c r="M356" s="8">
         <v>49.871420000000001</v>
@@ -18377,28 +18287,28 @@
     </row>
     <row r="357" spans="1:15">
       <c r="A357" s="2" t="s">
-        <v>1472</v>
+        <v>1460</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>1593</v>
+        <v>1581</v>
       </c>
       <c r="C357" s="11" t="s">
-        <v>1643</v>
+        <v>1631</v>
       </c>
       <c r="D357" s="8" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E357" s="11" t="s">
-        <v>1644</v>
+        <v>1632</v>
       </c>
       <c r="F357" s="8" t="s">
-        <v>1645</v>
+        <v>1633</v>
       </c>
       <c r="G357" s="11" t="s">
-        <v>1646</v>
+        <v>1634</v>
       </c>
       <c r="I357" s="11" t="s">
-        <v>1647</v>
+        <v>1635</v>
       </c>
       <c r="M357" s="8">
         <v>49.901159999999997</v>
@@ -18412,28 +18322,28 @@
     </row>
     <row r="358" spans="1:15" ht="45.75">
       <c r="A358" s="2" t="s">
-        <v>1546</v>
+        <v>1534</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>1553</v>
+        <v>1541</v>
       </c>
       <c r="C358" s="11" t="s">
-        <v>1648</v>
+        <v>1636</v>
       </c>
       <c r="D358" s="8" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E358" s="11" t="s">
-        <v>1649</v>
+        <v>1637</v>
       </c>
       <c r="F358" s="8" t="s">
-        <v>1650</v>
+        <v>1638</v>
       </c>
       <c r="G358" s="11" t="s">
-        <v>1651</v>
+        <v>1639</v>
       </c>
       <c r="I358" s="11" t="s">
-        <v>1652</v>
+        <v>1640</v>
       </c>
       <c r="M358" s="8">
         <v>45.957839999999997</v>
@@ -18447,28 +18357,28 @@
     </row>
     <row r="359" spans="1:15" ht="30.75">
       <c r="A359" s="2" t="s">
-        <v>1568</v>
+        <v>1556</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>1653</v>
+        <v>1641</v>
       </c>
       <c r="C359" s="11" t="s">
-        <v>1654</v>
+        <v>1642</v>
       </c>
       <c r="D359" s="8" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E359" s="11" t="s">
-        <v>1655</v>
+        <v>1643</v>
       </c>
       <c r="F359" s="8" t="s">
-        <v>1656</v>
+        <v>1644</v>
       </c>
       <c r="G359" s="11" t="s">
-        <v>1657</v>
+        <v>1645</v>
       </c>
       <c r="I359" s="11" t="s">
-        <v>1658</v>
+        <v>1646</v>
       </c>
       <c r="M359" s="8">
         <v>47.5548</v>
@@ -18482,28 +18392,28 @@
     </row>
     <row r="360" spans="1:15" ht="45.75">
       <c r="A360" s="2" t="s">
-        <v>1562</v>
+        <v>1550</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>1659</v>
+        <v>1647</v>
       </c>
       <c r="C360" s="11" t="s">
-        <v>1660</v>
+        <v>1648</v>
       </c>
       <c r="D360" s="8" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E360" s="11" t="s">
-        <v>1661</v>
+        <v>1649</v>
       </c>
       <c r="F360" s="8" t="s">
-        <v>1662</v>
+        <v>1650</v>
       </c>
       <c r="G360" s="11" t="s">
-        <v>1663</v>
+        <v>1651</v>
       </c>
       <c r="I360" s="11" t="s">
-        <v>1664</v>
+        <v>1652</v>
       </c>
       <c r="M360" s="8">
         <v>44.641649999999998</v>
@@ -18517,28 +18427,28 @@
     </row>
     <row r="361" spans="1:15" ht="45.75">
       <c r="A361" s="2" t="s">
-        <v>1565</v>
+        <v>1553</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>1611</v>
+        <v>1599</v>
       </c>
       <c r="C361" s="11" t="s">
-        <v>1665</v>
+        <v>1653</v>
       </c>
       <c r="D361" s="8" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E361" s="11" t="s">
-        <v>1666</v>
+        <v>1654</v>
       </c>
       <c r="F361" s="8" t="s">
-        <v>1667</v>
+        <v>1655</v>
       </c>
       <c r="G361" s="11" t="s">
-        <v>1668</v>
+        <v>1656</v>
       </c>
       <c r="I361" s="11" t="s">
-        <v>1669</v>
+        <v>1657</v>
       </c>
       <c r="M361" s="8">
         <v>46.236420000000003</v>
@@ -18552,28 +18462,28 @@
     </row>
     <row r="362" spans="1:15" ht="60.75">
       <c r="A362" s="2" t="s">
-        <v>1565</v>
+        <v>1553</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>1611</v>
+        <v>1599</v>
       </c>
       <c r="C362" s="11" t="s">
-        <v>1670</v>
+        <v>1658</v>
       </c>
       <c r="D362" s="8" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E362" s="11" t="s">
-        <v>1613</v>
+        <v>1601</v>
       </c>
       <c r="F362" s="8" t="s">
-        <v>1671</v>
+        <v>1659</v>
       </c>
       <c r="G362" s="11" t="s">
-        <v>1672</v>
+        <v>1660</v>
       </c>
       <c r="I362" s="11" t="s">
-        <v>1673</v>
+        <v>1661</v>
       </c>
       <c r="M362" s="8">
         <v>46.235770000000002</v>
@@ -18587,28 +18497,28 @@
     </row>
     <row r="363" spans="1:15" ht="30.75">
       <c r="A363" s="2" t="s">
-        <v>1605</v>
+        <v>1593</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>1606</v>
+        <v>1594</v>
       </c>
       <c r="C363" s="11" t="s">
-        <v>1674</v>
+        <v>1662</v>
       </c>
       <c r="D363" s="8" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E363" s="11" t="s">
-        <v>1675</v>
+        <v>1663</v>
       </c>
       <c r="F363" s="8" t="s">
-        <v>1676</v>
+        <v>1664</v>
       </c>
       <c r="G363" s="11" t="s">
-        <v>1677</v>
+        <v>1665</v>
       </c>
       <c r="I363" s="11" t="s">
-        <v>1678</v>
+        <v>1666</v>
       </c>
       <c r="M363" s="8">
         <v>45.476889999999997</v>
@@ -18622,28 +18532,28 @@
     </row>
     <row r="364" spans="1:15" ht="60.75">
       <c r="A364" s="2" t="s">
-        <v>1605</v>
+        <v>1593</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>1679</v>
+        <v>1667</v>
       </c>
       <c r="C364" s="11" t="s">
-        <v>1680</v>
+        <v>1668</v>
       </c>
       <c r="D364" s="8" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E364" s="11" t="s">
-        <v>1681</v>
+        <v>1669</v>
       </c>
       <c r="F364" s="8" t="s">
-        <v>1682</v>
+        <v>1670</v>
       </c>
       <c r="G364" s="11" t="s">
-        <v>1683</v>
+        <v>1671</v>
       </c>
       <c r="I364" s="11" t="s">
-        <v>1684</v>
+        <v>1672</v>
       </c>
       <c r="M364" s="8">
         <v>45.460500000000003</v>
@@ -18657,28 +18567,28 @@
     </row>
     <row r="365" spans="1:15" ht="30.75">
       <c r="A365" s="2" t="s">
-        <v>1432</v>
+        <v>1420</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>1438</v>
+        <v>1426</v>
       </c>
       <c r="C365" s="11" t="s">
-        <v>1685</v>
+        <v>1673</v>
       </c>
       <c r="D365" s="8" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E365" s="11" t="s">
-        <v>1589</v>
+        <v>1577</v>
       </c>
       <c r="F365" s="8" t="s">
-        <v>1686</v>
+        <v>1674</v>
       </c>
       <c r="G365" s="11" t="s">
-        <v>1687</v>
+        <v>1675</v>
       </c>
       <c r="I365" s="11" t="s">
-        <v>1688</v>
+        <v>1676</v>
       </c>
       <c r="M365" s="8">
         <v>52.132539999999999</v>
@@ -18692,28 +18602,28 @@
     </row>
     <row r="366" spans="1:15" ht="30.75">
       <c r="A366" s="2" t="s">
-        <v>1432</v>
+        <v>1420</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>1438</v>
+        <v>1426</v>
       </c>
       <c r="C366" s="11" t="s">
-        <v>1689</v>
+        <v>1677</v>
       </c>
       <c r="D366" s="8" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E366" s="11" t="s">
-        <v>1690</v>
+        <v>1678</v>
       </c>
       <c r="F366" s="8" t="s">
-        <v>1691</v>
+        <v>1679</v>
       </c>
       <c r="G366" s="11" t="s">
-        <v>1692</v>
+        <v>1680</v>
       </c>
       <c r="I366" s="11" t="s">
-        <v>1693</v>
+        <v>1681</v>
       </c>
       <c r="M366" s="8">
         <v>52.175879999999999</v>
@@ -18727,28 +18637,28 @@
     </row>
     <row r="367" spans="1:15" ht="30.75">
       <c r="A367" s="2" t="s">
-        <v>1523</v>
+        <v>1511</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>1524</v>
+        <v>1512</v>
       </c>
       <c r="C367" s="11" t="s">
-        <v>1694</v>
+        <v>1682</v>
       </c>
       <c r="D367" s="8" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E367" s="11" t="s">
-        <v>1695</v>
+        <v>1683</v>
       </c>
       <c r="F367" s="8" t="s">
-        <v>1696</v>
+        <v>1684</v>
       </c>
       <c r="G367" s="13">
         <v>6040000000</v>
       </c>
       <c r="I367" s="11" t="s">
-        <v>1697</v>
+        <v>1685</v>
       </c>
       <c r="M367" s="8">
         <v>49.281280000000002</v>
@@ -18762,29 +18672,29 @@
     </row>
     <row r="368" spans="1:15" ht="76.5">
       <c r="A368" s="2" t="s">
-        <v>1523</v>
+        <v>1511</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>1524</v>
+        <v>1512</v>
       </c>
       <c r="C368" s="11" t="s">
-        <v>1698</v>
+        <v>1686</v>
       </c>
       <c r="D368" s="8" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E368" s="11" t="s">
-        <v>1699</v>
+        <v>1687</v>
       </c>
       <c r="F368" s="8" t="s">
-        <v>1700</v>
+        <v>1688</v>
       </c>
       <c r="G368" s="13">
         <v>7780000000</v>
       </c>
       <c r="H368" s="14"/>
       <c r="I368" s="11" t="s">
-        <v>1701</v>
+        <v>1689</v>
       </c>
       <c r="M368" s="8">
         <v>49.281219999999998</v>
@@ -18807,40 +18717,40 @@
     </row>
     <row r="371" spans="1:15" ht="32.25">
       <c r="A371" t="s">
-        <v>1571</v>
+        <v>1559</v>
       </c>
       <c r="B371" t="s">
-        <v>1572</v>
+        <v>1560</v>
       </c>
       <c r="C371" s="15" t="s">
-        <v>1702</v>
+        <v>1690</v>
       </c>
       <c r="D371" s="6" t="s">
-        <v>1703</v>
+        <v>1691</v>
       </c>
       <c r="E371" s="5" t="s">
-        <v>1704</v>
+        <v>1692</v>
       </c>
       <c r="F371" s="15" t="s">
-        <v>1705</v>
+        <v>1693</v>
       </c>
       <c r="G371" s="14" t="s">
-        <v>1706</v>
+        <v>1694</v>
       </c>
       <c r="H371" s="14" t="s">
-        <v>1707</v>
+        <v>1695</v>
       </c>
       <c r="I371" s="14" t="s">
-        <v>1708</v>
+        <v>1696</v>
       </c>
       <c r="K371" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="L371" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="M371" s="5" t="s">
-        <v>1710</v>
+        <v>1698</v>
       </c>
       <c r="N371" s="5">
         <v>-76.497601282055797</v>
@@ -18851,34 +18761,34 @@
     </row>
     <row r="372" spans="1:15">
       <c r="A372" s="8" t="s">
-        <v>1571</v>
+        <v>1559</v>
       </c>
       <c r="B372" s="8" t="s">
-        <v>1572</v>
+        <v>1560</v>
       </c>
       <c r="C372" s="9" t="s">
-        <v>1711</v>
+        <v>1699</v>
       </c>
       <c r="D372" s="8" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E372" s="8" t="s">
-        <v>1712</v>
+        <v>1700</v>
       </c>
       <c r="F372" s="8" t="s">
-        <v>1713</v>
+        <v>1701</v>
       </c>
       <c r="G372" s="9" t="s">
-        <v>1714</v>
+        <v>1702</v>
       </c>
       <c r="I372" s="7" t="s">
-        <v>1715</v>
+        <v>1703</v>
       </c>
       <c r="K372" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="L372" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="M372" s="8">
         <v>44.224400000000003</v>
@@ -18892,34 +18802,34 @@
     </row>
     <row r="373" spans="1:15">
       <c r="A373" s="8" t="s">
-        <v>1571</v>
+        <v>1559</v>
       </c>
       <c r="B373" s="8" t="s">
-        <v>1572</v>
+        <v>1560</v>
       </c>
       <c r="C373" s="8" t="s">
-        <v>1716</v>
+        <v>1704</v>
       </c>
       <c r="D373" s="8" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E373" s="9" t="s">
-        <v>1717</v>
+        <v>1705</v>
       </c>
       <c r="F373" s="8" t="s">
-        <v>1718</v>
+        <v>1706</v>
       </c>
       <c r="G373" s="8" t="s">
-        <v>1719</v>
+        <v>1707</v>
       </c>
       <c r="I373" s="7" t="s">
-        <v>1720</v>
+        <v>1708</v>
       </c>
       <c r="K373" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="L373" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="M373" s="8">
         <v>44.224229999999999</v>
@@ -18933,34 +18843,34 @@
     </row>
     <row r="374" spans="1:15">
       <c r="A374" s="8" t="s">
-        <v>1571</v>
+        <v>1559</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>1572</v>
+        <v>1560</v>
       </c>
       <c r="C374" s="8" t="s">
-        <v>1721</v>
+        <v>1709</v>
       </c>
       <c r="D374" s="8" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E374" s="8" t="s">
-        <v>1722</v>
+        <v>1710</v>
       </c>
       <c r="F374" s="8" t="s">
-        <v>1723</v>
+        <v>1711</v>
       </c>
       <c r="G374" s="8" t="s">
-        <v>1724</v>
+        <v>1712</v>
       </c>
       <c r="I374" s="7" t="s">
-        <v>1725</v>
+        <v>1713</v>
       </c>
       <c r="K374" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="L374" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="M374" s="8">
         <v>44.240029999999997</v>
@@ -18989,34 +18899,34 @@
     </row>
     <row r="376" spans="1:15">
       <c r="A376" s="8" t="s">
-        <v>1571</v>
+        <v>1559</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>1572</v>
+        <v>1560</v>
       </c>
       <c r="C376" s="8" t="s">
-        <v>1726</v>
+        <v>1714</v>
       </c>
       <c r="D376" s="8" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E376" s="8" t="s">
-        <v>1727</v>
+        <v>1715</v>
       </c>
       <c r="F376" s="8" t="s">
-        <v>1728</v>
+        <v>1716</v>
       </c>
       <c r="G376" s="8" t="s">
-        <v>1729</v>
+        <v>1717</v>
       </c>
       <c r="I376" s="7" t="s">
-        <v>1730</v>
+        <v>1718</v>
       </c>
       <c r="K376" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="L376" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="M376" s="8">
         <v>44.224850000000004</v>
@@ -19030,34 +18940,34 @@
     </row>
     <row r="377" spans="1:15">
       <c r="A377" s="8" t="s">
-        <v>1571</v>
+        <v>1559</v>
       </c>
       <c r="B377" s="8" t="s">
-        <v>1572</v>
+        <v>1560</v>
       </c>
       <c r="C377" s="8" t="s">
-        <v>1731</v>
+        <v>1719</v>
       </c>
       <c r="D377" s="8" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E377" s="8" t="s">
-        <v>1732</v>
+        <v>1720</v>
       </c>
       <c r="F377" s="8" t="s">
-        <v>1733</v>
+        <v>1721</v>
       </c>
       <c r="G377" s="8" t="s">
-        <v>1734</v>
+        <v>1722</v>
       </c>
       <c r="I377" s="7" t="s">
-        <v>1735</v>
+        <v>1723</v>
       </c>
       <c r="K377" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="L377" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="M377" s="8">
         <v>44.237290000000002</v>
@@ -19071,34 +18981,34 @@
     </row>
     <row r="378" spans="1:15">
       <c r="A378" s="8" t="s">
-        <v>1571</v>
+        <v>1559</v>
       </c>
       <c r="B378" s="8" t="s">
-        <v>1572</v>
+        <v>1560</v>
       </c>
       <c r="C378" s="8" t="s">
-        <v>1736</v>
+        <v>1724</v>
       </c>
       <c r="D378" s="8" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E378" s="8" t="s">
-        <v>1737</v>
+        <v>1725</v>
       </c>
       <c r="F378" s="8" t="s">
-        <v>1738</v>
+        <v>1726</v>
       </c>
       <c r="G378" s="8" t="s">
-        <v>1739</v>
+        <v>1727</v>
       </c>
       <c r="I378" s="7" t="s">
-        <v>1740</v>
+        <v>1728</v>
       </c>
       <c r="K378" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="L378" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="M378" s="8">
         <v>44.2288</v>
@@ -19112,34 +19022,34 @@
     </row>
     <row r="379" spans="1:15">
       <c r="A379" s="8" t="s">
-        <v>1571</v>
+        <v>1559</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>1572</v>
+        <v>1560</v>
       </c>
       <c r="C379" s="8" t="s">
-        <v>1741</v>
+        <v>1729</v>
       </c>
       <c r="D379" s="8" t="s">
         <v>1383</v>
       </c>
       <c r="E379" s="8" t="s">
-        <v>1742</v>
+        <v>1730</v>
       </c>
       <c r="F379" s="8" t="s">
-        <v>1743</v>
+        <v>1731</v>
       </c>
       <c r="G379" s="8" t="s">
-        <v>1744</v>
+        <v>1732</v>
       </c>
       <c r="I379" s="7" t="s">
-        <v>1745</v>
+        <v>1733</v>
       </c>
       <c r="K379" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="L379" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="M379" s="8">
         <v>44.227350000000001</v>
@@ -19156,25 +19066,25 @@
       <c r="B380" s="8"/>
       <c r="C380" s="8"/>
       <c r="D380" s="8" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E380" s="8" t="s">
-        <v>1746</v>
+        <v>1734</v>
       </c>
       <c r="F380" s="8" t="s">
-        <v>1747</v>
+        <v>1735</v>
       </c>
       <c r="G380" s="8" t="s">
-        <v>1748</v>
+        <v>1736</v>
       </c>
       <c r="I380" s="7" t="s">
-        <v>1749</v>
+        <v>1737</v>
       </c>
       <c r="K380" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="L380" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="M380" s="8"/>
       <c r="N380" s="8"/>
@@ -19199,32 +19109,32 @@
     </row>
     <row r="382" spans="1:15">
       <c r="A382" s="8" t="s">
-        <v>1571</v>
+        <v>1559</v>
       </c>
       <c r="B382" s="8" t="s">
-        <v>1572</v>
+        <v>1560</v>
       </c>
       <c r="C382" s="8"/>
       <c r="D382" s="8" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E382" s="9" t="s">
-        <v>1750</v>
+        <v>1738</v>
       </c>
       <c r="F382" s="8" t="s">
-        <v>1751</v>
+        <v>1739</v>
       </c>
       <c r="G382" s="8" t="s">
-        <v>1752</v>
+        <v>1740</v>
       </c>
       <c r="I382" s="7" t="s">
-        <v>1753</v>
+        <v>1741</v>
       </c>
       <c r="K382" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="L382" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="M382" s="8"/>
       <c r="N382" s="8"/>
@@ -19234,34 +19144,34 @@
     </row>
     <row r="383" spans="1:15">
       <c r="A383" s="8" t="s">
-        <v>1571</v>
+        <v>1559</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>1572</v>
+        <v>1560</v>
       </c>
       <c r="C383" s="8" t="s">
-        <v>1754</v>
+        <v>1742</v>
       </c>
       <c r="D383" s="8" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E383" s="8" t="s">
-        <v>1755</v>
+        <v>1743</v>
       </c>
       <c r="F383" s="8" t="s">
-        <v>1756</v>
+        <v>1744</v>
       </c>
       <c r="G383" s="8" t="s">
-        <v>1757</v>
+        <v>1745</v>
       </c>
       <c r="I383" s="7" t="s">
-        <v>1758</v>
+        <v>1746</v>
       </c>
       <c r="K383" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="L383" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="M383" s="8">
         <v>44.228650000000002</v>
@@ -19290,40 +19200,40 @@
     </row>
     <row r="385" spans="1:15">
       <c r="A385" s="8" t="s">
-        <v>1571</v>
+        <v>1559</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>1572</v>
+        <v>1560</v>
       </c>
       <c r="C385" s="6" t="s">
-        <v>1759</v>
+        <v>1747</v>
       </c>
       <c r="D385" s="8" t="s">
         <v>1378</v>
       </c>
       <c r="E385" s="6" t="s">
-        <v>1760</v>
+        <v>1748</v>
       </c>
       <c r="F385" s="6" t="s">
-        <v>1761</v>
+        <v>1749</v>
       </c>
       <c r="G385" s="6" t="s">
-        <v>1762</v>
+        <v>1750</v>
       </c>
       <c r="H385" s="17" t="s">
-        <v>1763</v>
+        <v>1751</v>
       </c>
       <c r="I385" s="7" t="s">
-        <v>1764</v>
+        <v>1752</v>
       </c>
       <c r="J385" s="6" t="s">
-        <v>1765</v>
+        <v>1753</v>
       </c>
       <c r="K385" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="L385" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="M385" s="6">
         <v>44.225000000000001</v>
@@ -19337,40 +19247,40 @@
     </row>
     <row r="386" spans="1:15">
       <c r="A386" s="8" t="s">
-        <v>1571</v>
+        <v>1559</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>1572</v>
+        <v>1560</v>
       </c>
       <c r="C386" s="6" t="s">
-        <v>1766</v>
+        <v>1754</v>
       </c>
       <c r="D386" s="8" t="s">
         <v>1378</v>
       </c>
       <c r="E386" s="6" t="s">
-        <v>1767</v>
+        <v>1755</v>
       </c>
       <c r="F386" s="6" t="s">
-        <v>1768</v>
+        <v>1756</v>
       </c>
       <c r="G386" s="6" t="s">
-        <v>1769</v>
+        <v>1757</v>
       </c>
       <c r="H386" s="17" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
       <c r="I386" s="7" t="s">
-        <v>1771</v>
+        <v>1759</v>
       </c>
       <c r="J386" s="6" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
       <c r="K386" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="L386" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="M386" s="6">
         <v>44.226939999999999</v>
@@ -19384,40 +19294,40 @@
     </row>
     <row r="387" spans="1:15">
       <c r="A387" s="8" t="s">
-        <v>1571</v>
+        <v>1559</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>1572</v>
+        <v>1560</v>
       </c>
       <c r="C387" s="6" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
       <c r="D387" s="8" t="s">
         <v>1378</v>
       </c>
       <c r="E387" s="6" t="s">
-        <v>1774</v>
+        <v>1762</v>
       </c>
       <c r="F387" s="6" t="s">
-        <v>1775</v>
+        <v>1763</v>
       </c>
       <c r="G387" s="6" t="s">
-        <v>1776</v>
+        <v>1764</v>
       </c>
       <c r="H387" s="17" t="s">
-        <v>1777</v>
+        <v>1765</v>
       </c>
       <c r="I387" s="17" t="s">
-        <v>1778</v>
+        <v>1766</v>
       </c>
       <c r="J387" s="6" t="s">
-        <v>1779</v>
+        <v>1767</v>
       </c>
       <c r="K387" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="L387" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="M387" s="6">
         <v>44.225000000000001</v>
@@ -19431,40 +19341,40 @@
     </row>
     <row r="388" spans="1:15">
       <c r="A388" s="8" t="s">
-        <v>1571</v>
+        <v>1559</v>
       </c>
       <c r="B388" s="16" t="s">
         <v>285</v>
       </c>
       <c r="C388" s="6" t="s">
-        <v>1780</v>
+        <v>1768</v>
       </c>
       <c r="D388" s="8" t="s">
         <v>1378</v>
       </c>
       <c r="E388" s="6" t="s">
-        <v>1781</v>
+        <v>1769</v>
       </c>
       <c r="F388" s="6" t="s">
-        <v>1782</v>
+        <v>1770</v>
       </c>
       <c r="G388" s="6" t="s">
-        <v>1783</v>
+        <v>1771</v>
       </c>
       <c r="H388" s="17" t="s">
-        <v>1784</v>
+        <v>1772</v>
       </c>
       <c r="I388" s="17" t="s">
-        <v>1785</v>
+        <v>1773</v>
       </c>
       <c r="J388" s="6" t="s">
-        <v>1786</v>
+        <v>1774</v>
       </c>
       <c r="K388" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="L388" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="M388" s="6">
         <v>44.225499999999997</v>
@@ -19478,40 +19388,40 @@
     </row>
     <row r="389" spans="1:15">
       <c r="A389" s="16" t="s">
-        <v>1571</v>
+        <v>1559</v>
       </c>
       <c r="B389" s="16" t="s">
-        <v>1572</v>
+        <v>1560</v>
       </c>
       <c r="C389" s="6" t="s">
-        <v>1787</v>
+        <v>1775</v>
       </c>
       <c r="D389" s="6" t="s">
-        <v>1703</v>
+        <v>1691</v>
       </c>
       <c r="E389" s="6" t="s">
-        <v>1788</v>
+        <v>1776</v>
       </c>
       <c r="F389" s="6" t="s">
-        <v>1789</v>
+        <v>1777</v>
       </c>
       <c r="G389" s="16" t="s">
-        <v>1790</v>
+        <v>1778</v>
       </c>
       <c r="H389" s="18" t="s">
-        <v>1791</v>
+        <v>1779</v>
       </c>
       <c r="I389" s="18" t="s">
-        <v>1792</v>
+        <v>1780</v>
       </c>
       <c r="J389" s="16" t="s">
-        <v>1793</v>
+        <v>1781</v>
       </c>
       <c r="K389" s="6" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="L389" s="6" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="M389" s="6">
         <v>44.234200000000001</v>
@@ -19525,40 +19435,40 @@
     </row>
     <row r="390" spans="1:15">
       <c r="A390" s="16" t="s">
-        <v>1571</v>
+        <v>1559</v>
       </c>
       <c r="B390" s="16" t="s">
-        <v>1572</v>
+        <v>1560</v>
       </c>
       <c r="C390" t="s">
-        <v>1794</v>
+        <v>1782</v>
       </c>
       <c r="D390" s="6" t="s">
-        <v>1795</v>
+        <v>1783</v>
       </c>
       <c r="E390" s="5" t="s">
-        <v>1796</v>
+        <v>1784</v>
       </c>
       <c r="F390" t="s">
-        <v>1797</v>
+        <v>1785</v>
       </c>
       <c r="G390" s="5" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
       <c r="H390" s="7" t="s">
-        <v>1799</v>
+        <v>1787</v>
       </c>
       <c r="I390" s="7" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
       <c r="J390" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
       <c r="K390" s="5" t="s">
-        <v>1802</v>
+        <v>1790</v>
       </c>
       <c r="L390" s="5" t="s">
-        <v>1802</v>
+        <v>1790</v>
       </c>
       <c r="M390">
         <v>44.235999999999997</v>
@@ -19572,40 +19482,40 @@
     </row>
     <row r="391" spans="1:15">
       <c r="A391" s="16" t="s">
-        <v>1571</v>
+        <v>1559</v>
       </c>
       <c r="B391" s="16" t="s">
-        <v>1572</v>
+        <v>1560</v>
       </c>
       <c r="C391" t="s">
-        <v>1803</v>
+        <v>1791</v>
       </c>
       <c r="D391" s="8" t="s">
         <v>1378</v>
       </c>
       <c r="E391" t="s">
-        <v>1804</v>
+        <v>1792</v>
       </c>
       <c r="F391" t="s">
-        <v>1805</v>
+        <v>1793</v>
       </c>
       <c r="G391" t="s">
-        <v>1806</v>
+        <v>1794</v>
       </c>
       <c r="H391" s="7" t="s">
-        <v>1807</v>
+        <v>1795</v>
       </c>
       <c r="I391" s="7" t="s">
-        <v>1808</v>
+        <v>1796</v>
       </c>
       <c r="J391" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
       <c r="K391" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="L391" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="M391">
         <v>44.226939999999999</v>
@@ -19619,40 +19529,40 @@
     </row>
     <row r="392" spans="1:15">
       <c r="A392" s="16" t="s">
-        <v>1571</v>
+        <v>1559</v>
       </c>
       <c r="B392" s="16" t="s">
-        <v>1572</v>
+        <v>1560</v>
       </c>
       <c r="C392" t="s">
-        <v>1809</v>
+        <v>1797</v>
       </c>
       <c r="D392" s="8" t="s">
         <v>1378</v>
       </c>
       <c r="E392" t="s">
-        <v>1810</v>
+        <v>1798</v>
       </c>
       <c r="F392" t="s">
-        <v>1811</v>
+        <v>1799</v>
       </c>
       <c r="G392" t="s">
-        <v>1812</v>
+        <v>1800</v>
       </c>
       <c r="H392" s="7" t="s">
-        <v>1813</v>
+        <v>1801</v>
       </c>
       <c r="I392" s="7" t="s">
-        <v>1814</v>
+        <v>1802</v>
       </c>
       <c r="J392" t="s">
-        <v>1815</v>
+        <v>1803</v>
       </c>
       <c r="K392" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="L392" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="M392">
         <v>44.228140000000003</v>
@@ -19700,40 +19610,40 @@
     </row>
     <row r="395" spans="1:15">
       <c r="A395" s="16" t="s">
-        <v>1571</v>
+        <v>1559</v>
       </c>
       <c r="B395" s="16" t="s">
-        <v>1572</v>
+        <v>1560</v>
       </c>
       <c r="C395" t="s">
-        <v>1809</v>
+        <v>1797</v>
       </c>
       <c r="D395" s="8" t="s">
         <v>1378</v>
       </c>
       <c r="E395" t="s">
-        <v>1816</v>
+        <v>1804</v>
       </c>
       <c r="F395" t="s">
-        <v>1817</v>
+        <v>1805</v>
       </c>
       <c r="G395" t="s">
-        <v>1818</v>
+        <v>1806</v>
       </c>
       <c r="H395" s="7" t="s">
-        <v>1819</v>
+        <v>1807</v>
       </c>
       <c r="I395" s="7" t="s">
-        <v>1820</v>
+        <v>1808</v>
       </c>
       <c r="J395" t="s">
-        <v>1821</v>
+        <v>1809</v>
       </c>
       <c r="K395" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="L395" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="M395">
         <v>44.228140000000003</v>
@@ -19747,40 +19657,40 @@
     </row>
     <row r="396" spans="1:15">
       <c r="A396" s="16" t="s">
-        <v>1571</v>
+        <v>1559</v>
       </c>
       <c r="B396" s="16" t="s">
-        <v>1572</v>
+        <v>1560</v>
       </c>
       <c r="C396" t="s">
-        <v>1822</v>
+        <v>1810</v>
       </c>
       <c r="D396" s="16" t="s">
-        <v>1823</v>
+        <v>1811</v>
       </c>
       <c r="E396" t="s">
-        <v>1824</v>
+        <v>1812</v>
       </c>
       <c r="F396" t="s">
-        <v>1825</v>
+        <v>1813</v>
       </c>
       <c r="G396" t="s">
-        <v>1826</v>
+        <v>1814</v>
       </c>
       <c r="H396" s="7" t="s">
-        <v>1827</v>
+        <v>1815</v>
       </c>
       <c r="I396" s="7" t="s">
-        <v>1828</v>
+        <v>1816</v>
       </c>
       <c r="J396" t="s">
-        <v>1829</v>
+        <v>1817</v>
       </c>
       <c r="K396" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="L396" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="M396">
         <v>44.225000000000001</v>
@@ -19794,40 +19704,40 @@
     </row>
     <row r="397" spans="1:15">
       <c r="A397" s="16" t="s">
-        <v>1571</v>
+        <v>1559</v>
       </c>
       <c r="B397" s="16" t="s">
-        <v>1572</v>
+        <v>1560</v>
       </c>
       <c r="C397" t="s">
-        <v>1830</v>
+        <v>1818</v>
       </c>
       <c r="D397" s="8" t="s">
         <v>1378</v>
       </c>
       <c r="E397" t="s">
-        <v>1831</v>
+        <v>1819</v>
       </c>
       <c r="F397" t="s">
-        <v>1832</v>
+        <v>1820</v>
       </c>
       <c r="G397" t="s">
-        <v>1833</v>
+        <v>1821</v>
       </c>
       <c r="H397" s="7" t="s">
-        <v>1834</v>
+        <v>1822</v>
       </c>
       <c r="I397" s="7" t="s">
-        <v>1835</v>
+        <v>1823</v>
       </c>
       <c r="J397" t="s">
-        <v>1821</v>
+        <v>1809</v>
       </c>
       <c r="K397" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="L397" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="M397">
         <v>44.225000000000001</v>
@@ -19858,40 +19768,40 @@
     </row>
     <row r="399" spans="1:15">
       <c r="A399" t="s">
-        <v>1571</v>
+        <v>1559</v>
       </c>
       <c r="B399" t="s">
-        <v>1572</v>
+        <v>1560</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>1836</v>
+        <v>1824</v>
       </c>
       <c r="D399" s="6" t="s">
-        <v>1837</v>
+        <v>1825</v>
       </c>
       <c r="E399" s="5" t="s">
-        <v>1838</v>
+        <v>1826</v>
       </c>
       <c r="F399" s="5" t="s">
-        <v>1839</v>
+        <v>1827</v>
       </c>
       <c r="G399" s="5" t="s">
-        <v>1840</v>
+        <v>1828</v>
       </c>
       <c r="H399" s="5" t="s">
-        <v>1707</v>
+        <v>1695</v>
       </c>
       <c r="I399" s="5" t="s">
-        <v>1841</v>
+        <v>1829</v>
       </c>
       <c r="J399" s="5" t="s">
-        <v>1842</v>
+        <v>1830</v>
       </c>
       <c r="K399" s="5" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="L399" s="5" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="M399" s="5">
         <v>44.233333999999999</v>
@@ -19905,40 +19815,40 @@
     </row>
     <row r="400" spans="1:15">
       <c r="A400" t="s">
-        <v>1571</v>
+        <v>1559</v>
       </c>
       <c r="B400" t="s">
-        <v>1572</v>
+        <v>1560</v>
       </c>
       <c r="C400" t="s">
-        <v>1843</v>
+        <v>1831</v>
       </c>
       <c r="D400" s="16" t="s">
-        <v>1844</v>
+        <v>1832</v>
       </c>
       <c r="E400" t="s">
-        <v>1845</v>
+        <v>1833</v>
       </c>
       <c r="F400" s="7" t="s">
-        <v>1846</v>
+        <v>1834</v>
       </c>
       <c r="G400" t="s">
-        <v>1847</v>
+        <v>1835</v>
       </c>
       <c r="H400" s="7" t="s">
-        <v>1848</v>
+        <v>1836</v>
       </c>
       <c r="I400" s="7" t="s">
-        <v>1849</v>
+        <v>1837</v>
       </c>
       <c r="J400" s="7" t="s">
-        <v>1850</v>
+        <v>1838</v>
       </c>
       <c r="K400" s="8" t="s">
-        <v>1802</v>
+        <v>1790</v>
       </c>
       <c r="L400" s="8" t="s">
-        <v>1802</v>
+        <v>1790</v>
       </c>
       <c r="M400">
         <v>44.275409000000003</v>
@@ -19952,40 +19862,40 @@
     </row>
     <row r="401" spans="1:15">
       <c r="A401" t="s">
-        <v>1571</v>
+        <v>1559</v>
       </c>
       <c r="B401" t="s">
-        <v>1572</v>
+        <v>1560</v>
       </c>
       <c r="C401" t="s">
-        <v>1851</v>
+        <v>1839</v>
       </c>
       <c r="D401" s="16" t="s">
-        <v>1852</v>
+        <v>1840</v>
       </c>
       <c r="E401" t="s">
-        <v>1853</v>
+        <v>1841</v>
       </c>
       <c r="F401" s="7" t="s">
-        <v>1854</v>
+        <v>1842</v>
       </c>
       <c r="G401" s="7" t="s">
-        <v>1855</v>
+        <v>1843</v>
       </c>
       <c r="H401" t="s">
-        <v>1856</v>
+        <v>1844</v>
       </c>
       <c r="I401" s="7" t="s">
-        <v>1857</v>
+        <v>1845</v>
       </c>
       <c r="J401" s="7" t="s">
-        <v>1858</v>
+        <v>1846</v>
       </c>
       <c r="K401" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="L401" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="M401">
         <v>44.233333999999999</v>
@@ -19999,38 +19909,38 @@
     </row>
     <row r="402" spans="1:15">
       <c r="A402" t="s">
-        <v>1571</v>
+        <v>1559</v>
       </c>
       <c r="B402" t="s">
-        <v>1572</v>
+        <v>1560</v>
       </c>
       <c r="C402" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
       <c r="D402" s="8" t="s">
         <v>1378</v>
       </c>
       <c r="E402" t="s">
-        <v>1860</v>
+        <v>1848</v>
       </c>
       <c r="F402" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
       <c r="G402" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
       <c r="H402" s="7" t="s">
-        <v>1863</v>
+        <v>1851</v>
       </c>
       <c r="I402" s="7" t="s">
-        <v>1864</v>
+        <v>1852</v>
       </c>
       <c r="J402"/>
       <c r="K402" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="L402" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="M402">
         <v>44.225299999999997</v>
@@ -20044,36 +19954,36 @@
     </row>
     <row r="403" spans="1:15">
       <c r="A403" t="s">
-        <v>1571</v>
+        <v>1559</v>
       </c>
       <c r="B403" t="s">
-        <v>1572</v>
+        <v>1560</v>
       </c>
       <c r="C403" t="s">
-        <v>1865</v>
+        <v>1853</v>
       </c>
       <c r="D403" s="16" t="s">
-        <v>1866</v>
+        <v>1854</v>
       </c>
       <c r="E403" t="s">
-        <v>1867</v>
+        <v>1855</v>
       </c>
       <c r="F403" t="s">
-        <v>1868</v>
+        <v>1856</v>
       </c>
       <c r="G403"/>
       <c r="H403" s="7" t="s">
-        <v>1869</v>
+        <v>1857</v>
       </c>
       <c r="I403" s="7" t="s">
-        <v>1870</v>
+        <v>1858</v>
       </c>
       <c r="J403"/>
       <c r="K403" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="L403" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="M403">
         <v>44.225299999999997</v>
@@ -20102,38 +20012,38 @@
     </row>
     <row r="405" spans="1:15">
       <c r="A405" t="s">
-        <v>1571</v>
+        <v>1559</v>
       </c>
       <c r="B405" t="s">
-        <v>1572</v>
+        <v>1560</v>
       </c>
       <c r="C405" t="s">
-        <v>1871</v>
+        <v>1859</v>
       </c>
       <c r="D405" s="16" t="s">
-        <v>1852</v>
+        <v>1840</v>
       </c>
       <c r="E405" t="s">
-        <v>1712</v>
+        <v>1700</v>
       </c>
       <c r="F405" t="s">
-        <v>1872</v>
+        <v>1860</v>
       </c>
       <c r="G405" t="s">
-        <v>1873</v>
+        <v>1861</v>
       </c>
       <c r="H405" s="7" t="s">
-        <v>1874</v>
+        <v>1862</v>
       </c>
       <c r="I405" s="7" t="s">
-        <v>1715</v>
+        <v>1703</v>
       </c>
       <c r="J405"/>
       <c r="K405" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="L405" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="M405">
         <v>44.225299999999997</v>
@@ -20177,40 +20087,40 @@
     </row>
     <row r="408" spans="1:15">
       <c r="A408" t="s">
-        <v>1571</v>
+        <v>1559</v>
       </c>
       <c r="B408" t="s">
-        <v>1572</v>
+        <v>1560</v>
       </c>
       <c r="C408" t="s">
-        <v>1875</v>
+        <v>1863</v>
       </c>
       <c r="D408" s="8" t="s">
         <v>1378</v>
       </c>
       <c r="E408" t="s">
-        <v>1876</v>
+        <v>1864</v>
       </c>
       <c r="F408" t="s">
-        <v>1877</v>
+        <v>1865</v>
       </c>
       <c r="G408" t="s">
-        <v>1878</v>
+        <v>1866</v>
       </c>
       <c r="H408" s="7" t="s">
-        <v>1879</v>
+        <v>1867</v>
       </c>
       <c r="I408" s="7" t="s">
-        <v>1880</v>
+        <v>1868</v>
       </c>
       <c r="J408" t="s">
-        <v>1881</v>
+        <v>1869</v>
       </c>
       <c r="K408" t="s">
-        <v>1802</v>
+        <v>1790</v>
       </c>
       <c r="L408" t="s">
-        <v>1802</v>
+        <v>1790</v>
       </c>
       <c r="M408">
         <v>44.225299999999997</v>
@@ -20239,40 +20149,40 @@
     </row>
     <row r="410" spans="1:15">
       <c r="A410" t="s">
-        <v>1571</v>
+        <v>1559</v>
       </c>
       <c r="B410" t="s">
-        <v>1572</v>
+        <v>1560</v>
       </c>
       <c r="C410" t="s">
-        <v>1882</v>
+        <v>1870</v>
       </c>
       <c r="D410" s="8" t="s">
         <v>1378</v>
       </c>
       <c r="E410" t="s">
-        <v>1883</v>
+        <v>1871</v>
       </c>
       <c r="F410" t="s">
-        <v>1884</v>
+        <v>1872</v>
       </c>
       <c r="G410" t="s">
-        <v>1833</v>
+        <v>1821</v>
       </c>
       <c r="H410" s="7" t="s">
-        <v>1885</v>
+        <v>1873</v>
       </c>
       <c r="I410" s="7" t="s">
-        <v>1886</v>
+        <v>1874</v>
       </c>
       <c r="J410" t="s">
-        <v>1887</v>
+        <v>1875</v>
       </c>
       <c r="K410" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="L410" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="M410">
         <v>44.225299999999997</v>
@@ -20286,40 +20196,40 @@
     </row>
     <row r="411" spans="1:15">
       <c r="A411" t="s">
-        <v>1571</v>
+        <v>1559</v>
       </c>
       <c r="B411" t="s">
-        <v>1572</v>
+        <v>1560</v>
       </c>
       <c r="C411" t="s">
-        <v>1888</v>
+        <v>1876</v>
       </c>
       <c r="D411" s="8" t="s">
         <v>1378</v>
       </c>
       <c r="E411" t="s">
-        <v>1889</v>
+        <v>1877</v>
       </c>
       <c r="F411" t="s">
-        <v>1890</v>
+        <v>1878</v>
       </c>
       <c r="G411" t="s">
-        <v>1891</v>
+        <v>1879</v>
       </c>
       <c r="H411" s="7" t="s">
-        <v>1892</v>
+        <v>1880</v>
       </c>
       <c r="I411" s="7" t="s">
-        <v>1893</v>
+        <v>1881</v>
       </c>
       <c r="J411" t="s">
-        <v>1821</v>
+        <v>1809</v>
       </c>
       <c r="K411" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="L411" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="M411">
         <v>44.228299999999997</v>
@@ -20333,40 +20243,40 @@
     </row>
     <row r="412" spans="1:15">
       <c r="A412" t="s">
-        <v>1571</v>
+        <v>1559</v>
       </c>
       <c r="B412" t="s">
-        <v>1572</v>
+        <v>1560</v>
       </c>
       <c r="C412" t="s">
-        <v>1894</v>
+        <v>1882</v>
       </c>
       <c r="D412" s="8" t="s">
         <v>1378</v>
       </c>
       <c r="E412" t="s">
-        <v>1895</v>
+        <v>1883</v>
       </c>
       <c r="F412" t="s">
-        <v>1896</v>
+        <v>1884</v>
       </c>
       <c r="G412" t="s">
-        <v>1897</v>
+        <v>1885</v>
       </c>
       <c r="H412" s="7" t="s">
-        <v>1898</v>
+        <v>1886</v>
       </c>
       <c r="I412" s="7" t="s">
-        <v>1899</v>
+        <v>1887</v>
       </c>
       <c r="J412" t="s">
-        <v>1900</v>
+        <v>1888</v>
       </c>
       <c r="K412" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="L412" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="M412">
         <v>44.225299999999997</v>
@@ -20380,40 +20290,40 @@
     </row>
     <row r="413" spans="1:15">
       <c r="A413" t="s">
-        <v>1571</v>
+        <v>1559</v>
       </c>
       <c r="B413" t="s">
-        <v>1572</v>
+        <v>1560</v>
       </c>
       <c r="C413" t="s">
-        <v>1901</v>
+        <v>1889</v>
       </c>
       <c r="D413" s="8" t="s">
         <v>1378</v>
       </c>
       <c r="E413" t="s">
-        <v>1902</v>
+        <v>1890</v>
       </c>
       <c r="F413" t="s">
-        <v>1903</v>
+        <v>1891</v>
       </c>
       <c r="G413" t="s">
-        <v>1904</v>
+        <v>1892</v>
       </c>
       <c r="H413" s="7" t="s">
-        <v>1905</v>
+        <v>1893</v>
       </c>
       <c r="I413" s="7" t="s">
-        <v>1906</v>
+        <v>1894</v>
       </c>
       <c r="J413" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
       <c r="K413" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="L413" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="M413">
         <v>44.225299999999997</v>
@@ -20442,40 +20352,40 @@
     </row>
     <row r="415" spans="1:15">
       <c r="A415" t="s">
-        <v>1571</v>
+        <v>1559</v>
       </c>
       <c r="B415" t="s">
-        <v>1572</v>
+        <v>1560</v>
       </c>
       <c r="C415" t="s">
-        <v>1907</v>
+        <v>1895</v>
       </c>
       <c r="D415" s="8" t="s">
         <v>1378</v>
       </c>
       <c r="E415" t="s">
-        <v>1908</v>
+        <v>1896</v>
       </c>
       <c r="F415" t="s">
-        <v>1909</v>
+        <v>1897</v>
       </c>
       <c r="G415" t="s">
-        <v>1910</v>
+        <v>1898</v>
       </c>
       <c r="H415" s="7" t="s">
-        <v>1911</v>
+        <v>1899</v>
       </c>
       <c r="I415" s="7" t="s">
-        <v>1912</v>
+        <v>1900</v>
       </c>
       <c r="J415" t="s">
-        <v>1913</v>
+        <v>1901</v>
       </c>
       <c r="K415" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="L415" s="8" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="M415">
         <v>44.225299999999997</v>
